--- a/BMRN.xlsx
+++ b/BMRN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9372D98F-1C61-42C8-B606-0CE6E57D7CF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B6C42-D674-47C8-BB21-9FA4EE11E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24630" yWindow="2850" windowWidth="24420" windowHeight="17865" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
+    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
   <si>
     <t>Price</t>
   </si>
@@ -498,12 +498,27 @@
   </si>
   <si>
     <t>3/31/23 PDUFA</t>
+  </si>
+  <si>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Q124</t>
+  </si>
+  <si>
+    <t>Q324</t>
+  </si>
+  <si>
+    <t>Q424</t>
+  </si>
+  <si>
+    <t>CFFO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -765,7 +780,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{1440AA1A-2E44-4A6B-A9B5-22F407039263}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -781,16 +798,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15602</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21556</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>32410</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>15602</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>21556</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>53578</xdr:rowOff>
+      <xdr:rowOff>21168</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -805,7 +822,7 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8236868" y="32410"/>
+          <a:off x="12493353" y="0"/>
           <a:ext cx="0" cy="9022293"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -831,13 +848,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>31421</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>31421</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>71437</xdr:rowOff>
@@ -883,9 +900,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -923,7 +940,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1029,7 +1046,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1171,7 +1188,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1181,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D32D52D-8D10-4D01-9D30-7F79A6792282}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1222,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>109</v>
+        <v>91.21</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -1246,10 +1263,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>185.84891500000001</v>
+        <v>190.382822</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.2">
@@ -1273,7 +1290,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>20257.531735</v>
+        <v>17364.817194619998</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1296,10 +1313,11 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <v>1646</v>
+        <f>972.15+252.201+557.083</f>
+        <v>1781.4339999999997</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.2">
@@ -1324,10 +1342,11 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <v>1082</v>
+        <f>494.837+594.116</f>
+        <v>1088.953</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>60</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.2">
@@ -1353,7 +1372,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>19693.531735</v>
+        <v>16672.336194619998</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1567,29 +1586,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1997BFD-C986-43B5-AFE7-A2D1E0EBF425}">
-  <dimension ref="A1:DJ53"/>
+  <dimension ref="A1:DO55"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="K33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M53" sqref="M53"/>
+      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="18" width="9.140625" style="3"/>
-    <col min="35" max="35" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="23" width="9.140625" style="3"/>
+    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
       <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1638,59 +1657,71 @@
       <c r="R2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="U2">
+      <c r="S2" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z2">
         <v>2018</v>
       </c>
-      <c r="V2">
-        <f>+U2+1</f>
+      <c r="AA2">
+        <f>+Z2+1</f>
         <v>2019</v>
       </c>
-      <c r="W2">
-        <f>+V2+1</f>
+      <c r="AB2">
+        <f>+AA2+1</f>
         <v>2020</v>
       </c>
-      <c r="X2">
-        <f>+W2+1</f>
+      <c r="AC2">
+        <f>+AB2+1</f>
         <v>2021</v>
       </c>
-      <c r="Y2">
-        <f t="shared" ref="Y2:AG2" si="0">+X2+1</f>
+      <c r="AD2">
+        <f t="shared" ref="AD2:AL2" si="0">+AC2+1</f>
         <v>2022</v>
       </c>
-      <c r="Z2">
+      <c r="AE2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AA2">
+      <c r="AF2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AB2">
+      <c r="AG2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AC2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AD2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AE2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AF2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AG2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -1718,8 +1749,13 @@
       <c r="P3" s="25"/>
       <c r="Q3" s="25"/>
       <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1747,8 +1783,13 @@
       <c r="P4" s="25"/>
       <c r="Q4" s="25"/>
       <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S4" s="25"/>
+      <c r="T4" s="25"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B5" s="2" t="s">
         <v>87</v>
       </c>
@@ -1776,8 +1817,13 @@
       <c r="P5" s="25"/>
       <c r="Q5" s="25"/>
       <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S5" s="25"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="25"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="25"/>
+    </row>
+    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
@@ -1805,15 +1851,20 @@
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="25"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1847,60 +1898,77 @@
         <v>155.47</v>
       </c>
       <c r="N8" s="25">
-        <v>165</v>
-      </c>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="V8" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="O8" s="25">
+        <v>189.19200000000001</v>
+      </c>
+      <c r="P8" s="25">
+        <v>177.392</v>
+      </c>
+      <c r="Q8" s="25">
+        <v>158.9</v>
+      </c>
+      <c r="R8" s="25">
+        <v>175.6</v>
+      </c>
+      <c r="S8" s="25">
+        <v>192.52</v>
+      </c>
+      <c r="T8" s="25">
+        <v>178.01599999999999</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="V8" s="25"/>
+      <c r="W8" s="25"/>
+      <c r="AA8" s="2">
         <v>544.29999999999995</v>
       </c>
-      <c r="W8" s="2">
+      <c r="AB8" s="2">
         <v>544.4</v>
       </c>
-      <c r="X8" s="2">
+      <c r="AC8" s="2">
         <f>SUM(G8:J8)</f>
         <v>623.25500000000011</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="AD8" s="2">
         <f>SUM(K8:N8)</f>
-        <v>676.67600000000004</v>
-      </c>
-      <c r="Z8" s="2">
-        <f>+Y8*1.07</f>
-        <v>724.04332000000011</v>
-      </c>
-      <c r="AA8" s="2">
-        <f t="shared" ref="AA8" si="1">+Z8*1.07</f>
-        <v>774.72635240000011</v>
-      </c>
-      <c r="AB8" s="2">
-        <f>+AA8*1.04</f>
-        <v>805.71540649600013</v>
-      </c>
-      <c r="AC8" s="2">
-        <f t="shared" ref="AC8:AG8" si="2">+AB8*1.04</f>
-        <v>837.94402275584014</v>
-      </c>
-      <c r="AD8" s="2">
+        <v>663.77600000000007</v>
+      </c>
+      <c r="AE8" s="2">
+        <f>+AD8*1.07</f>
+        <v>710.24032000000011</v>
+      </c>
+      <c r="AF8" s="2">
+        <f t="shared" ref="AF8" si="1">+AE8*1.07</f>
+        <v>759.95714240000018</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>+AF8*1.04</f>
+        <v>790.3554280960002</v>
+      </c>
+      <c r="AH8" s="2">
+        <f t="shared" ref="AH8:AL8" si="2">+AG8*1.04</f>
+        <v>821.96964521984023</v>
+      </c>
+      <c r="AI8" s="2">
         <f t="shared" si="2"/>
-        <v>871.46178366607376</v>
-      </c>
-      <c r="AE8" s="2">
+        <v>854.84843102863385</v>
+      </c>
+      <c r="AJ8" s="2">
         <f t="shared" si="2"/>
-        <v>906.32025501271676</v>
-      </c>
-      <c r="AF8" s="2">
+        <v>889.04236826977922</v>
+      </c>
+      <c r="AK8" s="2">
         <f t="shared" si="2"/>
-        <v>942.5730652132255</v>
-      </c>
-      <c r="AG8" s="2">
+        <v>924.60406300057036</v>
+      </c>
+      <c r="AL8" s="2">
         <f t="shared" si="2"/>
-        <v>980.2759878217546</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>961.58822552059326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>102</v>
       </c>
@@ -1914,48 +1982,69 @@
       <c r="J9" s="25"/>
       <c r="K9" s="25"/>
       <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="25"/>
-      <c r="X9" s="2">
+      <c r="M9" s="25">
         <v>0</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="N9" s="25">
         <v>0</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="O9" s="25">
+        <v>0</v>
+      </c>
+      <c r="P9" s="25">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="25">
+        <v>0.8</v>
+      </c>
+      <c r="R9" s="25">
+        <v>2.7</v>
+      </c>
+      <c r="S9" s="25">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="T9" s="25">
+        <v>7.4320000000000004</v>
+      </c>
+      <c r="U9" s="25"/>
+      <c r="V9" s="25"/>
+      <c r="W9" s="25"/>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2">
         <v>500</v>
       </c>
-      <c r="AA9" s="2">
+      <c r="AF9" s="2">
         <v>1000</v>
       </c>
-      <c r="AB9" s="2">
+      <c r="AG9" s="2">
         <v>1500</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AH9" s="2">
         <v>2000</v>
       </c>
-      <c r="AD9" s="2">
-        <f>+AC9*1.2</f>
+      <c r="AI9" s="2">
+        <f>+AH9*1.2</f>
         <v>2400</v>
       </c>
-      <c r="AE9" s="2">
-        <f>+AD9*1.2</f>
+      <c r="AJ9" s="2">
+        <f>+AI9*1.2</f>
         <v>2880</v>
       </c>
-      <c r="AF9" s="2">
-        <f>+AE9*1.2</f>
+      <c r="AK9" s="2">
+        <f>+AJ9*1.2</f>
         <v>3456</v>
       </c>
-      <c r="AG9" s="2">
-        <f>+AF9*1.15</f>
+      <c r="AL9" s="2">
+        <f>+AK9*1.15</f>
         <v>3974.3999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
@@ -1989,60 +2078,77 @@
         <v>99.506</v>
       </c>
       <c r="N10" s="25">
-        <v>100</v>
-      </c>
-      <c r="O10" s="25"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="25"/>
-      <c r="V10" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="O10" s="25">
+        <v>123.021</v>
+      </c>
+      <c r="P10" s="25">
+        <v>90.102999999999994</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>108.9</v>
+      </c>
+      <c r="R10" s="25">
+        <v>98.3</v>
+      </c>
+      <c r="S10" s="25">
+        <v>105.629</v>
+      </c>
+      <c r="T10" s="25">
+        <v>132.04900000000001</v>
+      </c>
+      <c r="U10" s="25"/>
+      <c r="V10" s="25"/>
+      <c r="W10" s="25"/>
+      <c r="AA10" s="2">
         <v>374.3</v>
       </c>
-      <c r="W10" s="2">
+      <c r="AB10" s="2">
         <v>391.3</v>
       </c>
-      <c r="X10" s="2">
-        <f t="shared" ref="X10:X22" si="3">SUM(G10:J10)</f>
+      <c r="AC10" s="2">
+        <f t="shared" ref="AC10:AC22" si="3">SUM(G10:J10)</f>
         <v>380.41300000000001</v>
       </c>
-      <c r="Y10" s="2">
-        <f t="shared" ref="Y10:Y22" si="4">SUM(K10:N10)</f>
-        <v>443.28899999999999</v>
-      </c>
-      <c r="Z10" s="2">
-        <f>+Y10*1.04</f>
-        <v>461.02055999999999</v>
-      </c>
-      <c r="AA10" s="2">
-        <f t="shared" ref="AA10:AG10" si="5">+Z10*1.04</f>
-        <v>479.46138239999999</v>
-      </c>
-      <c r="AB10" s="2">
-        <f t="shared" si="5"/>
-        <v>498.63983769600003</v>
-      </c>
-      <c r="AC10" s="2">
-        <f t="shared" si="5"/>
-        <v>518.58543120384002</v>
-      </c>
       <c r="AD10" s="2">
-        <f t="shared" si="5"/>
-        <v>539.32884845199362</v>
+        <f t="shared" ref="AD10:AD22" si="4">SUM(K10:N10)</f>
+        <v>443.78899999999999</v>
       </c>
       <c r="AE10" s="2">
-        <f t="shared" si="5"/>
-        <v>560.90200239007333</v>
+        <f>+AD10*1.04</f>
+        <v>461.54056000000003</v>
       </c>
       <c r="AF10" s="2">
-        <f t="shared" si="5"/>
-        <v>583.3380824856763</v>
+        <f t="shared" ref="AF10:AL10" si="5">+AE10*1.04</f>
+        <v>480.00218240000004</v>
       </c>
       <c r="AG10" s="2">
         <f t="shared" si="5"/>
-        <v>606.67160578510334</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>499.20226969600003</v>
+      </c>
+      <c r="AH10" s="2">
+        <f t="shared" si="5"/>
+        <v>519.17036048384</v>
+      </c>
+      <c r="AI10" s="2">
+        <f t="shared" si="5"/>
+        <v>539.93717490319364</v>
+      </c>
+      <c r="AJ10" s="2">
+        <f t="shared" si="5"/>
+        <v>561.53466189932135</v>
+      </c>
+      <c r="AK10" s="2">
+        <f t="shared" si="5"/>
+        <v>583.99604837529421</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="5"/>
+        <v>607.35589031030599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2076,61 +2182,77 @@
         <v>66.206000000000003</v>
       </c>
       <c r="N11" s="25">
-        <f>+M11+1</f>
-        <v>67.206000000000003</v>
-      </c>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="V11" s="2">
+        <v>72.3</v>
+      </c>
+      <c r="O11" s="25">
+        <v>62.351999999999997</v>
+      </c>
+      <c r="P11" s="25">
+        <v>74.867999999999995</v>
+      </c>
+      <c r="Q11" s="25">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="R11" s="25">
+        <v>87.8</v>
+      </c>
+      <c r="S11" s="25">
+        <v>75.709000000000003</v>
+      </c>
+      <c r="T11" s="25">
+        <v>88.290999999999997</v>
+      </c>
+      <c r="U11" s="25"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="25"/>
+      <c r="AA11" s="2">
         <v>86.9</v>
       </c>
-      <c r="W11" s="2">
+      <c r="AB11" s="2">
         <v>171</v>
       </c>
-      <c r="X11" s="2">
+      <c r="AC11" s="2">
         <f t="shared" si="3"/>
         <v>237.435</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="AD11" s="2">
         <f t="shared" si="4"/>
-        <v>249.95500000000004</v>
-      </c>
-      <c r="Z11" s="2">
-        <f>+Y11*1.05</f>
-        <v>262.45275000000004</v>
-      </c>
-      <c r="AA11" s="2">
-        <f t="shared" ref="AA11:AG11" si="6">+Z11*1.05</f>
-        <v>275.57538750000003</v>
-      </c>
-      <c r="AB11" s="2">
-        <f t="shared" si="6"/>
-        <v>289.35415687500006</v>
-      </c>
-      <c r="AC11" s="2">
-        <f t="shared" si="6"/>
-        <v>303.82186471875008</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="6"/>
-        <v>319.01295795468758</v>
+        <v>255.04900000000004</v>
       </c>
       <c r="AE11" s="2">
-        <f t="shared" si="6"/>
-        <v>334.96360585242195</v>
+        <f>+AD11*1.05</f>
+        <v>267.80145000000005</v>
       </c>
       <c r="AF11" s="2">
-        <f t="shared" si="6"/>
-        <v>351.71178614504305</v>
+        <f t="shared" ref="AF11:AL11" si="6">+AE11*1.05</f>
+        <v>281.19152250000008</v>
       </c>
       <c r="AG11" s="2">
         <f t="shared" si="6"/>
-        <v>369.29737545229523</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>295.25109862500011</v>
+      </c>
+      <c r="AH11" s="2">
+        <f t="shared" si="6"/>
+        <v>310.01365355625012</v>
+      </c>
+      <c r="AI11" s="2">
+        <f t="shared" si="6"/>
+        <v>325.51433623406263</v>
+      </c>
+      <c r="AJ11" s="2">
+        <f t="shared" si="6"/>
+        <v>341.79005304576577</v>
+      </c>
+      <c r="AK11" s="2">
+        <f t="shared" si="6"/>
+        <v>358.87955569805411</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="6"/>
+        <v>376.8235334829568</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
@@ -2164,61 +2286,77 @@
         <v>57.037999999999997</v>
       </c>
       <c r="N12" s="25">
-        <f>+M12-3</f>
-        <v>54.037999999999997</v>
-      </c>
-      <c r="O12" s="25"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="25"/>
-      <c r="V12" s="2">
+        <v>53.6</v>
+      </c>
+      <c r="O12" s="25">
+        <v>50.478000000000002</v>
+      </c>
+      <c r="P12" s="25">
+        <v>50.622</v>
+      </c>
+      <c r="Q12" s="25">
+        <v>42.9</v>
+      </c>
+      <c r="R12" s="25">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="S12" s="25">
+        <v>35.909999999999997</v>
+      </c>
+      <c r="T12" s="25">
+        <v>28.550999999999998</v>
+      </c>
+      <c r="U12" s="25"/>
+      <c r="V12" s="25"/>
+      <c r="W12" s="25"/>
+      <c r="AA12" s="2">
         <v>463.4</v>
       </c>
-      <c r="W12" s="2">
+      <c r="AB12" s="2">
         <v>457.7</v>
       </c>
-      <c r="X12" s="2">
+      <c r="AC12" s="2">
         <f t="shared" si="3"/>
         <v>285.80700000000002</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="AD12" s="2">
         <f t="shared" si="4"/>
-        <v>227.97800000000001</v>
-      </c>
-      <c r="Z12" s="2">
-        <f>+Y12*0.9</f>
-        <v>205.18020000000001</v>
-      </c>
-      <c r="AA12" s="2">
-        <f t="shared" ref="AA12:AG12" si="7">+Z12*0.9</f>
-        <v>184.66218000000001</v>
-      </c>
-      <c r="AB12" s="2">
-        <f t="shared" si="7"/>
-        <v>166.19596200000001</v>
-      </c>
-      <c r="AC12" s="2">
-        <f t="shared" si="7"/>
-        <v>149.57636580000002</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="7"/>
-        <v>134.61872922000003</v>
+        <v>227.54</v>
       </c>
       <c r="AE12" s="2">
-        <f t="shared" si="7"/>
-        <v>121.15685629800004</v>
+        <f>+AD12*0.9</f>
+        <v>204.786</v>
       </c>
       <c r="AF12" s="2">
-        <f t="shared" si="7"/>
-        <v>109.04117066820004</v>
+        <f t="shared" ref="AF12:AL12" si="7">+AE12*0.9</f>
+        <v>184.3074</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" si="7"/>
-        <v>98.137053601380032</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>165.87666000000002</v>
+      </c>
+      <c r="AH12" s="2">
+        <f t="shared" si="7"/>
+        <v>149.28899400000003</v>
+      </c>
+      <c r="AI12" s="2">
+        <f t="shared" si="7"/>
+        <v>134.36009460000002</v>
+      </c>
+      <c r="AJ12" s="2">
+        <f t="shared" si="7"/>
+        <v>120.92408514000003</v>
+      </c>
+      <c r="AK12" s="2">
+        <f t="shared" si="7"/>
+        <v>108.83167662600003</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="7"/>
+        <v>97.94850896340003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
@@ -2252,61 +2390,77 @@
         <v>37.792999999999999</v>
       </c>
       <c r="N13" s="25">
-        <f>+M13+1</f>
-        <v>38.792999999999999</v>
-      </c>
-      <c r="O13" s="25"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="25"/>
-      <c r="V13" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="O13" s="25">
+        <v>39.143999999999998</v>
+      </c>
+      <c r="P13" s="25">
+        <v>38.058</v>
+      </c>
+      <c r="Q13" s="25">
+        <v>41</v>
+      </c>
+      <c r="R13" s="25">
+        <v>43.6</v>
+      </c>
+      <c r="S13" s="25">
+        <v>39.046999999999997</v>
+      </c>
+      <c r="T13" s="25">
+        <v>45.308999999999997</v>
+      </c>
+      <c r="U13" s="25"/>
+      <c r="V13" s="25"/>
+      <c r="W13" s="25"/>
+      <c r="AA13" s="2">
         <v>72</v>
       </c>
-      <c r="W13" s="2">
+      <c r="AB13" s="2">
         <v>110.2</v>
       </c>
-      <c r="X13" s="2">
+      <c r="AC13" s="2">
         <f t="shared" si="3"/>
         <v>127.93200000000002</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="AD13" s="2">
         <f t="shared" si="4"/>
-        <v>150.51100000000002</v>
-      </c>
-      <c r="Z13" s="2">
-        <f>+Y13*1.1</f>
-        <v>165.56210000000004</v>
-      </c>
-      <c r="AA13" s="2">
-        <f>+Z13*1.1</f>
-        <v>182.11831000000006</v>
-      </c>
-      <c r="AB13" s="2">
-        <f>+AA13*1.05</f>
-        <v>191.22422550000007</v>
-      </c>
-      <c r="AC13" s="2">
-        <f t="shared" ref="AC13:AG13" si="8">+AB13*1.05</f>
-        <v>200.78543677500008</v>
-      </c>
-      <c r="AD13" s="2">
+        <v>154.31800000000001</v>
+      </c>
+      <c r="AE13" s="2">
+        <f>+AD13*1.1</f>
+        <v>169.74980000000002</v>
+      </c>
+      <c r="AF13" s="2">
+        <f>+AE13*1.1</f>
+        <v>186.72478000000004</v>
+      </c>
+      <c r="AG13" s="2">
+        <f>+AF13*1.05</f>
+        <v>196.06101900000004</v>
+      </c>
+      <c r="AH13" s="2">
+        <f t="shared" ref="AH13:AL13" si="8">+AG13*1.05</f>
+        <v>205.86406995000004</v>
+      </c>
+      <c r="AI13" s="2">
         <f t="shared" si="8"/>
-        <v>210.82470861375009</v>
-      </c>
-      <c r="AE13" s="2">
+        <v>216.15727344750005</v>
+      </c>
+      <c r="AJ13" s="2">
         <f t="shared" si="8"/>
-        <v>221.36594404443761</v>
-      </c>
-      <c r="AF13" s="2">
+        <v>226.96513711987507</v>
+      </c>
+      <c r="AK13" s="2">
         <f t="shared" si="8"/>
-        <v>232.4342412466595</v>
-      </c>
-      <c r="AG13" s="2">
+        <v>238.31339397586882</v>
+      </c>
+      <c r="AL13" s="2">
         <f t="shared" si="8"/>
-        <v>244.05595330899249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>250.22906367466229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
@@ -2340,58 +2494,75 @@
         <v>48.289000000000001</v>
       </c>
       <c r="N14" s="25">
-        <v>60</v>
-      </c>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="25"/>
-      <c r="V14" s="2">
+        <v>66.8</v>
+      </c>
+      <c r="O14" s="25">
+        <v>87.835999999999999</v>
+      </c>
+      <c r="P14" s="25">
+        <v>113.337</v>
+      </c>
+      <c r="Q14" s="25">
+        <v>123.1</v>
+      </c>
+      <c r="R14" s="25">
+        <v>145.69999999999999</v>
+      </c>
+      <c r="S14" s="25">
+        <v>152.9</v>
+      </c>
+      <c r="T14" s="25">
+        <v>183.923</v>
+      </c>
+      <c r="U14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="25"/>
+      <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="W14" s="2">
+      <c r="AB14" s="2">
         <v>0</v>
       </c>
-      <c r="X14" s="2">
+      <c r="AC14" s="2">
         <f t="shared" si="3"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="Y14" s="2">
+      <c r="AD14" s="2">
         <f t="shared" si="4"/>
-        <v>162.363</v>
-      </c>
-      <c r="Z14" s="2">
+        <v>169.16300000000001</v>
+      </c>
+      <c r="AE14" s="2">
         <v>320</v>
       </c>
-      <c r="AA14" s="2">
+      <c r="AF14" s="2">
         <v>500</v>
       </c>
-      <c r="AB14" s="2">
-        <f>+AA14*1.08</f>
+      <c r="AG14" s="2">
+        <f>+AF14*1.08</f>
         <v>540</v>
       </c>
-      <c r="AC14" s="2">
-        <f t="shared" ref="AC14:AG14" si="9">+AB14*1.08</f>
+      <c r="AH14" s="2">
+        <f t="shared" ref="AH14:AL14" si="9">+AG14*1.08</f>
         <v>583.20000000000005</v>
       </c>
-      <c r="AD14" s="2">
+      <c r="AI14" s="2">
         <f t="shared" si="9"/>
         <v>629.85600000000011</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AJ14" s="2">
         <f t="shared" si="9"/>
         <v>680.24448000000018</v>
       </c>
-      <c r="AF14" s="2">
+      <c r="AK14" s="2">
         <f t="shared" si="9"/>
         <v>734.66403840000021</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AL14" s="2">
         <f t="shared" si="9"/>
         <v>793.4371614720003</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
@@ -2425,61 +2596,77 @@
         <v>29.045999999999999</v>
       </c>
       <c r="N15" s="25">
-        <f>AVERAGE(F15:M15)</f>
-        <v>26.850124999999998</v>
-      </c>
-      <c r="O15" s="25"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="25"/>
-      <c r="V15" s="2">
+        <v>37.6</v>
+      </c>
+      <c r="O15" s="25">
+        <v>34.402999999999999</v>
+      </c>
+      <c r="P15" s="25">
+        <v>40.317999999999998</v>
+      </c>
+      <c r="Q15" s="25">
+        <v>13.8</v>
+      </c>
+      <c r="R15" s="25">
+        <v>42.7</v>
+      </c>
+      <c r="S15" s="25">
+        <v>35.262</v>
+      </c>
+      <c r="T15" s="25">
+        <v>38.558</v>
+      </c>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="AA15" s="2">
         <v>97.8</v>
       </c>
-      <c r="W15" s="2">
+      <c r="AB15" s="2">
         <v>130.1</v>
       </c>
-      <c r="X15" s="2">
+      <c r="AC15" s="2">
         <f t="shared" si="3"/>
         <v>122.82799999999999</v>
       </c>
-      <c r="Y15" s="2">
+      <c r="AD15" s="2">
         <f t="shared" si="4"/>
-        <v>117.62312499999999</v>
-      </c>
-      <c r="Z15" s="2">
-        <f>+Y15*1.03</f>
-        <v>121.15181874999999</v>
-      </c>
-      <c r="AA15" s="2">
-        <f t="shared" ref="AA15:AG15" si="10">+Z15*1.03</f>
-        <v>124.78637331249999</v>
-      </c>
-      <c r="AB15" s="2">
-        <f t="shared" si="10"/>
-        <v>128.52996451187499</v>
-      </c>
-      <c r="AC15" s="2">
-        <f t="shared" si="10"/>
-        <v>132.38586344723126</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="10"/>
-        <v>136.35743935064821</v>
+        <v>128.37299999999999</v>
       </c>
       <c r="AE15" s="2">
-        <f t="shared" si="10"/>
-        <v>140.44816253116767</v>
+        <f>+AD15*1.03</f>
+        <v>132.22418999999999</v>
       </c>
       <c r="AF15" s="2">
-        <f t="shared" si="10"/>
-        <v>144.66160740710271</v>
+        <f t="shared" ref="AF15:AL15" si="10">+AE15*1.03</f>
+        <v>136.19091570000001</v>
       </c>
       <c r="AG15" s="2">
         <f t="shared" si="10"/>
-        <v>149.00145562931579</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>140.27664317100002</v>
+      </c>
+      <c r="AH15" s="2">
+        <f t="shared" si="10"/>
+        <v>144.48494246613004</v>
+      </c>
+      <c r="AI15" s="2">
+        <f t="shared" si="10"/>
+        <v>148.81949074011393</v>
+      </c>
+      <c r="AJ15" s="2">
+        <f t="shared" si="10"/>
+        <v>153.28407546231736</v>
+      </c>
+      <c r="AK15" s="2">
+        <f t="shared" si="10"/>
+        <v>157.88259772618687</v>
+      </c>
+      <c r="AL15" s="2">
+        <f t="shared" si="10"/>
+        <v>162.61907565797247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
@@ -2521,64 +2708,66 @@
         <f t="shared" ref="M16:N16" si="12">SUM(M8:M15)</f>
         <v>493.34800000000001</v>
       </c>
-      <c r="N16" s="25">
-        <f t="shared" si="12"/>
-        <v>511.88712500000003</v>
-      </c>
+      <c r="N16" s="25"/>
       <c r="O16" s="25"/>
       <c r="P16" s="25"/>
       <c r="Q16" s="25"/>
       <c r="R16" s="25"/>
-      <c r="V16" s="2">
-        <f>SUM(V8:V15)</f>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="25"/>
+      <c r="AA16" s="2">
+        <f>SUM(AA8:AA15)</f>
         <v>1638.6999999999998</v>
       </c>
-      <c r="W16" s="2">
-        <f>SUM(W8:W15)</f>
+      <c r="AB16" s="2">
+        <f>SUM(AB8:AB15)</f>
         <v>1804.7</v>
       </c>
-      <c r="X16" s="2">
-        <f>SUM(X8:X15)</f>
+      <c r="AC16" s="2">
+        <f>SUM(AC8:AC15)</f>
         <v>1783.5700000000002</v>
       </c>
-      <c r="Y16" s="2">
-        <f>SUM(Y8:Y15)</f>
-        <v>2028.3951250000002</v>
-      </c>
-      <c r="Z16" s="2">
-        <f t="shared" ref="Z16:AF16" si="13">SUM(Z8:Z15)</f>
-        <v>2759.41074875</v>
-      </c>
-      <c r="AA16" s="2">
-        <f t="shared" si="13"/>
-        <v>3521.3299856125</v>
-      </c>
-      <c r="AB16" s="2">
-        <f t="shared" si="13"/>
-        <v>4119.6595530788754</v>
-      </c>
-      <c r="AC16" s="2">
-        <f t="shared" si="13"/>
-        <v>4726.2989847006611</v>
-      </c>
       <c r="AD16" s="2">
-        <f t="shared" si="13"/>
-        <v>5241.4604672571522</v>
+        <f>SUM(AD8:AD15)</f>
+        <v>2042.008</v>
       </c>
       <c r="AE16" s="2">
-        <f t="shared" si="13"/>
-        <v>5845.4013061288179</v>
+        <f t="shared" ref="AE16:AK16" si="13">SUM(AE8:AE15)</f>
+        <v>2766.3423200000002</v>
       </c>
       <c r="AF16" s="2">
         <f t="shared" si="13"/>
-        <v>6554.4239915659073</v>
+        <v>3528.3739430000005</v>
       </c>
       <c r="AG16" s="2">
-        <f>SUM(AG8:AG15)</f>
-        <v>7215.276593070842</v>
-      </c>
-    </row>
-    <row r="17" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="13"/>
+        <v>4127.0231185880002</v>
+      </c>
+      <c r="AH16" s="2">
+        <f t="shared" si="13"/>
+        <v>4733.9916656760606</v>
+      </c>
+      <c r="AI16" s="2">
+        <f t="shared" si="13"/>
+        <v>5249.4928009535033</v>
+      </c>
+      <c r="AJ16" s="2">
+        <f t="shared" si="13"/>
+        <v>5853.7848609370594</v>
+      </c>
+      <c r="AK16" s="2">
+        <f t="shared" si="13"/>
+        <v>6563.1713738019744</v>
+      </c>
+      <c r="AL16" s="2">
+        <f>SUM(AL8:AL15)</f>
+        <v>7224.4014590818906</v>
+      </c>
+    </row>
+    <row r="17" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
@@ -2612,61 +2801,77 @@
         <v>11.996</v>
       </c>
       <c r="N17" s="25">
-        <f>AVERAGE(F17:M17)</f>
-        <v>14.977124999999999</v>
-      </c>
-      <c r="O17" s="25"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="25"/>
-      <c r="V17" s="2">
+        <v>12.045999999999999</v>
+      </c>
+      <c r="O17" s="25">
+        <v>9.9890000000000008</v>
+      </c>
+      <c r="P17" s="25">
+        <v>10.577</v>
+      </c>
+      <c r="Q17" s="25">
+        <v>13.063000000000001</v>
+      </c>
+      <c r="R17" s="25">
+        <v>13.058999999999999</v>
+      </c>
+      <c r="S17" s="25">
+        <v>11.018000000000001</v>
+      </c>
+      <c r="T17" s="25">
+        <v>9.9</v>
+      </c>
+      <c r="U17" s="25"/>
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="AA17" s="2">
         <v>43.005000000000003</v>
       </c>
-      <c r="W17" s="2">
+      <c r="AB17" s="2">
         <v>54.594000000000001</v>
       </c>
-      <c r="X17" s="2">
+      <c r="AC17" s="2">
         <f t="shared" si="3"/>
         <v>62.777000000000001</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="AD17" s="2">
         <f t="shared" si="4"/>
-        <v>56.945125000000004</v>
-      </c>
-      <c r="Z17" s="2">
-        <f>+Y17</f>
-        <v>56.945125000000004</v>
-      </c>
-      <c r="AA17" s="2">
-        <f t="shared" ref="AA17:AG17" si="14">+Z17</f>
-        <v>56.945125000000004</v>
-      </c>
-      <c r="AB17" s="2">
-        <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
-      </c>
-      <c r="AC17" s="2">
-        <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
-      </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
+        <v>54.014000000000003</v>
       </c>
       <c r="AE17" s="2">
-        <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
+        <f>+AD17</f>
+        <v>54.014000000000003</v>
       </c>
       <c r="AF17" s="2">
-        <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
+        <f t="shared" ref="AF17:AL17" si="14">+AE17</f>
+        <v>54.014000000000003</v>
       </c>
       <c r="AG17" s="2">
         <f t="shared" si="14"/>
-        <v>56.945125000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="2:114" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>54.014000000000003</v>
+      </c>
+      <c r="AH17" s="2">
+        <f t="shared" si="14"/>
+        <v>54.014000000000003</v>
+      </c>
+      <c r="AI17" s="2">
+        <f t="shared" si="14"/>
+        <v>54.014000000000003</v>
+      </c>
+      <c r="AJ17" s="2">
+        <f t="shared" si="14"/>
+        <v>54.014000000000003</v>
+      </c>
+      <c r="AK17" s="2">
+        <f t="shared" si="14"/>
+        <v>54.014000000000003</v>
+      </c>
+      <c r="AL17" s="2">
+        <f t="shared" si="14"/>
+        <v>54.014000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:119" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
@@ -2705,67 +2910,90 @@
         <v>533.798</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" ref="M18:N18" si="16">+M16+M17</f>
+        <f t="shared" ref="M18:T18" si="16">+M16+M17</f>
         <v>505.34399999999999</v>
       </c>
       <c r="N18" s="26">
-        <f t="shared" si="16"/>
-        <v>526.86424999999997</v>
-      </c>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="V18" s="4">
-        <f>+V16+V17</f>
+        <f>SUM(N8:N17)</f>
+        <v>537.54600000000005</v>
+      </c>
+      <c r="O18" s="26">
+        <f>SUM(O8:O17)</f>
+        <v>596.41500000000008</v>
+      </c>
+      <c r="P18" s="26">
+        <f>SUM(P8:P17)</f>
+        <v>595.27499999999998</v>
+      </c>
+      <c r="Q18" s="26">
+        <f>SUM(Q8:Q17)</f>
+        <v>581.36299999999994</v>
+      </c>
+      <c r="R18" s="26">
+        <f>SUM(R8:R17)</f>
+        <v>646.15899999999999</v>
+      </c>
+      <c r="S18" s="26">
+        <f>SUM(S8:S17)</f>
+        <v>648.84400000000005</v>
+      </c>
+      <c r="T18" s="26">
+        <f>SUM(T8:T17)</f>
+        <v>712.02899999999988</v>
+      </c>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="AA18" s="4">
+        <f>+AA16+AA17</f>
         <v>1681.7049999999999</v>
       </c>
-      <c r="W18" s="4">
-        <f>+W16+W17</f>
+      <c r="AB18" s="4">
+        <f>+AB16+AB17</f>
         <v>1859.2940000000001</v>
       </c>
-      <c r="X18" s="4">
-        <f>+X16+X17</f>
+      <c r="AC18" s="4">
+        <f>+AC16+AC17</f>
         <v>1846.3470000000002</v>
       </c>
-      <c r="Y18" s="4">
-        <f>+Y16+Y17</f>
-        <v>2085.3402500000002</v>
-      </c>
-      <c r="Z18" s="4">
-        <f t="shared" ref="Z18:AG18" si="17">+Z16+Z17</f>
-        <v>2816.3558737500002</v>
-      </c>
-      <c r="AA18" s="4">
-        <f t="shared" si="17"/>
-        <v>3578.2751106125002</v>
-      </c>
-      <c r="AB18" s="4">
-        <f t="shared" si="17"/>
-        <v>4176.6046780788756</v>
-      </c>
-      <c r="AC18" s="4">
-        <f t="shared" si="17"/>
-        <v>4783.2441097006613</v>
-      </c>
       <c r="AD18" s="4">
-        <f t="shared" si="17"/>
-        <v>5298.4055922571524</v>
+        <f>+AD16+AD17</f>
+        <v>2096.0219999999999</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="17"/>
-        <v>5902.346431128818</v>
+        <f t="shared" ref="AE18:AL18" si="17">+AE16+AE17</f>
+        <v>2820.3563200000003</v>
       </c>
       <c r="AF18" s="4">
         <f t="shared" si="17"/>
-        <v>6611.3691165659075</v>
+        <v>3582.3879430000006</v>
       </c>
       <c r="AG18" s="4">
         <f t="shared" si="17"/>
-        <v>7272.2217180708421</v>
-      </c>
-    </row>
-    <row r="19" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>4181.0371185880003</v>
+      </c>
+      <c r="AH18" s="4">
+        <f t="shared" si="17"/>
+        <v>4788.0056656760607</v>
+      </c>
+      <c r="AI18" s="4">
+        <f t="shared" si="17"/>
+        <v>5303.5068009535034</v>
+      </c>
+      <c r="AJ18" s="4">
+        <f t="shared" si="17"/>
+        <v>5907.7988609370595</v>
+      </c>
+      <c r="AK18" s="4">
+        <f t="shared" si="17"/>
+        <v>6617.1853738019745</v>
+      </c>
+      <c r="AL18" s="4">
+        <f t="shared" si="17"/>
+        <v>7278.4154590818907</v>
+      </c>
+    </row>
+    <row r="19" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
@@ -2799,61 +3027,77 @@
         <v>116.288</v>
       </c>
       <c r="N19" s="25">
-        <f>+N18-N20</f>
-        <v>115.91013499999997</v>
-      </c>
-      <c r="O19" s="25"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="25"/>
-      <c r="V19" s="2">
+        <v>127.29</v>
+      </c>
+      <c r="O19" s="25">
+        <v>135.47200000000001</v>
+      </c>
+      <c r="P19" s="25">
+        <v>65.566000000000003</v>
+      </c>
+      <c r="Q19" s="25">
+        <v>124.745</v>
+      </c>
+      <c r="R19" s="25">
+        <v>135.47800000000001</v>
+      </c>
+      <c r="S19" s="25">
+        <v>125.18</v>
+      </c>
+      <c r="T19" s="25">
+        <v>130.459</v>
+      </c>
+      <c r="U19" s="25"/>
+      <c r="V19" s="25"/>
+      <c r="W19" s="25"/>
+      <c r="AA19" s="2">
         <v>359.46600000000001</v>
       </c>
-      <c r="W19" s="2">
+      <c r="AB19" s="2">
         <v>524.27200000000005</v>
       </c>
-      <c r="X19" s="2">
+      <c r="AC19" s="2">
         <f t="shared" si="3"/>
         <v>470.51499999999999</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="AD19" s="2">
         <f t="shared" si="4"/>
-        <v>472.28913499999999</v>
-      </c>
-      <c r="Z19" s="2">
-        <f>+Z18*0.21</f>
-        <v>591.43473348750001</v>
-      </c>
-      <c r="AA19" s="2">
-        <f t="shared" ref="AA19:AG19" si="18">+AA18*0.21</f>
-        <v>751.43777322862502</v>
-      </c>
-      <c r="AB19" s="2">
-        <f t="shared" si="18"/>
-        <v>877.08698239656383</v>
-      </c>
-      <c r="AC19" s="2">
-        <f t="shared" si="18"/>
-        <v>1004.4812630371389</v>
-      </c>
-      <c r="AD19" s="2">
-        <f t="shared" si="18"/>
-        <v>1112.6651743740019</v>
+        <v>483.66900000000004</v>
       </c>
       <c r="AE19" s="2">
-        <f t="shared" si="18"/>
-        <v>1239.4927505370517</v>
+        <f>+AE18*0.21</f>
+        <v>592.2748272</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" si="18"/>
-        <v>1388.3875144788406</v>
+        <f t="shared" ref="AF19:AL19" si="18">+AF18*0.21</f>
+        <v>752.30146803000014</v>
       </c>
       <c r="AG19" s="2">
         <f t="shared" si="18"/>
-        <v>1527.1665607948769</v>
-      </c>
-    </row>
-    <row r="20" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>878.01779490348008</v>
+      </c>
+      <c r="AH19" s="2">
+        <f t="shared" si="18"/>
+        <v>1005.4811897919727</v>
+      </c>
+      <c r="AI19" s="2">
+        <f t="shared" si="18"/>
+        <v>1113.7364282002357</v>
+      </c>
+      <c r="AJ19" s="2">
+        <f t="shared" si="18"/>
+        <v>1240.6377607967825</v>
+      </c>
+      <c r="AK19" s="2">
+        <f t="shared" si="18"/>
+        <v>1389.6089284984146</v>
+      </c>
+      <c r="AL19" s="2">
+        <f t="shared" si="18"/>
+        <v>1528.4672464071971</v>
+      </c>
+    </row>
+    <row r="20" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
@@ -2896,63 +3140,86 @@
         <v>389.05599999999998</v>
       </c>
       <c r="N20" s="25">
-        <f>+N18*0.78</f>
-        <v>410.954115</v>
-      </c>
-      <c r="O20" s="25"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="25"/>
-      <c r="V20" s="2">
-        <f>+V18-V19</f>
+        <f>+N18-N19</f>
+        <v>410.25600000000003</v>
+      </c>
+      <c r="O20" s="25">
+        <f>+O18-O19</f>
+        <v>460.9430000000001</v>
+      </c>
+      <c r="P20" s="25">
+        <f>+P18-P19</f>
+        <v>529.70899999999995</v>
+      </c>
+      <c r="Q20" s="25">
+        <f>+Q18-Q19</f>
+        <v>456.61799999999994</v>
+      </c>
+      <c r="R20" s="25">
+        <f>+R18-R19</f>
+        <v>510.68099999999998</v>
+      </c>
+      <c r="S20" s="25">
+        <f>+S18-S19</f>
+        <v>523.66399999999999</v>
+      </c>
+      <c r="T20" s="25">
+        <f>+T18-T19</f>
+        <v>581.56999999999994</v>
+      </c>
+      <c r="U20" s="25"/>
+      <c r="V20" s="25"/>
+      <c r="W20" s="25"/>
+      <c r="AA20" s="2">
+        <f>+AA18-AA19</f>
         <v>1322.239</v>
       </c>
-      <c r="W20" s="2">
-        <f>+W18-W19</f>
+      <c r="AB20" s="2">
+        <f>+AB18-AB19</f>
         <v>1335.0219999999999</v>
       </c>
-      <c r="X20" s="2">
-        <f>+X18-X19</f>
+      <c r="AC20" s="2">
+        <f>+AC18-AC19</f>
         <v>1375.8320000000003</v>
       </c>
-      <c r="Y20" s="2">
-        <f>+Y18-Y19</f>
-        <v>1613.0511150000002</v>
-      </c>
-      <c r="Z20" s="2">
-        <f>+Z18-Z19</f>
-        <v>2224.9211402625001</v>
-      </c>
-      <c r="AA20" s="2">
-        <f t="shared" ref="AA20:AG20" si="20">+AA18-AA19</f>
-        <v>2826.8373373838749</v>
-      </c>
-      <c r="AB20" s="2">
-        <f t="shared" si="20"/>
-        <v>3299.5176956823116</v>
-      </c>
-      <c r="AC20" s="2">
-        <f t="shared" si="20"/>
-        <v>3778.7628466635224</v>
-      </c>
       <c r="AD20" s="2">
-        <f t="shared" si="20"/>
-        <v>4185.7404178831503</v>
+        <f>+AD18-AD19</f>
+        <v>1612.3529999999998</v>
       </c>
       <c r="AE20" s="2">
-        <f t="shared" si="20"/>
-        <v>4662.8536805917665</v>
+        <f>+AE18-AE19</f>
+        <v>2228.0814928000004</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" si="20"/>
-        <v>5222.9816020870667</v>
+        <f t="shared" ref="AF20:AL20" si="20">+AF18-AF19</f>
+        <v>2830.0864749700004</v>
       </c>
       <c r="AG20" s="2">
         <f t="shared" si="20"/>
-        <v>5745.055157275965</v>
-      </c>
-    </row>
-    <row r="21" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>3303.0193236845203</v>
+      </c>
+      <c r="AH20" s="2">
+        <f t="shared" si="20"/>
+        <v>3782.5244758840881</v>
+      </c>
+      <c r="AI20" s="2">
+        <f t="shared" si="20"/>
+        <v>4189.770372753268</v>
+      </c>
+      <c r="AJ20" s="2">
+        <f t="shared" si="20"/>
+        <v>4667.1611001402771</v>
+      </c>
+      <c r="AK20" s="2">
+        <f t="shared" si="20"/>
+        <v>5227.5764453035599</v>
+      </c>
+      <c r="AL20" s="2">
+        <f t="shared" si="20"/>
+        <v>5749.9482126746934</v>
+      </c>
+    </row>
+    <row r="21" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
@@ -2985,27 +3252,46 @@
       <c r="M21" s="25">
         <v>157.82900000000001</v>
       </c>
-      <c r="N21" s="25"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="25"/>
-      <c r="V21" s="2">
+      <c r="N21" s="25">
+        <v>172.751</v>
+      </c>
+      <c r="O21" s="25">
+        <v>171.846</v>
+      </c>
+      <c r="P21" s="25">
+        <v>177.363</v>
+      </c>
+      <c r="Q21" s="25">
+        <v>191.31399999999999</v>
+      </c>
+      <c r="R21" s="25">
+        <v>206.25</v>
+      </c>
+      <c r="S21" s="25">
+        <v>204.98699999999999</v>
+      </c>
+      <c r="T21" s="25">
+        <v>183.78700000000001</v>
+      </c>
+      <c r="U21" s="25"/>
+      <c r="V21" s="25"/>
+      <c r="W21" s="25"/>
+      <c r="AA21" s="2">
         <v>715.00699999999995</v>
       </c>
-      <c r="W21" s="2">
+      <c r="AB21" s="2">
         <v>628.11599999999999</v>
       </c>
-      <c r="X21" s="2">
+      <c r="AC21" s="2">
         <f t="shared" si="3"/>
         <v>628.79300000000001</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="AD21" s="2">
         <f t="shared" si="4"/>
-        <v>476.85500000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>649.60599999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
@@ -3039,61 +3325,77 @@
         <v>216.816</v>
       </c>
       <c r="N22" s="25">
-        <f>+J22*1.05</f>
-        <v>228.44114999999999</v>
-      </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="25"/>
-      <c r="V22" s="2">
+        <v>245.739</v>
+      </c>
+      <c r="O22" s="25">
+        <v>211.023</v>
+      </c>
+      <c r="P22" s="25">
+        <v>206.10300000000001</v>
+      </c>
+      <c r="Q22" s="25">
+        <v>223.928</v>
+      </c>
+      <c r="R22" s="25">
+        <v>275.024</v>
+      </c>
+      <c r="S22" s="25">
+        <v>225.90600000000001</v>
+      </c>
+      <c r="T22" s="25">
+        <v>263.03199999999998</v>
+      </c>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="AA22" s="2">
         <v>680.92399999999998</v>
       </c>
-      <c r="W22" s="2">
+      <c r="AB22" s="2">
         <v>737.66899999999998</v>
       </c>
-      <c r="X22" s="2">
+      <c r="AC22" s="2">
         <f t="shared" si="3"/>
         <v>759.375</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="AD22" s="2">
         <f t="shared" si="4"/>
-        <v>836.71114999999998</v>
-      </c>
-      <c r="Z22" s="2">
-        <f>+Y22*1.04</f>
-        <v>870.17959600000006</v>
-      </c>
-      <c r="AA22" s="2">
-        <f t="shared" ref="AA22:AG22" si="21">+Z22*1.04</f>
-        <v>904.98677984000005</v>
-      </c>
-      <c r="AB22" s="2">
-        <f t="shared" si="21"/>
-        <v>941.18625103360012</v>
-      </c>
-      <c r="AC22" s="2">
-        <f t="shared" si="21"/>
-        <v>978.8337010749442</v>
-      </c>
-      <c r="AD22" s="2">
-        <f t="shared" si="21"/>
-        <v>1017.987049117942</v>
+        <v>854.00900000000001</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="21"/>
-        <v>1058.7065310826597</v>
+        <f>+AD22*1.04</f>
+        <v>888.1693600000001</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="21"/>
-        <v>1101.0547923259662</v>
+        <f t="shared" ref="AF22:AL22" si="21">+AE22*1.04</f>
+        <v>923.69613440000012</v>
       </c>
       <c r="AG22" s="2">
         <f t="shared" si="21"/>
-        <v>1145.0969840190048</v>
-      </c>
-    </row>
-    <row r="23" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>960.64397977600015</v>
+      </c>
+      <c r="AH22" s="2">
+        <f t="shared" si="21"/>
+        <v>999.06973896704017</v>
+      </c>
+      <c r="AI22" s="2">
+        <f t="shared" si="21"/>
+        <v>1039.0325285257218</v>
+      </c>
+      <c r="AJ22" s="2">
+        <f t="shared" si="21"/>
+        <v>1080.5938296667507</v>
+      </c>
+      <c r="AK22" s="2">
+        <f t="shared" si="21"/>
+        <v>1123.8175828534208</v>
+      </c>
+      <c r="AL22" s="2">
+        <f t="shared" si="21"/>
+        <v>1168.7702861675577</v>
+      </c>
+    </row>
+    <row r="23" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
@@ -3137,161 +3439,207 @@
       </c>
       <c r="N23" s="25">
         <f t="shared" si="23"/>
-        <v>228.44114999999999</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="25"/>
-      <c r="V23" s="2">
-        <f>+V22+V21</f>
+        <v>418.49</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" ref="O23:T23" si="24">+O21+O22</f>
+        <v>382.86900000000003</v>
+      </c>
+      <c r="P23" s="25">
+        <f t="shared" si="24"/>
+        <v>383.46600000000001</v>
+      </c>
+      <c r="Q23" s="25">
+        <f t="shared" si="24"/>
+        <v>415.24199999999996</v>
+      </c>
+      <c r="R23" s="25">
+        <f t="shared" si="24"/>
+        <v>481.274</v>
+      </c>
+      <c r="S23" s="25">
+        <f t="shared" si="24"/>
+        <v>430.89300000000003</v>
+      </c>
+      <c r="T23" s="25">
+        <f t="shared" si="24"/>
+        <v>446.81899999999996</v>
+      </c>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="AA23" s="2">
+        <f>+AA22+AA21</f>
         <v>1395.931</v>
       </c>
-      <c r="W23" s="2">
-        <f>+W22+W21</f>
+      <c r="AB23" s="2">
+        <f>+AB22+AB21</f>
         <v>1365.7849999999999</v>
       </c>
-      <c r="X23" s="2">
-        <f>+X22+X21</f>
+      <c r="AC23" s="2">
+        <f>+AC22+AC21</f>
         <v>1388.1680000000001</v>
       </c>
-      <c r="Y23" s="2">
-        <f>+Y22+Y21</f>
-        <v>1313.5661500000001</v>
-      </c>
-      <c r="Z23" s="2">
-        <f t="shared" ref="Z23:AG23" si="24">+Z22+Z21</f>
-        <v>870.17959600000006</v>
-      </c>
-      <c r="AA23" s="2">
-        <f t="shared" si="24"/>
-        <v>904.98677984000005</v>
-      </c>
-      <c r="AB23" s="2">
-        <f t="shared" si="24"/>
-        <v>941.18625103360012</v>
-      </c>
-      <c r="AC23" s="2">
-        <f t="shared" si="24"/>
-        <v>978.8337010749442</v>
-      </c>
       <c r="AD23" s="2">
-        <f t="shared" si="24"/>
-        <v>1017.987049117942</v>
+        <f>+AD22+AD21</f>
+        <v>1503.615</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="24"/>
-        <v>1058.7065310826597</v>
+        <f t="shared" ref="AE23:AL23" si="25">+AE22+AE21</f>
+        <v>888.1693600000001</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="24"/>
-        <v>1101.0547923259662</v>
+        <f t="shared" si="25"/>
+        <v>923.69613440000012</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="24"/>
-        <v>1145.0969840190048</v>
-      </c>
-    </row>
-    <row r="24" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="25"/>
+        <v>960.64397977600015</v>
+      </c>
+      <c r="AH23" s="2">
+        <f t="shared" si="25"/>
+        <v>999.06973896704017</v>
+      </c>
+      <c r="AI23" s="2">
+        <f t="shared" si="25"/>
+        <v>1039.0325285257218</v>
+      </c>
+      <c r="AJ23" s="2">
+        <f t="shared" si="25"/>
+        <v>1080.5938296667507</v>
+      </c>
+      <c r="AK23" s="2">
+        <f t="shared" si="25"/>
+        <v>1123.8175828534208</v>
+      </c>
+      <c r="AL23" s="2">
+        <f t="shared" si="25"/>
+        <v>1168.7702861675577</v>
+      </c>
+    </row>
+    <row r="24" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
-        <f t="shared" ref="E24:L24" si="25">+E20-E23</f>
+        <f t="shared" ref="E24:L24" si="26">+E20-E23</f>
         <v>-38.553000000000054</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-26.245000000000005</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>42.852000000000032</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>29.363</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-35.937000000000012</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-48.613999999999976</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>46.913999999999874</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>55.647000000000048</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" ref="M24:N24" si="26">+M20-M23</f>
+        <f t="shared" ref="M24:N24" si="27">+M20-M23</f>
         <v>14.411000000000001</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" si="26"/>
-        <v>182.51296500000001</v>
-      </c>
-      <c r="O24" s="25"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="25"/>
-      <c r="V24" s="2">
-        <f>+V20-V23</f>
+        <f t="shared" si="27"/>
+        <v>-8.2339999999999804</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" ref="O24:T24" si="28">+O20-O23</f>
+        <v>78.074000000000069</v>
+      </c>
+      <c r="P24" s="25">
+        <f t="shared" si="28"/>
+        <v>146.24299999999994</v>
+      </c>
+      <c r="Q24" s="25">
+        <f t="shared" si="28"/>
+        <v>41.375999999999976</v>
+      </c>
+      <c r="R24" s="25">
+        <f t="shared" si="28"/>
+        <v>29.406999999999982</v>
+      </c>
+      <c r="S24" s="25">
+        <f t="shared" si="28"/>
+        <v>92.770999999999958</v>
+      </c>
+      <c r="T24" s="25">
+        <f t="shared" si="28"/>
+        <v>134.75099999999998</v>
+      </c>
+      <c r="U24" s="25"/>
+      <c r="V24" s="25"/>
+      <c r="W24" s="25"/>
+      <c r="AA24" s="2">
+        <f>+AA20-AA23</f>
         <v>-73.692000000000007</v>
       </c>
-      <c r="W24" s="2">
-        <f>+W20-W23</f>
+      <c r="AB24" s="2">
+        <f>+AB20-AB23</f>
         <v>-30.76299999999992</v>
       </c>
-      <c r="X24" s="2">
-        <f>+X20-X23</f>
+      <c r="AC24" s="2">
+        <f>+AC20-AC23</f>
         <v>-12.335999999999785</v>
       </c>
-      <c r="Y24" s="2">
-        <f>+Y20-Y23</f>
-        <v>299.4849650000001</v>
-      </c>
-      <c r="Z24" s="2">
-        <f t="shared" ref="Z24:AG24" si="27">+Z20-Z23</f>
-        <v>1354.7415442625002</v>
-      </c>
-      <c r="AA24" s="2">
-        <f t="shared" si="27"/>
-        <v>1921.8505575438749</v>
-      </c>
-      <c r="AB24" s="2">
-        <f t="shared" si="27"/>
-        <v>2358.3314446487116</v>
-      </c>
-      <c r="AC24" s="2">
-        <f t="shared" si="27"/>
-        <v>2799.9291455885782</v>
-      </c>
       <c r="AD24" s="2">
-        <f t="shared" si="27"/>
-        <v>3167.7533687652085</v>
+        <f>+AD20-AD23</f>
+        <v>108.73799999999983</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="27"/>
-        <v>3604.1471495091068</v>
+        <f t="shared" ref="AE24:AL24" si="29">+AE20-AE23</f>
+        <v>1339.9121328000003</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="27"/>
-        <v>4121.9268097611002</v>
+        <f t="shared" si="29"/>
+        <v>1906.3903405700003</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="27"/>
-        <v>4599.9581732569604</v>
-      </c>
-    </row>
-    <row r="25" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>2342.3753439085203</v>
+      </c>
+      <c r="AH24" s="2">
+        <f t="shared" si="29"/>
+        <v>2783.4547369170477</v>
+      </c>
+      <c r="AI24" s="2">
+        <f t="shared" si="29"/>
+        <v>3150.7378442275462</v>
+      </c>
+      <c r="AJ24" s="2">
+        <f t="shared" si="29"/>
+        <v>3586.5672704735262</v>
+      </c>
+      <c r="AK24" s="2">
+        <f t="shared" si="29"/>
+        <v>4103.7588624501386</v>
+      </c>
+      <c r="AL24" s="2">
+        <f t="shared" si="29"/>
+        <v>4581.1779265071355</v>
+      </c>
+    </row>
+    <row r="25" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
@@ -3334,162 +3682,208 @@
         <v>0.51299999999999946</v>
       </c>
       <c r="N25" s="25">
-        <f>+M25</f>
-        <v>0.51299999999999946</v>
-      </c>
-      <c r="O25" s="25"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="25"/>
-      <c r="V25" s="2">
+        <f>8.71-3.626+1.858</f>
+        <v>6.9420000000000019</v>
+      </c>
+      <c r="O25" s="25">
+        <f>11.943-3.703-13.887</f>
+        <v>-5.6470000000000002</v>
+      </c>
+      <c r="P25" s="25">
+        <f>12.612-3.755-3.613</f>
+        <v>5.2439999999999998</v>
+      </c>
+      <c r="Q25" s="25">
+        <f>15.74-3.779+4.047</f>
+        <v>16.007999999999999</v>
+      </c>
+      <c r="R25" s="25">
+        <f>18.044-6.098-6.838</f>
+        <v>5.1080000000000014</v>
+      </c>
+      <c r="S25" s="25">
+        <f>19.365-3.547+1.267</f>
+        <v>17.084999999999997</v>
+      </c>
+      <c r="T25" s="25">
+        <f>19.785-3.574-4.527</f>
+        <v>11.683999999999997</v>
+      </c>
+      <c r="U25" s="25"/>
+      <c r="V25" s="25"/>
+      <c r="W25" s="25"/>
+      <c r="AA25" s="2">
         <f>-0.587+22.748-23.46+6.945</f>
         <v>5.6460000000000008</v>
       </c>
-      <c r="W25" s="2">
+      <c r="AB25" s="2">
         <f>16.61-29.309+7.142</f>
         <v>-5.5570000000000013</v>
       </c>
-      <c r="X25" s="2">
-        <f t="shared" ref="X25" si="28">SUM(G25:J25)</f>
+      <c r="AC25" s="2">
+        <f t="shared" ref="AC25" si="30">SUM(G25:J25)</f>
         <v>6.9910000000000014</v>
       </c>
-      <c r="Y25" s="2">
-        <f t="shared" ref="Y25:Y27" si="29">SUM(K25:N25)</f>
-        <v>-6.4150000000000009</v>
-      </c>
-      <c r="Z25" s="2">
-        <f>+Y37*$AJ$35</f>
+      <c r="AD25" s="2">
+        <f t="shared" ref="AD25:AD27" si="31">SUM(K25:N25)</f>
+        <v>1.4000000000001123E-2</v>
+      </c>
+      <c r="AE25" s="2">
+        <f>+AD37*$AO$35</f>
         <v>0</v>
       </c>
-      <c r="AA25" s="2">
-        <f t="shared" ref="AA25:AG25" si="30">+Z37*$AJ$35</f>
-        <v>27.094830885250005</v>
-      </c>
-      <c r="AB25" s="2">
-        <f t="shared" si="30"/>
-        <v>66.073738653832493</v>
-      </c>
-      <c r="AC25" s="2">
-        <f t="shared" si="30"/>
-        <v>109.7130319532783</v>
-      </c>
-      <c r="AD25" s="2">
-        <f t="shared" si="30"/>
-        <v>156.26730679394802</v>
-      </c>
-      <c r="AE25" s="2">
-        <f t="shared" si="30"/>
-        <v>209.45163760289452</v>
-      </c>
       <c r="AF25" s="2">
-        <f t="shared" si="30"/>
-        <v>270.46921819668654</v>
+        <f t="shared" ref="AF25:AL25" si="32">+AE37*$AO$35</f>
+        <v>26.798242656000006</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="30"/>
-        <v>340.74755464401119</v>
-      </c>
-    </row>
-    <row r="26" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>65.462014320520012</v>
+      </c>
+      <c r="AH25" s="2">
+        <f t="shared" si="32"/>
+        <v>108.80308676864276</v>
+      </c>
+      <c r="AI25" s="2">
+        <f t="shared" si="32"/>
+        <v>155.0792119476138</v>
+      </c>
+      <c r="AJ25" s="2">
+        <f t="shared" si="32"/>
+        <v>207.97228484641639</v>
+      </c>
+      <c r="AK25" s="2">
+        <f t="shared" si="32"/>
+        <v>268.68491773153545</v>
+      </c>
+      <c r="AL25" s="2">
+        <f t="shared" si="32"/>
+        <v>338.64401821444227</v>
+      </c>
+    </row>
+    <row r="26" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:N26" si="31">+E24+E25</f>
+        <f t="shared" ref="E26:T26" si="33">+E24+E25</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>40.994000000000035</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>31.847000000000001</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-28.878000000000011</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>-49.307999999999979</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>43.773999999999873</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>51.346000000000046</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>14.924000000000001</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="31"/>
-        <v>183.02596500000001</v>
-      </c>
-      <c r="O26" s="25"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="25"/>
-      <c r="V26" s="2">
-        <f>+V24+V25</f>
+        <f t="shared" si="33"/>
+        <v>-1.2919999999999785</v>
+      </c>
+      <c r="O26" s="25">
+        <f t="shared" si="33"/>
+        <v>72.427000000000064</v>
+      </c>
+      <c r="P26" s="25">
+        <f t="shared" si="33"/>
+        <v>151.48699999999994</v>
+      </c>
+      <c r="Q26" s="25">
+        <f t="shared" si="33"/>
+        <v>57.383999999999972</v>
+      </c>
+      <c r="R26" s="25">
+        <f t="shared" si="33"/>
+        <v>34.514999999999986</v>
+      </c>
+      <c r="S26" s="25">
+        <f t="shared" si="33"/>
+        <v>109.85599999999995</v>
+      </c>
+      <c r="T26" s="25">
+        <f t="shared" si="33"/>
+        <v>146.43499999999997</v>
+      </c>
+      <c r="U26" s="25"/>
+      <c r="V26" s="25"/>
+      <c r="W26" s="25"/>
+      <c r="AA26" s="2">
+        <f>+AA24+AA25</f>
         <v>-68.046000000000006</v>
       </c>
-      <c r="W26" s="2">
-        <f>+W24+W25</f>
+      <c r="AB26" s="2">
+        <f>+AB24+AB25</f>
         <v>-36.319999999999922</v>
       </c>
-      <c r="X26" s="2">
-        <f>+X24+X25</f>
+      <c r="AC26" s="2">
+        <f>+AC24+AC25</f>
         <v>-5.3449999999997839</v>
       </c>
-      <c r="Y26" s="2">
-        <f>+Y24+Y25</f>
-        <v>293.06996500000008</v>
-      </c>
-      <c r="Z26" s="2">
-        <f t="shared" ref="Z26:AG26" si="32">+Z24+Z25</f>
-        <v>1354.7415442625002</v>
-      </c>
-      <c r="AA26" s="2">
-        <f t="shared" si="32"/>
-        <v>1948.9453884291249</v>
-      </c>
-      <c r="AB26" s="2">
-        <f t="shared" si="32"/>
-        <v>2424.4051833025442</v>
-      </c>
-      <c r="AC26" s="2">
-        <f t="shared" si="32"/>
-        <v>2909.6421775418567</v>
-      </c>
       <c r="AD26" s="2">
-        <f t="shared" si="32"/>
-        <v>3324.0206755591566</v>
+        <f>+AD24+AD25</f>
+        <v>108.75199999999982</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="32"/>
-        <v>3813.5987871120014</v>
+        <f t="shared" ref="AE26:AL26" si="34">+AE24+AE25</f>
+        <v>1339.9121328000003</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="32"/>
-        <v>4392.3960279577868</v>
+        <f t="shared" si="34"/>
+        <v>1933.1885832260002</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="32"/>
-        <v>4940.7057279009714</v>
-      </c>
-    </row>
-    <row r="27" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>2407.8373582290405</v>
+      </c>
+      <c r="AH26" s="2">
+        <f t="shared" si="34"/>
+        <v>2892.2578236856907</v>
+      </c>
+      <c r="AI26" s="2">
+        <f t="shared" si="34"/>
+        <v>3305.8170561751599</v>
+      </c>
+      <c r="AJ26" s="2">
+        <f t="shared" si="34"/>
+        <v>3794.5395553199423</v>
+      </c>
+      <c r="AK26" s="2">
+        <f t="shared" si="34"/>
+        <v>4372.4437801816739</v>
+      </c>
+      <c r="AL26" s="2">
+        <f t="shared" si="34"/>
+        <v>4919.8219447215779</v>
+      </c>
+    </row>
+    <row r="27" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2" t="s">
         <v>74</v>
       </c>
@@ -3523,581 +3917,643 @@
         <v>4.7480000000000002</v>
       </c>
       <c r="N27" s="25">
-        <f>+N26*0.15</f>
-        <v>27.45389475</v>
-      </c>
-      <c r="O27" s="25"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="25"/>
-      <c r="V27" s="2">
+        <v>-17.309000000000001</v>
+      </c>
+      <c r="O27" s="25">
+        <v>5.9050000000000002</v>
+      </c>
+      <c r="P27" s="25">
+        <v>14.77</v>
+      </c>
+      <c r="Q27" s="25">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="R27" s="25">
+        <v>-1.048</v>
+      </c>
+      <c r="S27" s="25">
+        <v>16.885000000000002</v>
+      </c>
+      <c r="T27" s="25">
+        <v>24.962</v>
+      </c>
+      <c r="U27" s="25"/>
+      <c r="V27" s="25"/>
+      <c r="W27" s="25"/>
+      <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="W27" s="2">
+      <c r="AB27" s="2">
         <v>0</v>
       </c>
-      <c r="X27" s="2">
-        <f t="shared" ref="X27" si="33">SUM(G27:J27)</f>
+      <c r="AC27" s="2">
+        <f t="shared" ref="AC27" si="35">SUM(G27:J27)</f>
         <v>-11.27</v>
       </c>
-      <c r="Y27" s="2">
-        <f t="shared" si="29"/>
-        <v>52.777894750000002</v>
-      </c>
-      <c r="Z27" s="2">
-        <f>+Z26*0</f>
+      <c r="AD27" s="2">
+        <f t="shared" si="31"/>
+        <v>8.0150000000000006</v>
+      </c>
+      <c r="AE27" s="2">
+        <f>+AE26*0</f>
         <v>0</v>
       </c>
-      <c r="AA27" s="2">
-        <f>+AA26*0</f>
+      <c r="AF27" s="2">
+        <f>+AF26*0</f>
         <v>0</v>
       </c>
-      <c r="AB27" s="2">
-        <f>+AB26*0.1</f>
-        <v>242.44051833025443</v>
-      </c>
-      <c r="AC27" s="2">
-        <f>+AC26*0.2</f>
-        <v>581.92843550837131</v>
-      </c>
-      <c r="AD27" s="2">
-        <f t="shared" ref="AD27:AG27" si="34">+AD26*0.2</f>
-        <v>664.80413511183133</v>
-      </c>
-      <c r="AE27" s="2">
-        <f t="shared" si="34"/>
-        <v>762.71975742240033</v>
-      </c>
-      <c r="AF27" s="2">
-        <f t="shared" si="34"/>
-        <v>878.47920559155739</v>
-      </c>
       <c r="AG27" s="2">
-        <f t="shared" si="34"/>
-        <v>988.14114558019435</v>
-      </c>
-    </row>
-    <row r="28" spans="2:114" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AG26*0.1</f>
+        <v>240.78373582290408</v>
+      </c>
+      <c r="AH27" s="2">
+        <f>+AH26*0.2</f>
+        <v>578.45156473713814</v>
+      </c>
+      <c r="AI27" s="2">
+        <f t="shared" ref="AI27:AL27" si="36">+AI26*0.2</f>
+        <v>661.16341123503207</v>
+      </c>
+      <c r="AJ27" s="2">
+        <f t="shared" si="36"/>
+        <v>758.90791106398854</v>
+      </c>
+      <c r="AK27" s="2">
+        <f t="shared" si="36"/>
+        <v>874.48875603633485</v>
+      </c>
+      <c r="AL27" s="2">
+        <f t="shared" si="36"/>
+        <v>983.9643889443156</v>
+      </c>
+    </row>
+    <row r="28" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25">
-        <f t="shared" ref="E28:N28" si="35">+E26-E27</f>
+        <f t="shared" ref="E28:T28" si="37">+E26-E27</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>35.137000000000036</v>
       </c>
       <c r="H28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>30.632000000000001</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-19.21200000000001</v>
       </c>
       <c r="J28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>-40.631999999999977</v>
       </c>
       <c r="K28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>30.384999999999874</v>
       </c>
       <c r="L28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>44.159000000000049</v>
       </c>
       <c r="M28" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v>10.176000000000002</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" si="35"/>
-        <v>155.57207025000002</v>
-      </c>
-      <c r="O28" s="25"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="25"/>
-      <c r="V28" s="2">
-        <f>+V26-V27</f>
+        <f t="shared" si="37"/>
+        <v>16.017000000000024</v>
+      </c>
+      <c r="O28" s="25">
+        <f t="shared" si="37"/>
+        <v>66.522000000000062</v>
+      </c>
+      <c r="P28" s="25">
+        <f t="shared" si="37"/>
+        <v>136.71699999999993</v>
+      </c>
+      <c r="Q28" s="25">
+        <f t="shared" si="37"/>
+        <v>56.092999999999975</v>
+      </c>
+      <c r="R28" s="25">
+        <f t="shared" si="37"/>
+        <v>35.562999999999988</v>
+      </c>
+      <c r="S28" s="25">
+        <f t="shared" si="37"/>
+        <v>92.970999999999947</v>
+      </c>
+      <c r="T28" s="25">
+        <f t="shared" si="37"/>
+        <v>121.47299999999997</v>
+      </c>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="AA28" s="2">
+        <f>+AA26-AA27</f>
         <v>-68.046000000000006</v>
       </c>
-      <c r="W28" s="2">
-        <f>+W26-W27</f>
+      <c r="AB28" s="2">
+        <f>+AB26-AB27</f>
         <v>-36.319999999999922</v>
       </c>
-      <c r="X28" s="2">
-        <f>+X26-X27</f>
+      <c r="AC28" s="2">
+        <f>+AC26-AC27</f>
         <v>5.9250000000002156</v>
       </c>
-      <c r="Y28" s="2">
-        <f>+Y26-Y27</f>
-        <v>240.29207025000008</v>
-      </c>
-      <c r="Z28" s="2">
-        <f t="shared" ref="Z28:AG28" si="36">+Z26-Z27</f>
-        <v>1354.7415442625002</v>
-      </c>
-      <c r="AA28" s="2">
-        <f t="shared" si="36"/>
-        <v>1948.9453884291249</v>
-      </c>
-      <c r="AB28" s="2">
-        <f t="shared" si="36"/>
-        <v>2181.9646649722899</v>
-      </c>
-      <c r="AC28" s="2">
-        <f t="shared" si="36"/>
-        <v>2327.7137420334852</v>
-      </c>
       <c r="AD28" s="2">
-        <f t="shared" si="36"/>
-        <v>2659.2165404473253</v>
+        <f>+AD26-AD27</f>
+        <v>100.73699999999982</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" si="36"/>
-        <v>3050.8790296896013</v>
+        <f t="shared" ref="AE28:AL28" si="38">+AE26-AE27</f>
+        <v>1339.9121328000003</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" si="36"/>
-        <v>3513.9168223662296</v>
+        <f t="shared" si="38"/>
+        <v>1933.1885832260002</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" si="36"/>
-        <v>3952.5645823207769</v>
+        <f t="shared" si="38"/>
+        <v>2167.0536224061366</v>
       </c>
       <c r="AH28" s="2">
-        <f>+AG28*(1+$AJ$34)</f>
-        <v>3913.038936497569</v>
+        <f t="shared" si="38"/>
+        <v>2313.8062589485526</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" ref="AI28:CT28" si="37">+AH28*(1+$AJ$34)</f>
-        <v>3873.9085471325934</v>
+        <f t="shared" si="38"/>
+        <v>2644.6536449401278</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="37"/>
-        <v>3835.1694616612676</v>
+        <f t="shared" si="38"/>
+        <v>3035.6316442559537</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="37"/>
-        <v>3796.8177670446548</v>
+        <f t="shared" si="38"/>
+        <v>3497.9550241453389</v>
       </c>
       <c r="AL28" s="2">
-        <f t="shared" si="37"/>
-        <v>3758.8495893742083</v>
+        <f t="shared" si="38"/>
+        <v>3935.8575557772624</v>
       </c>
       <c r="AM28" s="2">
-        <f t="shared" si="37"/>
-        <v>3721.2610934804661</v>
+        <f>+AL28*(1+$AO$34)</f>
+        <v>3896.4989802194896</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" si="37"/>
-        <v>3684.0484825456615</v>
+        <f t="shared" ref="AN28:CY28" si="39">+AM28*(1+$AO$34)</f>
+        <v>3857.5339904172947</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="37"/>
-        <v>3647.2079977202047</v>
+        <f t="shared" si="39"/>
+        <v>3818.9586505131219</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" si="37"/>
-        <v>3610.7359177430026</v>
+        <f t="shared" si="39"/>
+        <v>3780.7690640079909</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="37"/>
-        <v>3574.6285585655723</v>
+        <f t="shared" si="39"/>
+        <v>3742.9613733679112</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="37"/>
-        <v>3538.8822729799167</v>
+        <f t="shared" si="39"/>
+        <v>3705.531759634232</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" si="37"/>
-        <v>3503.4934502501173</v>
+        <f t="shared" si="39"/>
+        <v>3668.4764420378897</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="37"/>
-        <v>3468.4585157476163</v>
+        <f t="shared" si="39"/>
+        <v>3631.7916776175107</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" si="37"/>
-        <v>3433.77393059014</v>
+        <f t="shared" si="39"/>
+        <v>3595.4737608413357</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="37"/>
-        <v>3399.4361912842387</v>
+        <f t="shared" si="39"/>
+        <v>3559.5190232329223</v>
       </c>
       <c r="AW28" s="2">
-        <f t="shared" si="37"/>
-        <v>3365.4418293713961</v>
+        <f t="shared" si="39"/>
+        <v>3523.9238330005933</v>
       </c>
       <c r="AX28" s="2">
-        <f t="shared" si="37"/>
-        <v>3331.787411077682</v>
+        <f t="shared" si="39"/>
+        <v>3488.6845946705871</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" si="37"/>
-        <v>3298.4695369669053</v>
+        <f t="shared" si="39"/>
+        <v>3453.7977487238813</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" si="37"/>
-        <v>3265.484841597236</v>
+        <f t="shared" si="39"/>
+        <v>3419.2597712366423</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="37"/>
-        <v>3232.8299931812635</v>
+        <f t="shared" si="39"/>
+        <v>3385.0671735242759</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="37"/>
-        <v>3200.5016932494509</v>
+        <f t="shared" si="39"/>
+        <v>3351.2165017890329</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="37"/>
-        <v>3168.4966763169564</v>
+        <f t="shared" si="39"/>
+        <v>3317.7043367711426</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="37"/>
-        <v>3136.8117095537868</v>
+        <f t="shared" si="39"/>
+        <v>3284.527293403431</v>
       </c>
       <c r="BE28" s="2">
-        <f t="shared" si="37"/>
-        <v>3105.443592458249</v>
+        <f t="shared" si="39"/>
+        <v>3251.6820204693968</v>
       </c>
       <c r="BF28" s="2">
-        <f t="shared" si="37"/>
-        <v>3074.3891565336667</v>
+        <f t="shared" si="39"/>
+        <v>3219.1652002647029</v>
       </c>
       <c r="BG28" s="2">
-        <f t="shared" si="37"/>
-        <v>3043.6452649683301</v>
+        <f t="shared" si="39"/>
+        <v>3186.9735482620558</v>
       </c>
       <c r="BH28" s="2">
-        <f t="shared" si="37"/>
-        <v>3013.2088123186468</v>
+        <f t="shared" si="39"/>
+        <v>3155.1038127794354</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" si="37"/>
-        <v>2983.0767241954604</v>
+        <f t="shared" si="39"/>
+        <v>3123.5527746516409</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="37"/>
-        <v>2953.2459569535058</v>
+        <f t="shared" si="39"/>
+        <v>3092.3172469051246</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="37"/>
-        <v>2923.7134973839707</v>
+        <f t="shared" si="39"/>
+        <v>3061.3940744360734</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="37"/>
-        <v>2894.4763624101311</v>
+        <f t="shared" si="39"/>
+        <v>3030.7801336917128</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="37"/>
-        <v>2865.5315987860299</v>
+        <f t="shared" si="39"/>
+        <v>3000.4723323547955</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="37"/>
-        <v>2836.8762827981695</v>
+        <f t="shared" si="39"/>
+        <v>2970.4676090312473</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="37"/>
-        <v>2808.5075199701878</v>
+        <f t="shared" si="39"/>
+        <v>2940.7629329409347</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="37"/>
-        <v>2780.422444770486</v>
+        <f t="shared" si="39"/>
+        <v>2911.3553036115254</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="37"/>
-        <v>2752.6182203227809</v>
+        <f t="shared" si="39"/>
+        <v>2882.2417505754102</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="37"/>
-        <v>2725.0920381195529</v>
+        <f t="shared" si="39"/>
+        <v>2853.4193330696562</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="37"/>
-        <v>2697.8411177383573</v>
+        <f t="shared" si="39"/>
+        <v>2824.8851397389594</v>
       </c>
       <c r="BT28" s="2">
-        <f t="shared" si="37"/>
-        <v>2670.8627065609735</v>
+        <f t="shared" si="39"/>
+        <v>2796.63628834157</v>
       </c>
       <c r="BU28" s="2">
-        <f t="shared" si="37"/>
-        <v>2644.1540794953639</v>
+        <f t="shared" si="39"/>
+        <v>2768.6699254581545</v>
       </c>
       <c r="BV28" s="2">
-        <f t="shared" si="37"/>
-        <v>2617.7125387004103</v>
+        <f t="shared" si="39"/>
+        <v>2740.9832262035729</v>
       </c>
       <c r="BW28" s="2">
-        <f t="shared" si="37"/>
-        <v>2591.535413313406</v>
+        <f t="shared" si="39"/>
+        <v>2713.5733939415372</v>
       </c>
       <c r="BX28" s="2">
-        <f t="shared" si="37"/>
-        <v>2565.6200591802722</v>
+        <f t="shared" si="39"/>
+        <v>2686.4376600021219</v>
       </c>
       <c r="BY28" s="2">
-        <f t="shared" si="37"/>
-        <v>2539.9638585884695</v>
+        <f t="shared" si="39"/>
+        <v>2659.5732834021005</v>
       </c>
       <c r="BZ28" s="2">
-        <f t="shared" si="37"/>
-        <v>2514.564220002585</v>
+        <f t="shared" si="39"/>
+        <v>2632.9775505680796</v>
       </c>
       <c r="CA28" s="2">
-        <f t="shared" si="37"/>
-        <v>2489.418577802559</v>
+        <f t="shared" si="39"/>
+        <v>2606.6477750623985</v>
       </c>
       <c r="CB28" s="2">
-        <f t="shared" si="37"/>
-        <v>2464.5243920245334</v>
+        <f t="shared" si="39"/>
+        <v>2580.5812973117745</v>
       </c>
       <c r="CC28" s="2">
-        <f t="shared" si="37"/>
-        <v>2439.8791481042881</v>
+        <f t="shared" si="39"/>
+        <v>2554.775484338657</v>
       </c>
       <c r="CD28" s="2">
-        <f t="shared" si="37"/>
-        <v>2415.4803566232454</v>
+        <f t="shared" si="39"/>
+        <v>2529.2277294952705</v>
       </c>
       <c r="CE28" s="2">
-        <f t="shared" si="37"/>
-        <v>2391.3255530570127</v>
+        <f t="shared" si="39"/>
+        <v>2503.9354522003177</v>
       </c>
       <c r="CF28" s="2">
-        <f t="shared" si="37"/>
-        <v>2367.4122975264427</v>
+        <f t="shared" si="39"/>
+        <v>2478.8960976783146</v>
       </c>
       <c r="CG28" s="2">
-        <f t="shared" si="37"/>
-        <v>2343.7381745511784</v>
+        <f t="shared" si="39"/>
+        <v>2454.1071367015315</v>
       </c>
       <c r="CH28" s="2">
-        <f t="shared" si="37"/>
-        <v>2320.3007928056668</v>
+        <f t="shared" si="39"/>
+        <v>2429.5660653345162</v>
       </c>
       <c r="CI28" s="2">
-        <f t="shared" si="37"/>
-        <v>2297.0977848776101</v>
+        <f t="shared" si="39"/>
+        <v>2405.2704046811709</v>
       </c>
       <c r="CJ28" s="2">
-        <f t="shared" si="37"/>
-        <v>2274.1268070288338</v>
+        <f t="shared" si="39"/>
+        <v>2381.2177006343591</v>
       </c>
       <c r="CK28" s="2">
-        <f t="shared" si="37"/>
-        <v>2251.3855389585456</v>
+        <f t="shared" si="39"/>
+        <v>2357.4055236280155</v>
       </c>
       <c r="CL28" s="2">
-        <f t="shared" si="37"/>
-        <v>2228.8716835689602</v>
+        <f t="shared" si="39"/>
+        <v>2333.8314683917351</v>
       </c>
       <c r="CM28" s="2">
-        <f t="shared" si="37"/>
-        <v>2206.5829667332705</v>
+        <f t="shared" si="39"/>
+        <v>2310.4931537078178</v>
       </c>
       <c r="CN28" s="2">
-        <f t="shared" si="37"/>
-        <v>2184.5171370659377</v>
+        <f t="shared" si="39"/>
+        <v>2287.3882221707395</v>
       </c>
       <c r="CO28" s="2">
-        <f t="shared" si="37"/>
-        <v>2162.6719656952782</v>
+        <f t="shared" si="39"/>
+        <v>2264.5143399490321</v>
       </c>
       <c r="CP28" s="2">
-        <f t="shared" si="37"/>
-        <v>2141.0452460383253</v>
+        <f t="shared" si="39"/>
+        <v>2241.8691965495418</v>
       </c>
       <c r="CQ28" s="2">
-        <f t="shared" si="37"/>
-        <v>2119.6347935779422</v>
+        <f t="shared" si="39"/>
+        <v>2219.4505045840465</v>
       </c>
       <c r="CR28" s="2">
-        <f t="shared" si="37"/>
-        <v>2098.4384456421626</v>
+        <f t="shared" si="39"/>
+        <v>2197.2559995382062</v>
       </c>
       <c r="CS28" s="2">
-        <f t="shared" si="37"/>
-        <v>2077.454061185741</v>
+        <f t="shared" si="39"/>
+        <v>2175.283439542824</v>
       </c>
       <c r="CT28" s="2">
-        <f t="shared" si="37"/>
-        <v>2056.6795205738836</v>
+        <f t="shared" si="39"/>
+        <v>2153.5306051473958</v>
       </c>
       <c r="CU28" s="2">
-        <f t="shared" ref="CU28:DJ28" si="38">+CT28*(1+$AJ$34)</f>
-        <v>2036.1127253681448</v>
+        <f t="shared" si="39"/>
+        <v>2131.9952990959218</v>
       </c>
       <c r="CV28" s="2">
-        <f t="shared" si="38"/>
-        <v>2015.7515981144634</v>
+        <f t="shared" si="39"/>
+        <v>2110.6753461049625</v>
       </c>
       <c r="CW28" s="2">
-        <f t="shared" si="38"/>
-        <v>1995.5940821333188</v>
+        <f t="shared" si="39"/>
+        <v>2089.5685926439128</v>
       </c>
       <c r="CX28" s="2">
-        <f t="shared" si="38"/>
-        <v>1975.6381413119857</v>
+        <f t="shared" si="39"/>
+        <v>2068.6729067174738</v>
       </c>
       <c r="CY28" s="2">
-        <f t="shared" si="38"/>
-        <v>1955.8817598988658</v>
+        <f t="shared" si="39"/>
+        <v>2047.9861776502989</v>
       </c>
       <c r="CZ28" s="2">
-        <f t="shared" si="38"/>
-        <v>1936.322942299877</v>
+        <f t="shared" ref="CZ28:DO28" si="40">+CY28*(1+$AO$34)</f>
+        <v>2027.506315873796</v>
       </c>
       <c r="DA28" s="2">
-        <f t="shared" si="38"/>
-        <v>1916.9597128768783</v>
+        <f t="shared" si="40"/>
+        <v>2007.231252715058</v>
       </c>
       <c r="DB28" s="2">
-        <f t="shared" si="38"/>
-        <v>1897.7901157481094</v>
+        <f t="shared" si="40"/>
+        <v>1987.1589401879073</v>
       </c>
       <c r="DC28" s="2">
-        <f t="shared" si="38"/>
-        <v>1878.8122145906284</v>
+        <f t="shared" si="40"/>
+        <v>1967.2873507860281</v>
       </c>
       <c r="DD28" s="2">
-        <f t="shared" si="38"/>
-        <v>1860.0240924447221</v>
+        <f t="shared" si="40"/>
+        <v>1947.6144772781679</v>
       </c>
       <c r="DE28" s="2">
-        <f t="shared" si="38"/>
-        <v>1841.4238515202749</v>
+        <f t="shared" si="40"/>
+        <v>1928.1383325053862</v>
       </c>
       <c r="DF28" s="2">
-        <f t="shared" si="38"/>
-        <v>1823.0096130050722</v>
+        <f t="shared" si="40"/>
+        <v>1908.8569491803323</v>
       </c>
       <c r="DG28" s="2">
-        <f t="shared" si="38"/>
-        <v>1804.7795168750215</v>
+        <f t="shared" si="40"/>
+        <v>1889.768379688529</v>
       </c>
       <c r="DH28" s="2">
-        <f t="shared" si="38"/>
-        <v>1786.7317217062712</v>
+        <f t="shared" si="40"/>
+        <v>1870.8706958916437</v>
       </c>
       <c r="DI28" s="2">
-        <f t="shared" si="38"/>
-        <v>1768.8644044892085</v>
+        <f t="shared" si="40"/>
+        <v>1852.1619889327271</v>
       </c>
       <c r="DJ28" s="2">
-        <f t="shared" si="38"/>
-        <v>1751.1757604443164</v>
-      </c>
-    </row>
-    <row r="29" spans="2:114" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>1833.6403690433999</v>
+      </c>
+      <c r="DK28" s="2">
+        <f t="shared" si="40"/>
+        <v>1815.3039653529659</v>
+      </c>
+      <c r="DL28" s="2">
+        <f t="shared" si="40"/>
+        <v>1797.1509256994361</v>
+      </c>
+      <c r="DM28" s="2">
+        <f t="shared" si="40"/>
+        <v>1779.1794164424418</v>
+      </c>
+      <c r="DN28" s="2">
+        <f t="shared" si="40"/>
+        <v>1761.3876222780175</v>
+      </c>
+      <c r="DO28" s="2">
+        <f t="shared" si="40"/>
+        <v>1743.7737460552373</v>
+      </c>
+    </row>
+    <row r="29" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" ref="E29:N29" si="39">+E28/E30</f>
+        <f t="shared" ref="E29:Q29" si="41">+E28/E30</f>
         <v>-0.22171858716877307</v>
       </c>
       <c r="F29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-0.11703419414991655</v>
       </c>
       <c r="G29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.19058389607571954</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.16519708564556404</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-0.10486098223934857</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>-0.22136265077306938</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.15591166117627678</v>
       </c>
       <c r="L29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>0.23558000085357031</v>
       </c>
       <c r="M29" s="27">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>5.4828472442981308E-2</v>
       </c>
       <c r="N29" s="27">
-        <f t="shared" si="39"/>
-        <v>0.83822513429635181</v>
-      </c>
-      <c r="O29" s="27"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="27"/>
-      <c r="R29" s="27"/>
-      <c r="V29" s="1">
-        <f>+V28/V30</f>
+        <f t="shared" si="41"/>
+        <v>8.6099941944223587E-2</v>
+      </c>
+      <c r="O29" s="27">
+        <f t="shared" si="41"/>
+        <v>0.34225649943662151</v>
+      </c>
+      <c r="P29" s="27">
+        <f t="shared" si="41"/>
+        <v>0.70112001148729697</v>
+      </c>
+      <c r="Q29" s="27">
+        <f t="shared" si="41"/>
+        <v>0.29341486506985803</v>
+      </c>
+      <c r="R29" s="27">
+        <f>R28/R30</f>
+        <v>0.1853803730230715</v>
+      </c>
+      <c r="S29" s="27">
+        <f>S28/S30</f>
+        <v>0.46657666790456759</v>
+      </c>
+      <c r="T29" s="27">
+        <f>T28/T30</f>
+        <v>0.60583526595346737</v>
+      </c>
+      <c r="U29" s="27"/>
+      <c r="V29" s="27"/>
+      <c r="W29" s="27"/>
+      <c r="AA29" s="1">
+        <f>+AA28/AA30</f>
         <v>-0.3800624444953335</v>
       </c>
-      <c r="W29" s="1">
-        <f>+W28/W30</f>
+      <c r="AB29" s="1">
+        <f>+AB28/AB30</f>
         <v>-0.18948444787612517</v>
       </c>
-      <c r="X29" s="1">
-        <f>+X28/X30</f>
+      <c r="AC29" s="1">
+        <f>+AC28/AC30</f>
         <v>3.2176604757251086E-2</v>
       </c>
-      <c r="Y29" s="1">
-        <f>+Y28/Y30</f>
-        <v>1.2755574855877954</v>
-      </c>
-      <c r="Z29" s="1">
-        <f t="shared" ref="Z29:AG29" si="40">+Z28/Z30</f>
-        <v>7.1914596100609405</v>
-      </c>
-      <c r="AA29" s="1">
-        <f t="shared" si="40"/>
-        <v>10.345709188930604</v>
-      </c>
-      <c r="AB29" s="1">
-        <f t="shared" si="40"/>
-        <v>11.582660046991167</v>
-      </c>
-      <c r="AC29" s="1">
-        <f t="shared" si="40"/>
-        <v>12.356349025031506</v>
-      </c>
       <c r="AD29" s="1">
-        <f t="shared" si="40"/>
-        <v>14.116086146485998</v>
+        <f>+AD28/AD30</f>
+        <v>0.53444285431966365</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" si="40"/>
-        <v>16.195172732477634</v>
+        <f t="shared" ref="AE29:AL29" si="42">+AE28/AE30</f>
+        <v>7.1086737225764276</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="40"/>
-        <v>18.653145323683948</v>
+        <f t="shared" si="42"/>
+        <v>10.256200049212225</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="40"/>
-        <v>20.981646772625712</v>
-      </c>
-    </row>
-    <row r="30" spans="2:114" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>11.496930853832298</v>
+      </c>
+      <c r="AH29" s="1">
+        <f t="shared" si="42"/>
+        <v>12.275501765738202</v>
+      </c>
+      <c r="AI29" s="1">
+        <f t="shared" si="42"/>
+        <v>14.030755756958284</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f t="shared" si="42"/>
+        <v>16.105022391169566</v>
+      </c>
+      <c r="AK29" s="1">
+        <f t="shared" si="42"/>
+        <v>18.557799690144098</v>
+      </c>
+      <c r="AL29" s="1">
+        <f t="shared" si="42"/>
+        <v>20.881016372387688</v>
+      </c>
+    </row>
+    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -4129,61 +4585,77 @@
         <v>185.59700000000001</v>
       </c>
       <c r="N30" s="25">
-        <f>+M30</f>
-        <v>185.59700000000001</v>
-      </c>
-      <c r="O30" s="25"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="25"/>
-      <c r="V30" s="2">
+        <v>186.02799999999999</v>
+      </c>
+      <c r="O30" s="25">
+        <v>194.363</v>
+      </c>
+      <c r="P30" s="25">
+        <v>194.99799999999999</v>
+      </c>
+      <c r="Q30" s="25">
+        <v>191.173</v>
+      </c>
+      <c r="R30" s="25">
+        <v>191.83799999999999</v>
+      </c>
+      <c r="S30" s="25">
+        <v>199.262</v>
+      </c>
+      <c r="T30" s="25">
+        <v>200.505</v>
+      </c>
+      <c r="U30" s="25"/>
+      <c r="V30" s="25"/>
+      <c r="W30" s="25"/>
+      <c r="AA30" s="2">
         <v>179.03899999999999</v>
       </c>
-      <c r="W30" s="2">
+      <c r="AB30" s="2">
         <v>191.678</v>
       </c>
-      <c r="X30" s="2">
+      <c r="AC30" s="2">
         <f>AVERAGE(G30:J30)</f>
         <v>184.14000000000001</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="AD30" s="2">
         <f>AVERAGE(K30:N30)</f>
-        <v>188.38200000000001</v>
-      </c>
-      <c r="Z30" s="2">
-        <f>+Y30</f>
-        <v>188.38200000000001</v>
-      </c>
-      <c r="AA30" s="2">
-        <f t="shared" ref="AA30:AG30" si="41">+Z30</f>
-        <v>188.38200000000001</v>
-      </c>
-      <c r="AB30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
-      </c>
-      <c r="AC30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
-      </c>
-      <c r="AD30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
+        <v>188.48975000000002</v>
       </c>
       <c r="AE30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
+        <f>+AD30</f>
+        <v>188.48975000000002</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
+        <f t="shared" ref="AF30:AL30" si="43">+AE30</f>
+        <v>188.48975000000002</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="41"/>
-        <v>188.38200000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:114" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+      <c r="AH30" s="2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+      <c r="AI30" s="2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+      <c r="AJ30" s="2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+      <c r="AK30" s="2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+      <c r="AL30" s="2">
+        <f t="shared" si="43"/>
+        <v>188.48975000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="2:119" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="23" t="s">
         <v>75</v>
       </c>
@@ -4194,196 +4666,242 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="28">
-        <f t="shared" ref="I32:N32" si="42">+I18/E18-1</f>
+        <f t="shared" ref="I32:N32" si="44">+I18/E18-1</f>
         <v>-0.14251074478282844</v>
       </c>
       <c r="J32" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>-5.0456564441062612E-3</v>
       </c>
       <c r="K32" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.8454370953439758E-2</v>
       </c>
       <c r="L32" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>6.3993318623142059E-2</v>
       </c>
       <c r="M32" s="28">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>0.23615833582027501</v>
       </c>
       <c r="N32" s="28">
-        <f t="shared" si="42"/>
-        <v>0.1713534730574866</v>
-      </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="28"/>
-      <c r="R32" s="28"/>
-      <c r="W32" s="29">
-        <f>+W18/V18-1</f>
+        <f t="shared" si="44"/>
+        <v>0.19510172502339995</v>
+      </c>
+      <c r="O32" s="28">
+        <f t="shared" ref="O32" si="45">+O18/K18-1</f>
+        <v>0.14842278764725614</v>
+      </c>
+      <c r="P32" s="28">
+        <f t="shared" ref="P32" si="46">+P18/L18-1</f>
+        <v>0.11516903397914557</v>
+      </c>
+      <c r="Q32" s="28">
+        <f t="shared" ref="Q32" si="47">+Q18/M18-1</f>
+        <v>0.15043020200101309</v>
+      </c>
+      <c r="R32" s="28">
+        <f t="shared" ref="R32" si="48">+R18/N18-1</f>
+        <v>0.2020534056620269</v>
+      </c>
+      <c r="S32" s="28">
+        <f t="shared" ref="S32" si="49">+S18/O18-1</f>
+        <v>8.7906910456645004E-2</v>
+      </c>
+      <c r="T32" s="28">
+        <f t="shared" ref="T32" si="50">+T18/P18-1</f>
+        <v>0.1961345596573012</v>
+      </c>
+      <c r="U32" s="28"/>
+      <c r="V32" s="28"/>
+      <c r="W32" s="28"/>
+      <c r="AB32" s="29">
+        <f>+AB18/AA18-1</f>
         <v>0.10560056609215063</v>
       </c>
-      <c r="X32" s="29">
-        <f>+X18/W18-1</f>
+      <c r="AC32" s="29">
+        <f>+AC18/AB18-1</f>
         <v>-6.9633957835607552E-3</v>
       </c>
-      <c r="Y32" s="29">
-        <f>+Y18/X18-1</f>
-        <v>0.12944113430465665</v>
-      </c>
-      <c r="Z32" s="29">
-        <f t="shared" ref="Z32:AG32" si="43">+Z18/Y18-1</f>
-        <v>0.35054980775918931</v>
-      </c>
-      <c r="AA32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.2705337219504147</v>
-      </c>
-      <c r="AB32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.16721172882762447</v>
-      </c>
-      <c r="AC32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.14524703159141783</v>
-      </c>
       <c r="AD32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.10770127360042481</v>
+        <f>+AD18/AC18-1</f>
+        <v>0.13522647692985101</v>
       </c>
       <c r="AE32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.11398539208743053</v>
+        <f t="shared" ref="AE32:AL32" si="51">+AE18/AD18-1</f>
+        <v>0.34557572391892855</v>
       </c>
       <c r="AF32" s="29">
-        <f t="shared" si="43"/>
-        <v>0.12012556255554951</v>
+        <f t="shared" si="51"/>
+        <v>0.27018984005538704</v>
       </c>
       <c r="AG32" s="29">
-        <f t="shared" si="43"/>
-        <v>9.9956996781356056E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+        <f t="shared" si="51"/>
+        <v>0.16710897454804208</v>
+      </c>
+      <c r="AH32" s="29">
+        <f t="shared" si="51"/>
+        <v>0.14517176716504321</v>
+      </c>
+      <c r="AI32" s="29">
+        <f t="shared" si="51"/>
+        <v>0.10766510553087549</v>
+      </c>
+      <c r="AJ32" s="29">
+        <f t="shared" si="51"/>
+        <v>0.11394197889496671</v>
+      </c>
+      <c r="AK32" s="29">
+        <f t="shared" si="51"/>
+        <v>0.12007628044946617</v>
+      </c>
+      <c r="AL32" s="29">
+        <f t="shared" si="51"/>
+        <v>9.9926184310596078E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="16">
-        <f t="shared" ref="E33:L33" si="44">+E20/E18</f>
+        <f t="shared" ref="E33:L33" si="52">+E20/E18</f>
         <v>0.6039941855465103</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.72097807428905125</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.75277588615420699</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.74673356016528036</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.74673069114143276</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.73376523763258938</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.77477885137503022</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="44"/>
+        <f t="shared" si="52"/>
         <v>0.7693397127752446</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" ref="M33:N33" si="45">+M20/M18</f>
+        <f t="shared" ref="M33:N33" si="53">+M20/M18</f>
         <v>0.76988348530901718</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="45"/>
-        <v>0.78</v>
-      </c>
-      <c r="O33" s="16"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="V33" s="16">
-        <f>+V20/V18</f>
+        <f t="shared" si="53"/>
+        <v>0.7632016608811153</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" ref="O33:T33" si="54">+O20/O18</f>
+        <v>0.77285614882254816</v>
+      </c>
+      <c r="P33" s="16">
+        <f t="shared" si="54"/>
+        <v>0.88985594893116626</v>
+      </c>
+      <c r="Q33" s="16">
+        <f t="shared" si="54"/>
+        <v>0.78542666113942572</v>
+      </c>
+      <c r="R33" s="16">
+        <f t="shared" si="54"/>
+        <v>0.79033333900789127</v>
+      </c>
+      <c r="S33" s="16">
+        <f t="shared" si="54"/>
+        <v>0.80707227006799775</v>
+      </c>
+      <c r="T33" s="16">
+        <f t="shared" si="54"/>
+        <v>0.81677853008795998</v>
+      </c>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="AA33" s="16">
+        <f>+AA20/AA18</f>
         <v>0.78624907459988524</v>
       </c>
-      <c r="W33" s="16">
-        <f>+W20/W18</f>
+      <c r="AB33" s="16">
+        <f>+AB20/AB18</f>
         <v>0.71802630460809314</v>
       </c>
-      <c r="X33" s="16">
-        <f>+X20/X18</f>
+      <c r="AC33" s="16">
+        <f>+AC20/AC18</f>
         <v>0.74516437051106876</v>
       </c>
-      <c r="Y33" s="16">
-        <f>+Y20/Y18</f>
-        <v>0.77351938850266766</v>
-      </c>
-      <c r="Z33" s="16">
-        <f t="shared" ref="Z33:AG33" si="46">+Z20/Z18</f>
+      <c r="AD33" s="16">
+        <f>+AD20/AD18</f>
+        <v>0.76924431136696081</v>
+      </c>
+      <c r="AE33" s="16">
+        <f t="shared" ref="AE33:AL33" si="55">+AE20/AE18</f>
+        <v>0.79</v>
+      </c>
+      <c r="AF33" s="16">
+        <f t="shared" si="55"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="AA33" s="16">
-        <f t="shared" si="46"/>
+      <c r="AG33" s="16">
+        <f t="shared" si="55"/>
+        <v>0.79</v>
+      </c>
+      <c r="AH33" s="16">
+        <f t="shared" si="55"/>
+        <v>0.79</v>
+      </c>
+      <c r="AI33" s="16">
+        <f t="shared" si="55"/>
+        <v>0.79</v>
+      </c>
+      <c r="AJ33" s="16">
+        <f t="shared" si="55"/>
+        <v>0.79</v>
+      </c>
+      <c r="AK33" s="16">
+        <f t="shared" si="55"/>
+        <v>0.79</v>
+      </c>
+      <c r="AL33" s="16">
+        <f t="shared" si="55"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="AB33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AC33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.79</v>
-      </c>
-      <c r="AD33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AE33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.79</v>
-      </c>
-      <c r="AF33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AG33" s="16">
-        <f t="shared" si="46"/>
-        <v>0.78999999999999992</v>
-      </c>
-      <c r="AI33" t="s">
+      <c r="AN33" t="s">
         <v>90</v>
       </c>
-      <c r="AJ33" s="30">
+      <c r="AO33" s="30">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>88</v>
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
-        <f t="shared" ref="I34:K34" si="47">+I22/E22-1</f>
+        <f t="shared" ref="I34:K34" si="56">+I22/E22-1</f>
         <v>2.1638339370298132E-2</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>0.11278591595400789</v>
       </c>
       <c r="K34" s="16">
-        <f t="shared" si="47"/>
+        <f t="shared" si="56"/>
         <v>0.11645957388221517</v>
       </c>
       <c r="L34" s="16">
@@ -4391,70 +4909,93 @@
         <v>6.8820217092652625E-2</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:N34" si="48">+M22/I22-1</f>
+        <f t="shared" ref="M34:N34" si="57">+M22/I22-1</f>
         <v>0.18263487751795915</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="48"/>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="16"/>
-      <c r="Q34" s="16"/>
-      <c r="R34" s="16"/>
-      <c r="S34" s="16"/>
-      <c r="W34" s="16">
-        <f>+W22/V22-1</f>
+        <f t="shared" si="57"/>
+        <v>0.12950731512251634</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" ref="O34" si="58">+O22/K22-1</f>
+        <v>8.4287762243151931E-2</v>
+      </c>
+      <c r="P34" s="16">
+        <f t="shared" ref="P34" si="59">+P22/L22-1</f>
+        <v>4.7085122056544915E-2</v>
+      </c>
+      <c r="Q34" s="16">
+        <f t="shared" ref="Q34" si="60">+Q22/M22-1</f>
+        <v>3.2802007231938601E-2</v>
+      </c>
+      <c r="R34" s="16">
+        <f t="shared" ref="R34" si="61">+R22/N22-1</f>
+        <v>0.11917115313401605</v>
+      </c>
+      <c r="S34" s="16">
+        <f t="shared" ref="S34" si="62">+S22/O22-1</f>
+        <v>7.0527857153011908E-2</v>
+      </c>
+      <c r="T34" s="16">
+        <f t="shared" ref="T34" si="63">+T22/P22-1</f>
+        <v>0.27621626080163786</v>
+      </c>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
+      <c r="W34" s="16"/>
+      <c r="X34" s="16"/>
+      <c r="AB34" s="16">
+        <f>+AB22/AA22-1</f>
         <v>8.3335291456902771E-2</v>
       </c>
-      <c r="X34" s="16">
-        <f>+X22/W22-1</f>
+      <c r="AC34" s="16">
+        <f>+AC22/AB22-1</f>
         <v>2.9425121565363366E-2</v>
       </c>
-      <c r="Y34" s="16">
-        <f>+Y22/X22-1</f>
-        <v>0.10184184362139925</v>
-      </c>
-      <c r="Z34" s="16">
-        <f t="shared" ref="Z34:AG34" si="49">+Z22/Y22-1</f>
+      <c r="AD34" s="16">
+        <f>+AD22/AC22-1</f>
+        <v>0.1246209053497942</v>
+      </c>
+      <c r="AE34" s="16">
+        <f t="shared" ref="AE34:AL34" si="64">+AE22/AD22-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AA34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AF34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AB34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AG34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AC34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AH34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AD34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AI34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AE34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AJ34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AK34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG34" s="16">
-        <f t="shared" si="49"/>
+      <c r="AL34" s="16">
+        <f t="shared" si="64"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AI34" t="s">
+      <c r="AN34" t="s">
         <v>91</v>
       </c>
-      <c r="AJ34" s="30">
+      <c r="AO34" s="30">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>89</v>
       </c>
@@ -4468,75 +5009,99 @@
       </c>
       <c r="N35" s="16">
         <f>+N8/J8-1</f>
-        <v>5.5662188099808052E-2</v>
-      </c>
-      <c r="W35" s="30">
-        <f>+W8/V8-1</f>
+        <v>-2.6871401151631558E-2</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" ref="O35:T35" si="65">+O8/K8-1</f>
+        <v>3.3836065573770613E-2</v>
+      </c>
+      <c r="P35" s="16">
+        <f t="shared" si="65"/>
+        <v>2.4167754003902919E-2</v>
+      </c>
+      <c r="Q35" s="16">
+        <f t="shared" si="65"/>
+        <v>2.2062134173795656E-2</v>
+      </c>
+      <c r="R35" s="16">
+        <f t="shared" si="65"/>
+        <v>0.15450361604207763</v>
+      </c>
+      <c r="S35" s="16">
+        <f t="shared" si="65"/>
+        <v>1.7590595796862507E-2</v>
+      </c>
+      <c r="T35" s="16">
+        <f t="shared" si="65"/>
+        <v>3.5176332641833064E-3</v>
+      </c>
+      <c r="AB35" s="30">
+        <f>+AB8/AA8-1</f>
         <v>1.8372221201556904E-4</v>
       </c>
-      <c r="X35" s="30">
-        <f>+X8/W8-1</f>
+      <c r="AC35" s="30">
+        <f>+AC8/AB8-1</f>
         <v>0.14484753857457777</v>
       </c>
-      <c r="Y35" s="30">
-        <f>+Y8/X8-1</f>
-        <v>8.5712910445965074E-2</v>
-      </c>
-      <c r="Z35" s="30">
-        <f t="shared" ref="Z35:AG35" si="50">+Z8/Y8-1</f>
+      <c r="AD35" s="30">
+        <f>+AD8/AC8-1</f>
+        <v>6.5015122221241617E-2</v>
+      </c>
+      <c r="AE35" s="30">
+        <f t="shared" ref="AE35:AL35" si="66">+AE8/AD8-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AA35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AF35" s="30">
+        <f t="shared" si="66"/>
         <v>7.0000000000000062E-2</v>
       </c>
-      <c r="AB35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AG35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AC35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AH35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AD35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AI35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AE35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AJ35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AK35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG35" s="30">
-        <f t="shared" si="50"/>
+      <c r="AL35" s="30">
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AI35" t="s">
+      <c r="AN35" t="s">
         <v>100</v>
       </c>
-      <c r="AJ35" s="30">
+      <c r="AO35" s="30">
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="AI36" t="s">
+    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
+      <c r="AN36" t="s">
         <v>92</v>
       </c>
-      <c r="AJ36" s="2">
-        <f>NPV(AJ33,Z28:DJ28)+Main!L5-Main!L6</f>
-        <v>38320.030087547508</v>
-      </c>
-    </row>
-    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="AO36" s="2">
+        <f>NPV(AO33,AE28:DO28)+Main!L5-Main!L6</f>
+        <v>38262.149555882228</v>
+      </c>
+    </row>
+    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
         <v>99</v>
       </c>
       <c r="L37" s="25">
         <f>+Main!L5-Main!L6</f>
-        <v>564</v>
+        <v>692.48099999999977</v>
       </c>
       <c r="M37" s="25">
         <f>+M38-M50</f>
@@ -4547,51 +5112,56 @@
       <c r="P37" s="25"/>
       <c r="Q37" s="25"/>
       <c r="R37" s="25"/>
-      <c r="Y37" s="2">
+      <c r="S37" s="25"/>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="25"/>
+      <c r="W37" s="25"/>
+      <c r="AD37" s="2">
         <f>+N37</f>
         <v>0</v>
       </c>
-      <c r="Z37" s="2">
-        <f>+Y37+Z28</f>
-        <v>1354.7415442625002</v>
-      </c>
-      <c r="AA37" s="2">
-        <f t="shared" ref="AA37:AG37" si="51">+Z37+AA28</f>
-        <v>3303.6869326916249</v>
-      </c>
-      <c r="AB37" s="2">
-        <f t="shared" si="51"/>
-        <v>5485.6515976639148</v>
-      </c>
-      <c r="AC37" s="2">
-        <f t="shared" si="51"/>
-        <v>7813.3653396974005</v>
-      </c>
-      <c r="AD37" s="2">
-        <f t="shared" si="51"/>
-        <v>10472.581880144726</v>
-      </c>
       <c r="AE37" s="2">
-        <f t="shared" si="51"/>
-        <v>13523.460909834328</v>
+        <f>+AD37+AE28</f>
+        <v>1339.9121328000003</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="51"/>
-        <v>17037.377732200559</v>
+        <f t="shared" ref="AF37:AL37" si="67">+AE37+AF28</f>
+        <v>3273.1007160260006</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="51"/>
-        <v>20989.942314521337</v>
-      </c>
-      <c r="AI37" t="s">
+        <f t="shared" si="67"/>
+        <v>5440.1543384321376</v>
+      </c>
+      <c r="AH37" s="2">
+        <f t="shared" si="67"/>
+        <v>7753.9605973806902</v>
+      </c>
+      <c r="AI37" s="2">
+        <f t="shared" si="67"/>
+        <v>10398.614242320818</v>
+      </c>
+      <c r="AJ37" s="2">
+        <f t="shared" si="67"/>
+        <v>13434.245886576773</v>
+      </c>
+      <c r="AK37" s="2">
+        <f t="shared" si="67"/>
+        <v>16932.200910722113</v>
+      </c>
+      <c r="AL37" s="2">
+        <f t="shared" si="67"/>
+        <v>20868.058466499377</v>
+      </c>
+      <c r="AN37" t="s">
         <v>93</v>
       </c>
-      <c r="AJ37" s="1">
-        <f>+AJ36/Main!L3</f>
-        <v>206.18915148117765</v>
-      </c>
-    </row>
-    <row r="38" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AO37" s="1">
+        <f>+AO36/Main!L3</f>
+        <v>200.97479990018337</v>
+      </c>
+    </row>
+    <row r="38" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B38" s="2" t="s">
         <v>3</v>
       </c>
@@ -4614,12 +5184,20 @@
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
-      <c r="AJ38" s="2">
-        <f>+AJ37/Main!L2-1</f>
-        <v>0.89164359157043704</v>
-      </c>
-    </row>
-    <row r="39" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="25">
+        <f>746.996+299.584+620.551</f>
+        <v>1667.1309999999999</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="25"/>
+      <c r="W38" s="25"/>
+      <c r="AO38" s="2">
+        <f>+AO37/Main!L2-1</f>
+        <v>1.2034294474310205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B39" s="2" t="s">
         <v>137</v>
       </c>
@@ -4641,8 +5219,15 @@
       <c r="P39" s="25"/>
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
-    </row>
-    <row r="40" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="25">
+        <v>637.16300000000001</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="25"/>
+      <c r="W39" s="25"/>
+    </row>
+    <row r="40" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>138</v>
       </c>
@@ -4664,8 +5249,15 @@
       <c r="P40" s="25"/>
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
-    </row>
-    <row r="41" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="25">
+        <v>1137.982</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="25"/>
+      <c r="W40" s="25"/>
+    </row>
+    <row r="41" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B41" s="2" t="s">
         <v>139</v>
       </c>
@@ -4687,8 +5279,15 @@
       <c r="P41" s="25"/>
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
-    </row>
-    <row r="42" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="25">
+        <v>163.28700000000001</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="25"/>
+      <c r="W41" s="25"/>
+    </row>
+    <row r="42" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>140</v>
       </c>
@@ -4710,8 +5309,15 @@
       <c r="P42" s="25"/>
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
-    </row>
-    <row r="43" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="25">
+        <v>1060.425</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="25"/>
+      <c r="W42" s="25"/>
+    </row>
+    <row r="43" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>141</v>
       </c>
@@ -4734,8 +5340,16 @@
       <c r="P43" s="25"/>
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
-    </row>
-    <row r="44" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="25">
+        <f>279.653+196.199</f>
+        <v>475.85200000000003</v>
+      </c>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="25"/>
+      <c r="W43" s="25"/>
+    </row>
+    <row r="44" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>142</v>
       </c>
@@ -4757,8 +5371,15 @@
       <c r="P44" s="25"/>
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
-    </row>
-    <row r="45" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="25">
+        <v>1546.0429999999999</v>
+      </c>
+      <c r="T44" s="25"/>
+      <c r="U44" s="25"/>
+      <c r="V44" s="25"/>
+      <c r="W44" s="25"/>
+    </row>
+    <row r="45" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B45" s="2" t="s">
         <v>143</v>
       </c>
@@ -4780,8 +5401,15 @@
       <c r="P45" s="25"/>
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
-    </row>
-    <row r="46" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="25">
+        <v>184.79</v>
+      </c>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+    </row>
+    <row r="46" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B46" s="2" t="s">
         <v>144</v>
       </c>
@@ -4799,13 +5427,36 @@
         <f>SUM(M38:M45)</f>
         <v>6264.0400000000009</v>
       </c>
-      <c r="N46" s="25"/>
-      <c r="O46" s="25"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="25"/>
-    </row>
-    <row r="48" spans="2:36" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="N46" s="25">
+        <f t="shared" ref="N46:S46" si="68">SUM(N38:N45)</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="25">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="P46" s="25">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="25">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="25">
+        <f t="shared" si="68"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="25">
+        <f t="shared" si="68"/>
+        <v>6872.6729999999989</v>
+      </c>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+    </row>
+    <row r="48" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B48" s="2" t="s">
         <v>145</v>
       </c>
@@ -4827,8 +5478,15 @@
       <c r="P48" s="25"/>
       <c r="Q48" s="25"/>
       <c r="R48" s="25"/>
-    </row>
-    <row r="49" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S48" s="25">
+        <v>593.54300000000001</v>
+      </c>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+    </row>
+    <row r="49" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B49" s="2" t="s">
         <v>146</v>
       </c>
@@ -4850,8 +5508,15 @@
       <c r="P49" s="25"/>
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
-    </row>
-    <row r="50" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S49" s="25">
+        <v>0</v>
+      </c>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+    </row>
+    <row r="50" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B50" s="2" t="s">
         <v>4</v>
       </c>
@@ -4873,8 +5538,16 @@
       <c r="P50" s="25"/>
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
-    </row>
-    <row r="51" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S50" s="25">
+        <f>494.357+593.605</f>
+        <v>1087.962</v>
+      </c>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+    </row>
+    <row r="51" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B51" s="2" t="s">
         <v>147</v>
       </c>
@@ -4896,8 +5569,15 @@
       <c r="P51" s="25"/>
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
-    </row>
-    <row r="52" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S51" s="25">
+        <v>117.352</v>
+      </c>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+    </row>
+    <row r="52" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B52" s="2" t="s">
         <v>136</v>
       </c>
@@ -4919,8 +5599,15 @@
       <c r="P52" s="25"/>
       <c r="Q52" s="25"/>
       <c r="R52" s="25"/>
-    </row>
-    <row r="53" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S52" s="25">
+        <v>5073.8159999999998</v>
+      </c>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+    </row>
+    <row r="53" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B53" s="2" t="s">
         <v>135</v>
       </c>
@@ -4938,11 +5625,45 @@
         <f>SUM(M48:M52)</f>
         <v>6264.04</v>
       </c>
-      <c r="N53" s="25"/>
-      <c r="O53" s="25"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="25"/>
+      <c r="N53" s="25">
+        <f t="shared" ref="N53:S53" si="69">SUM(N48:N52)</f>
+        <v>0</v>
+      </c>
+      <c r="O53" s="25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="R53" s="25">
+        <f t="shared" si="69"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="25">
+        <f t="shared" si="69"/>
+        <v>6872.6729999999998</v>
+      </c>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="B55" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="O55" s="3">
+        <v>-73.932000000000002</v>
+      </c>
+      <c r="S55" s="3">
+        <v>46.970999999999997</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BMRN.xlsx
+++ b/BMRN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127B6C42-D674-47C8-BB21-9FA4EE11E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0F158B-D563-4D91-BCD2-FF8318DB6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27015" yWindow="750" windowWidth="26490" windowHeight="19650" activeTab="1" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
+    <workbookView xWindow="-30270" yWindow="1515" windowWidth="25650" windowHeight="17700" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -1198,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D32D52D-8D10-4D01-9D30-7F79A6792282}">
   <dimension ref="B2:M26"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>91.21</v>
+        <v>70</v>
       </c>
       <c r="M2" s="30"/>
     </row>
@@ -1290,7 +1290,7 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>17364.817194619998</v>
+        <v>13326.79754</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.2">
@@ -1372,7 +1372,7 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>16672.336194619998</v>
+        <v>12634.31654</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.2">
@@ -1507,7 +1507,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1521,7 +1521,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1588,11 +1588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1997BFD-C986-43B5-AFE7-A2D1E0EBF425}">
   <dimension ref="A1:DO55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q29" sqref="Q29"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2705,7 +2705,7 @@
         <v>517.66</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" ref="M16:N16" si="12">SUM(M8:M15)</f>
+        <f t="shared" ref="M16" si="12">SUM(M8:M15)</f>
         <v>493.34800000000001</v>
       </c>
       <c r="N16" s="25"/>
@@ -2910,35 +2910,35 @@
         <v>533.798</v>
       </c>
       <c r="M18" s="26">
-        <f t="shared" ref="M18:T18" si="16">+M16+M17</f>
+        <f t="shared" ref="M18" si="16">+M16+M17</f>
         <v>505.34399999999999</v>
       </c>
       <c r="N18" s="26">
-        <f>SUM(N8:N17)</f>
+        <f t="shared" ref="N18:T18" si="17">SUM(N8:N17)</f>
         <v>537.54600000000005</v>
       </c>
       <c r="O18" s="26">
-        <f>SUM(O8:O17)</f>
+        <f t="shared" si="17"/>
         <v>596.41500000000008</v>
       </c>
       <c r="P18" s="26">
-        <f>SUM(P8:P17)</f>
+        <f t="shared" si="17"/>
         <v>595.27499999999998</v>
       </c>
       <c r="Q18" s="26">
-        <f>SUM(Q8:Q17)</f>
+        <f t="shared" si="17"/>
         <v>581.36299999999994</v>
       </c>
       <c r="R18" s="26">
-        <f>SUM(R8:R17)</f>
+        <f t="shared" si="17"/>
         <v>646.15899999999999</v>
       </c>
       <c r="S18" s="26">
-        <f>SUM(S8:S17)</f>
+        <f t="shared" si="17"/>
         <v>648.84400000000005</v>
       </c>
       <c r="T18" s="26">
-        <f>SUM(T8:T17)</f>
+        <f t="shared" si="17"/>
         <v>712.02899999999988</v>
       </c>
       <c r="U18" s="26"/>
@@ -2961,35 +2961,35 @@
         <v>2096.0219999999999</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" ref="AE18:AL18" si="17">+AE16+AE17</f>
+        <f t="shared" ref="AE18:AL18" si="18">+AE16+AE17</f>
         <v>2820.3563200000003</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3582.3879430000006</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4181.0371185880003</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>4788.0056656760607</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5303.5068009535034</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>5907.7988609370595</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6617.1853738019745</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7278.4154590818907</v>
       </c>
     </row>
@@ -3069,31 +3069,31 @@
         <v>592.2748272</v>
       </c>
       <c r="AF19" s="2">
-        <f t="shared" ref="AF19:AL19" si="18">+AF18*0.21</f>
+        <f t="shared" ref="AF19:AL19" si="19">+AF18*0.21</f>
         <v>752.30146803000014</v>
       </c>
       <c r="AG19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>878.01779490348008</v>
       </c>
       <c r="AH19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1005.4811897919727</v>
       </c>
       <c r="AI19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1113.7364282002357</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1240.6377607967825</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1389.6089284984146</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>1528.4672464071971</v>
       </c>
     </row>
@@ -3104,67 +3104,67 @@
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
-        <f t="shared" ref="E20:L20" si="19">+E18-E19</f>
+        <f t="shared" ref="E20:L20" si="20">+E18-E19</f>
         <v>287.94999999999993</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>325.93399999999997</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>365.89500000000004</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>374.63100000000003</v>
       </c>
       <c r="I20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>305.26499999999999</v>
       </c>
       <c r="J20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>330.041</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>402.36899999999991</v>
       </c>
       <c r="L20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>410.67200000000003</v>
       </c>
       <c r="M20" s="25">
-        <f>+M18-M19</f>
+        <f t="shared" ref="M20:T20" si="21">+M18-M19</f>
         <v>389.05599999999998</v>
       </c>
       <c r="N20" s="25">
-        <f>+N18-N19</f>
+        <f t="shared" si="21"/>
         <v>410.25600000000003</v>
       </c>
       <c r="O20" s="25">
-        <f>+O18-O19</f>
+        <f t="shared" si="21"/>
         <v>460.9430000000001</v>
       </c>
       <c r="P20" s="25">
-        <f>+P18-P19</f>
+        <f t="shared" si="21"/>
         <v>529.70899999999995</v>
       </c>
       <c r="Q20" s="25">
-        <f>+Q18-Q19</f>
+        <f t="shared" si="21"/>
         <v>456.61799999999994</v>
       </c>
       <c r="R20" s="25">
-        <f>+R18-R19</f>
+        <f t="shared" si="21"/>
         <v>510.68099999999998</v>
       </c>
       <c r="S20" s="25">
-        <f>+S18-S19</f>
+        <f t="shared" si="21"/>
         <v>523.66399999999999</v>
       </c>
       <c r="T20" s="25">
-        <f>+T18-T19</f>
+        <f t="shared" si="21"/>
         <v>581.56999999999994</v>
       </c>
       <c r="U20" s="25"/>
@@ -3191,31 +3191,31 @@
         <v>2228.0814928000004</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" ref="AF20:AL20" si="20">+AF18-AF19</f>
+        <f t="shared" ref="AF20:AL20" si="22">+AF18-AF19</f>
         <v>2830.0864749700004</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3303.0193236845203</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3782.5244758840881</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4189.770372753268</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4667.1611001402771</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5227.5764453035599</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>5749.9482126746934</v>
       </c>
     </row>
@@ -3367,31 +3367,31 @@
         <v>888.1693600000001</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AL22" si="21">+AE22*1.04</f>
+        <f t="shared" ref="AF22:AL22" si="23">+AE22*1.04</f>
         <v>923.69613440000012</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>960.64397977600015</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>999.06973896704017</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1039.0325285257218</v>
       </c>
       <c r="AJ22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1080.5938296667507</v>
       </c>
       <c r="AK22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1123.8175828534208</v>
       </c>
       <c r="AL22" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="23"/>
         <v>1168.7702861675577</v>
       </c>
     </row>
@@ -3402,67 +3402,67 @@
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
-        <f t="shared" ref="E23:L23" si="22">+E21+E22</f>
+        <f t="shared" ref="E23:L23" si="24">+E21+E22</f>
         <v>326.50299999999999</v>
       </c>
       <c r="F23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>352.17899999999997</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>323.04300000000001</v>
       </c>
       <c r="H23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>345.26800000000003</v>
       </c>
       <c r="I23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>341.202</v>
       </c>
       <c r="J23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>378.65499999999997</v>
       </c>
       <c r="K23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>355.45500000000004</v>
       </c>
       <c r="L23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>355.02499999999998</v>
       </c>
       <c r="M23" s="25">
-        <f t="shared" ref="M23:N23" si="23">+M21+M22</f>
+        <f t="shared" ref="M23:N23" si="25">+M21+M22</f>
         <v>374.64499999999998</v>
       </c>
       <c r="N23" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>418.49</v>
       </c>
       <c r="O23" s="25">
-        <f t="shared" ref="O23:T23" si="24">+O21+O22</f>
+        <f t="shared" ref="O23:T23" si="26">+O21+O22</f>
         <v>382.86900000000003</v>
       </c>
       <c r="P23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>383.46600000000001</v>
       </c>
       <c r="Q23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>415.24199999999996</v>
       </c>
       <c r="R23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>481.274</v>
       </c>
       <c r="S23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>430.89300000000003</v>
       </c>
       <c r="T23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>446.81899999999996</v>
       </c>
       <c r="U23" s="25"/>
@@ -3485,35 +3485,35 @@
         <v>1503.615</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" ref="AE23:AL23" si="25">+AE22+AE21</f>
+        <f t="shared" ref="AE23:AL23" si="27">+AE22+AE21</f>
         <v>888.1693600000001</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>923.69613440000012</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>960.64397977600015</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>999.06973896704017</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1039.0325285257218</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1080.5938296667507</v>
       </c>
       <c r="AK23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1123.8175828534208</v>
       </c>
       <c r="AL23" s="2">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>1168.7702861675577</v>
       </c>
     </row>
@@ -3524,67 +3524,67 @@
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
-        <f t="shared" ref="E24:L24" si="26">+E20-E23</f>
+        <f t="shared" ref="E24:L24" si="28">+E20-E23</f>
         <v>-38.553000000000054</v>
       </c>
       <c r="F24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-26.245000000000005</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>42.852000000000032</v>
       </c>
       <c r="H24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>29.363</v>
       </c>
       <c r="I24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-35.937000000000012</v>
       </c>
       <c r="J24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>-48.613999999999976</v>
       </c>
       <c r="K24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>46.913999999999874</v>
       </c>
       <c r="L24" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>55.647000000000048</v>
       </c>
       <c r="M24" s="25">
-        <f t="shared" ref="M24:N24" si="27">+M20-M23</f>
+        <f t="shared" ref="M24:N24" si="29">+M20-M23</f>
         <v>14.411000000000001</v>
       </c>
       <c r="N24" s="25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="29"/>
         <v>-8.2339999999999804</v>
       </c>
       <c r="O24" s="25">
-        <f t="shared" ref="O24:T24" si="28">+O20-O23</f>
+        <f t="shared" ref="O24:T24" si="30">+O20-O23</f>
         <v>78.074000000000069</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>146.24299999999994</v>
       </c>
       <c r="Q24" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>41.375999999999976</v>
       </c>
       <c r="R24" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>29.406999999999982</v>
       </c>
       <c r="S24" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>92.770999999999958</v>
       </c>
       <c r="T24" s="25">
-        <f t="shared" si="28"/>
+        <f t="shared" si="30"/>
         <v>134.75099999999998</v>
       </c>
       <c r="U24" s="25"/>
@@ -3607,35 +3607,35 @@
         <v>108.73799999999983</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AL24" si="29">+AE20-AE23</f>
+        <f t="shared" ref="AE24:AL24" si="31">+AE20-AE23</f>
         <v>1339.9121328000003</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>1906.3903405700003</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2342.3753439085203</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>2783.4547369170477</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3150.7378442275462</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>3586.5672704735262</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4103.7588624501386</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="29"/>
+        <f t="shared" si="31"/>
         <v>4581.1779265071355</v>
       </c>
     </row>
@@ -3721,11 +3721,11 @@
         <v>-5.5570000000000013</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" ref="AC25" si="30">SUM(G25:J25)</f>
+        <f t="shared" ref="AC25" si="32">SUM(G25:J25)</f>
         <v>6.9910000000000014</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" ref="AD25:AD27" si="31">SUM(K25:N25)</f>
+        <f t="shared" ref="AD25:AD27" si="33">SUM(K25:N25)</f>
         <v>1.4000000000001123E-2</v>
       </c>
       <c r="AE25" s="2">
@@ -3733,31 +3733,31 @@
         <v>0</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" ref="AF25:AL25" si="32">+AE37*$AO$35</f>
+        <f t="shared" ref="AF25:AL25" si="34">+AE37*$AO$35</f>
         <v>26.798242656000006</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>65.462014320520012</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>108.80308676864276</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>155.0792119476138</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>207.97228484641639</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>268.68491773153545</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="32"/>
+        <f t="shared" si="34"/>
         <v>338.64401821444227</v>
       </c>
     </row>
@@ -3768,67 +3768,67 @@
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:T26" si="33">+E24+E25</f>
+        <f t="shared" ref="E26:T26" si="35">+E24+E25</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>40.994000000000035</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>31.847000000000001</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-28.878000000000011</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-49.307999999999979</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>43.773999999999873</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>51.346000000000046</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>14.924000000000001</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>-1.2919999999999785</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>72.427000000000064</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>151.48699999999994</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>57.383999999999972</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>34.514999999999986</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>109.85599999999995</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="35"/>
         <v>146.43499999999997</v>
       </c>
       <c r="U26" s="25"/>
@@ -3851,35 +3851,35 @@
         <v>108.75199999999982</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" ref="AE26:AL26" si="34">+AE24+AE25</f>
+        <f t="shared" ref="AE26:AL26" si="36">+AE24+AE25</f>
         <v>1339.9121328000003</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>1933.1885832260002</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2407.8373582290405</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>2892.2578236856907</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3305.8170561751599</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>3794.5395553199423</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4372.4437801816739</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="34"/>
+        <f t="shared" si="36"/>
         <v>4919.8219447215779</v>
       </c>
     </row>
@@ -3947,11 +3947,11 @@
         <v>0</v>
       </c>
       <c r="AC27" s="2">
-        <f t="shared" ref="AC27" si="35">SUM(G27:J27)</f>
+        <f t="shared" ref="AC27" si="37">SUM(G27:J27)</f>
         <v>-11.27</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" si="31"/>
+        <f t="shared" si="33"/>
         <v>8.0150000000000006</v>
       </c>
       <c r="AE27" s="2">
@@ -3971,19 +3971,19 @@
         <v>578.45156473713814</v>
       </c>
       <c r="AI27" s="2">
-        <f t="shared" ref="AI27:AL27" si="36">+AI26*0.2</f>
+        <f t="shared" ref="AI27:AL27" si="38">+AI26*0.2</f>
         <v>661.16341123503207</v>
       </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>758.90791106398854</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>874.48875603633485</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v>983.9643889443156</v>
       </c>
     </row>
@@ -3994,67 +3994,67 @@
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25">
-        <f t="shared" ref="E28:T28" si="37">+E26-E27</f>
+        <f t="shared" ref="E28:T28" si="39">+E26-E27</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>35.137000000000036</v>
       </c>
       <c r="H28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>30.632000000000001</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-19.21200000000001</v>
       </c>
       <c r="J28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>-40.631999999999977</v>
       </c>
       <c r="K28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>30.384999999999874</v>
       </c>
       <c r="L28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>44.159000000000049</v>
       </c>
       <c r="M28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>10.176000000000002</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>16.017000000000024</v>
       </c>
       <c r="O28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>66.522000000000062</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>136.71699999999993</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>56.092999999999975</v>
       </c>
       <c r="R28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>35.562999999999988</v>
       </c>
       <c r="S28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>92.970999999999947</v>
       </c>
       <c r="T28" s="25">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v>121.47299999999997</v>
       </c>
       <c r="U28" s="25"/>
@@ -4077,35 +4077,35 @@
         <v>100.73699999999982</v>
       </c>
       <c r="AE28" s="2">
-        <f t="shared" ref="AE28:AL28" si="38">+AE26-AE27</f>
+        <f t="shared" ref="AE28:AL28" si="40">+AE26-AE27</f>
         <v>1339.9121328000003</v>
       </c>
       <c r="AF28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>1933.1885832260002</v>
       </c>
       <c r="AG28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2167.0536224061366</v>
       </c>
       <c r="AH28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2313.8062589485526</v>
       </c>
       <c r="AI28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>2644.6536449401278</v>
       </c>
       <c r="AJ28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3035.6316442559537</v>
       </c>
       <c r="AK28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3497.9550241453389</v>
       </c>
       <c r="AL28" s="2">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v>3935.8575557772624</v>
       </c>
       <c r="AM28" s="2">
@@ -4113,323 +4113,323 @@
         <v>3896.4989802194896</v>
       </c>
       <c r="AN28" s="2">
-        <f t="shared" ref="AN28:CY28" si="39">+AM28*(1+$AO$34)</f>
+        <f t="shared" ref="AN28:CY28" si="41">+AM28*(1+$AO$34)</f>
         <v>3857.5339904172947</v>
       </c>
       <c r="AO28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3818.9586505131219</v>
       </c>
       <c r="AP28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3780.7690640079909</v>
       </c>
       <c r="AQ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3742.9613733679112</v>
       </c>
       <c r="AR28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3705.531759634232</v>
       </c>
       <c r="AS28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3668.4764420378897</v>
       </c>
       <c r="AT28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3631.7916776175107</v>
       </c>
       <c r="AU28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3595.4737608413357</v>
       </c>
       <c r="AV28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3559.5190232329223</v>
       </c>
       <c r="AW28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3523.9238330005933</v>
       </c>
       <c r="AX28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3488.6845946705871</v>
       </c>
       <c r="AY28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3453.7977487238813</v>
       </c>
       <c r="AZ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3419.2597712366423</v>
       </c>
       <c r="BA28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3385.0671735242759</v>
       </c>
       <c r="BB28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3351.2165017890329</v>
       </c>
       <c r="BC28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3317.7043367711426</v>
       </c>
       <c r="BD28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3284.527293403431</v>
       </c>
       <c r="BE28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3251.6820204693968</v>
       </c>
       <c r="BF28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3219.1652002647029</v>
       </c>
       <c r="BG28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3186.9735482620558</v>
       </c>
       <c r="BH28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3155.1038127794354</v>
       </c>
       <c r="BI28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3123.5527746516409</v>
       </c>
       <c r="BJ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3092.3172469051246</v>
       </c>
       <c r="BK28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3061.3940744360734</v>
       </c>
       <c r="BL28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3030.7801336917128</v>
       </c>
       <c r="BM28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>3000.4723323547955</v>
       </c>
       <c r="BN28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2970.4676090312473</v>
       </c>
       <c r="BO28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2940.7629329409347</v>
       </c>
       <c r="BP28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2911.3553036115254</v>
       </c>
       <c r="BQ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2882.2417505754102</v>
       </c>
       <c r="BR28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2853.4193330696562</v>
       </c>
       <c r="BS28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2824.8851397389594</v>
       </c>
       <c r="BT28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2796.63628834157</v>
       </c>
       <c r="BU28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2768.6699254581545</v>
       </c>
       <c r="BV28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2740.9832262035729</v>
       </c>
       <c r="BW28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2713.5733939415372</v>
       </c>
       <c r="BX28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2686.4376600021219</v>
       </c>
       <c r="BY28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2659.5732834021005</v>
       </c>
       <c r="BZ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2632.9775505680796</v>
       </c>
       <c r="CA28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2606.6477750623985</v>
       </c>
       <c r="CB28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2580.5812973117745</v>
       </c>
       <c r="CC28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2554.775484338657</v>
       </c>
       <c r="CD28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2529.2277294952705</v>
       </c>
       <c r="CE28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2503.9354522003177</v>
       </c>
       <c r="CF28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2478.8960976783146</v>
       </c>
       <c r="CG28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2454.1071367015315</v>
       </c>
       <c r="CH28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2429.5660653345162</v>
       </c>
       <c r="CI28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2405.2704046811709</v>
       </c>
       <c r="CJ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2381.2177006343591</v>
       </c>
       <c r="CK28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2357.4055236280155</v>
       </c>
       <c r="CL28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2333.8314683917351</v>
       </c>
       <c r="CM28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2310.4931537078178</v>
       </c>
       <c r="CN28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2287.3882221707395</v>
       </c>
       <c r="CO28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2264.5143399490321</v>
       </c>
       <c r="CP28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2241.8691965495418</v>
       </c>
       <c r="CQ28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2219.4505045840465</v>
       </c>
       <c r="CR28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2197.2559995382062</v>
       </c>
       <c r="CS28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2175.283439542824</v>
       </c>
       <c r="CT28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2153.5306051473958</v>
       </c>
       <c r="CU28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2131.9952990959218</v>
       </c>
       <c r="CV28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2110.6753461049625</v>
       </c>
       <c r="CW28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2089.5685926439128</v>
       </c>
       <c r="CX28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2068.6729067174738</v>
       </c>
       <c r="CY28" s="2">
-        <f t="shared" si="39"/>
+        <f t="shared" si="41"/>
         <v>2047.9861776502989</v>
       </c>
       <c r="CZ28" s="2">
-        <f t="shared" ref="CZ28:DO28" si="40">+CY28*(1+$AO$34)</f>
+        <f t="shared" ref="CZ28:DO28" si="42">+CY28*(1+$AO$34)</f>
         <v>2027.506315873796</v>
       </c>
       <c r="DA28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>2007.231252715058</v>
       </c>
       <c r="DB28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1987.1589401879073</v>
       </c>
       <c r="DC28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1967.2873507860281</v>
       </c>
       <c r="DD28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1947.6144772781679</v>
       </c>
       <c r="DE28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1928.1383325053862</v>
       </c>
       <c r="DF28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1908.8569491803323</v>
       </c>
       <c r="DG28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1889.768379688529</v>
       </c>
       <c r="DH28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1870.8706958916437</v>
       </c>
       <c r="DI28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1852.1619889327271</v>
       </c>
       <c r="DJ28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1833.6403690433999</v>
       </c>
       <c r="DK28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1815.3039653529659</v>
       </c>
       <c r="DL28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1797.1509256994361</v>
       </c>
       <c r="DM28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1779.1794164424418</v>
       </c>
       <c r="DN28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1761.3876222780175</v>
       </c>
       <c r="DO28" s="2">
-        <f t="shared" si="40"/>
+        <f t="shared" si="42"/>
         <v>1743.7737460552373</v>
       </c>
     </row>
@@ -4438,55 +4438,55 @@
         <v>70</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" ref="E29:Q29" si="41">+E28/E30</f>
+        <f t="shared" ref="E29:Q29" si="43">+E28/E30</f>
         <v>-0.22171858716877307</v>
       </c>
       <c r="F29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.11703419414991655</v>
       </c>
       <c r="G29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.19058389607571954</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.16519708564556404</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.10486098223934857</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>-0.22136265077306938</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.15591166117627678</v>
       </c>
       <c r="L29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.23558000085357031</v>
       </c>
       <c r="M29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>5.4828472442981308E-2</v>
       </c>
       <c r="N29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>8.6099941944223587E-2</v>
       </c>
       <c r="O29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.34225649943662151</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.70112001148729697</v>
       </c>
       <c r="Q29" s="27">
-        <f t="shared" si="41"/>
+        <f t="shared" si="43"/>
         <v>0.29341486506985803</v>
       </c>
       <c r="R29" s="27">
@@ -4521,35 +4521,35 @@
         <v>0.53444285431966365</v>
       </c>
       <c r="AE29" s="1">
-        <f t="shared" ref="AE29:AL29" si="42">+AE28/AE30</f>
+        <f t="shared" ref="AE29:AL29" si="44">+AE28/AE30</f>
         <v>7.1086737225764276</v>
       </c>
       <c r="AF29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>10.256200049212225</v>
       </c>
       <c r="AG29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>11.496930853832298</v>
       </c>
       <c r="AH29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>12.275501765738202</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>14.030755756958284</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>16.105022391169566</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>18.557799690144098</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v>20.881016372387688</v>
       </c>
     </row>
@@ -4627,31 +4627,31 @@
         <v>188.48975000000002</v>
       </c>
       <c r="AF30" s="2">
-        <f t="shared" ref="AF30:AL30" si="43">+AE30</f>
+        <f t="shared" ref="AF30:AL30" si="45">+AE30</f>
         <v>188.48975000000002</v>
       </c>
       <c r="AG30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
       <c r="AH30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
       <c r="AI30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
       <c r="AJ30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
       <c r="AK30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
       <c r="AL30" s="2">
-        <f t="shared" si="43"/>
+        <f t="shared" si="45"/>
         <v>188.48975000000002</v>
       </c>
     </row>
@@ -4666,51 +4666,51 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
       <c r="I32" s="28">
-        <f t="shared" ref="I32:N32" si="44">+I18/E18-1</f>
+        <f t="shared" ref="I32:N32" si="46">+I18/E18-1</f>
         <v>-0.14251074478282844</v>
       </c>
       <c r="J32" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>-5.0456564441062612E-3</v>
       </c>
       <c r="K32" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.8454370953439758E-2</v>
       </c>
       <c r="L32" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>6.3993318623142059E-2</v>
       </c>
       <c r="M32" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.23615833582027501</v>
       </c>
       <c r="N32" s="28">
-        <f t="shared" si="44"/>
+        <f t="shared" si="46"/>
         <v>0.19510172502339995</v>
       </c>
       <c r="O32" s="28">
-        <f t="shared" ref="O32" si="45">+O18/K18-1</f>
+        <f t="shared" ref="O32" si="47">+O18/K18-1</f>
         <v>0.14842278764725614</v>
       </c>
       <c r="P32" s="28">
-        <f t="shared" ref="P32" si="46">+P18/L18-1</f>
+        <f t="shared" ref="P32" si="48">+P18/L18-1</f>
         <v>0.11516903397914557</v>
       </c>
       <c r="Q32" s="28">
-        <f t="shared" ref="Q32" si="47">+Q18/M18-1</f>
+        <f t="shared" ref="Q32" si="49">+Q18/M18-1</f>
         <v>0.15043020200101309</v>
       </c>
       <c r="R32" s="28">
-        <f t="shared" ref="R32" si="48">+R18/N18-1</f>
+        <f t="shared" ref="R32" si="50">+R18/N18-1</f>
         <v>0.2020534056620269</v>
       </c>
       <c r="S32" s="28">
-        <f t="shared" ref="S32" si="49">+S18/O18-1</f>
+        <f t="shared" ref="S32" si="51">+S18/O18-1</f>
         <v>8.7906910456645004E-2</v>
       </c>
       <c r="T32" s="28">
-        <f t="shared" ref="T32" si="50">+T18/P18-1</f>
+        <f t="shared" ref="T32" si="52">+T18/P18-1</f>
         <v>0.1961345596573012</v>
       </c>
       <c r="U32" s="28"/>
@@ -4729,35 +4729,35 @@
         <v>0.13522647692985101</v>
       </c>
       <c r="AE32" s="29">
-        <f t="shared" ref="AE32:AL32" si="51">+AE18/AD18-1</f>
+        <f t="shared" ref="AE32:AL32" si="53">+AE18/AD18-1</f>
         <v>0.34557572391892855</v>
       </c>
       <c r="AF32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.27018984005538704</v>
       </c>
       <c r="AG32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.16710897454804208</v>
       </c>
       <c r="AH32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.14517176716504321</v>
       </c>
       <c r="AI32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.10766510553087549</v>
       </c>
       <c r="AJ32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.11394197889496671</v>
       </c>
       <c r="AK32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>0.12007628044946617</v>
       </c>
       <c r="AL32" s="29">
-        <f t="shared" si="51"/>
+        <f t="shared" si="53"/>
         <v>9.9926184310596078E-2</v>
       </c>
     </row>
@@ -4766,67 +4766,67 @@
         <v>76</v>
       </c>
       <c r="E33" s="16">
-        <f t="shared" ref="E33:L33" si="52">+E20/E18</f>
+        <f t="shared" ref="E33:L33" si="54">+E20/E18</f>
         <v>0.6039941855465103</v>
       </c>
       <c r="F33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.72097807428905125</v>
       </c>
       <c r="G33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.75277588615420699</v>
       </c>
       <c r="H33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.74673356016528036</v>
       </c>
       <c r="I33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.74673069114143276</v>
       </c>
       <c r="J33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.73376523763258938</v>
       </c>
       <c r="K33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.77477885137503022</v>
       </c>
       <c r="L33" s="16">
-        <f t="shared" si="52"/>
+        <f t="shared" si="54"/>
         <v>0.7693397127752446</v>
       </c>
       <c r="M33" s="16">
-        <f t="shared" ref="M33:N33" si="53">+M20/M18</f>
+        <f t="shared" ref="M33:N33" si="55">+M20/M18</f>
         <v>0.76988348530901718</v>
       </c>
       <c r="N33" s="16">
-        <f t="shared" si="53"/>
+        <f t="shared" si="55"/>
         <v>0.7632016608811153</v>
       </c>
       <c r="O33" s="16">
-        <f t="shared" ref="O33:T33" si="54">+O20/O18</f>
+        <f t="shared" ref="O33:T33" si="56">+O20/O18</f>
         <v>0.77285614882254816</v>
       </c>
       <c r="P33" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.88985594893116626</v>
       </c>
       <c r="Q33" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.78542666113942572</v>
       </c>
       <c r="R33" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.79033333900789127</v>
       </c>
       <c r="S33" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.80707227006799775</v>
       </c>
       <c r="T33" s="16">
-        <f t="shared" si="54"/>
+        <f t="shared" si="56"/>
         <v>0.81677853008795998</v>
       </c>
       <c r="U33" s="16"/>
@@ -4849,35 +4849,35 @@
         <v>0.76924431136696081</v>
       </c>
       <c r="AE33" s="16">
-        <f t="shared" ref="AE33:AL33" si="55">+AE20/AE18</f>
+        <f t="shared" ref="AE33:AL33" si="57">+AE20/AE18</f>
         <v>0.79</v>
       </c>
       <c r="AF33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="AG33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AH33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AI33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AJ33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AK33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.79</v>
       </c>
       <c r="AL33" s="16">
-        <f t="shared" si="55"/>
+        <f t="shared" si="57"/>
         <v>0.78999999999999992</v>
       </c>
       <c r="AN33" t="s">
@@ -4893,15 +4893,15 @@
       </c>
       <c r="H34" s="16"/>
       <c r="I34" s="16">
-        <f t="shared" ref="I34:K34" si="56">+I22/E22-1</f>
+        <f t="shared" ref="I34:K34" si="58">+I22/E22-1</f>
         <v>2.1638339370298132E-2</v>
       </c>
       <c r="J34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.11278591595400789</v>
       </c>
       <c r="K34" s="16">
-        <f t="shared" si="56"/>
+        <f t="shared" si="58"/>
         <v>0.11645957388221517</v>
       </c>
       <c r="L34" s="16">
@@ -4909,35 +4909,35 @@
         <v>6.8820217092652625E-2</v>
       </c>
       <c r="M34" s="16">
-        <f t="shared" ref="M34:N34" si="57">+M22/I22-1</f>
+        <f t="shared" ref="M34:N34" si="59">+M22/I22-1</f>
         <v>0.18263487751795915</v>
       </c>
       <c r="N34" s="16">
-        <f t="shared" si="57"/>
+        <f t="shared" si="59"/>
         <v>0.12950731512251634</v>
       </c>
       <c r="O34" s="16">
-        <f t="shared" ref="O34" si="58">+O22/K22-1</f>
+        <f t="shared" ref="O34" si="60">+O22/K22-1</f>
         <v>8.4287762243151931E-2</v>
       </c>
       <c r="P34" s="16">
-        <f t="shared" ref="P34" si="59">+P22/L22-1</f>
+        <f t="shared" ref="P34" si="61">+P22/L22-1</f>
         <v>4.7085122056544915E-2</v>
       </c>
       <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="60">+Q22/M22-1</f>
+        <f t="shared" ref="Q34" si="62">+Q22/M22-1</f>
         <v>3.2802007231938601E-2</v>
       </c>
       <c r="R34" s="16">
-        <f t="shared" ref="R34" si="61">+R22/N22-1</f>
+        <f t="shared" ref="R34" si="63">+R22/N22-1</f>
         <v>0.11917115313401605</v>
       </c>
       <c r="S34" s="16">
-        <f t="shared" ref="S34" si="62">+S22/O22-1</f>
+        <f t="shared" ref="S34" si="64">+S22/O22-1</f>
         <v>7.0527857153011908E-2</v>
       </c>
       <c r="T34" s="16">
-        <f t="shared" ref="T34" si="63">+T22/P22-1</f>
+        <f t="shared" ref="T34" si="65">+T22/P22-1</f>
         <v>0.27621626080163786</v>
       </c>
       <c r="U34" s="16"/>
@@ -4957,35 +4957,35 @@
         <v>0.1246209053497942</v>
       </c>
       <c r="AE34" s="16">
-        <f t="shared" ref="AE34:AL34" si="64">+AE22/AD22-1</f>
+        <f t="shared" ref="AE34:AL34" si="66">+AE22/AD22-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AF34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AG34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AH34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AI34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AJ34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AK34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AL34" s="16">
-        <f t="shared" si="64"/>
+        <f t="shared" si="66"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AN34" t="s">
@@ -5012,27 +5012,27 @@
         <v>-2.6871401151631558E-2</v>
       </c>
       <c r="O35" s="16">
-        <f t="shared" ref="O35:T35" si="65">+O8/K8-1</f>
+        <f t="shared" ref="O35:T35" si="67">+O8/K8-1</f>
         <v>3.3836065573770613E-2</v>
       </c>
       <c r="P35" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.4167754003902919E-2</v>
       </c>
       <c r="Q35" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>2.2062134173795656E-2</v>
       </c>
       <c r="R35" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>0.15450361604207763</v>
       </c>
       <c r="S35" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>1.7590595796862507E-2</v>
       </c>
       <c r="T35" s="16">
-        <f t="shared" si="65"/>
+        <f t="shared" si="67"/>
         <v>3.5176332641833064E-3</v>
       </c>
       <c r="AB35" s="30">
@@ -5048,35 +5048,35 @@
         <v>6.5015122221241617E-2</v>
       </c>
       <c r="AE35" s="30">
-        <f t="shared" ref="AE35:AL35" si="66">+AE8/AD8-1</f>
+        <f t="shared" ref="AE35:AL35" si="68">+AE8/AD8-1</f>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AF35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>7.0000000000000062E-2</v>
       </c>
       <c r="AG35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AH35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AI35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AJ35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AK35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AL35" s="30">
-        <f t="shared" si="66"/>
+        <f t="shared" si="68"/>
         <v>4.0000000000000036E-2</v>
       </c>
       <c r="AN35" t="s">
@@ -5126,31 +5126,31 @@
         <v>1339.9121328000003</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" ref="AF37:AL37" si="67">+AE37+AF28</f>
+        <f t="shared" ref="AF37:AL37" si="69">+AE37+AF28</f>
         <v>3273.1007160260006</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>5440.1543384321376</v>
       </c>
       <c r="AH37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>7753.9605973806902</v>
       </c>
       <c r="AI37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>10398.614242320818</v>
       </c>
       <c r="AJ37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>13434.245886576773</v>
       </c>
       <c r="AK37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>16932.200910722113</v>
       </c>
       <c r="AL37" s="2">
-        <f t="shared" si="67"/>
+        <f t="shared" si="69"/>
         <v>20868.058466499377</v>
       </c>
       <c r="AN37" t="s">
@@ -5194,7 +5194,7 @@
       <c r="W38" s="25"/>
       <c r="AO38" s="2">
         <f>+AO37/Main!L2-1</f>
-        <v>1.2034294474310205</v>
+        <v>1.8710685700026195</v>
       </c>
     </row>
     <row r="39" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -5428,27 +5428,27 @@
         <v>6264.0400000000009</v>
       </c>
       <c r="N46" s="25">
-        <f t="shared" ref="N46:S46" si="68">SUM(N38:N45)</f>
+        <f t="shared" ref="N46:S46" si="70">SUM(N38:N45)</f>
         <v>0</v>
       </c>
       <c r="O46" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="P46" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="Q46" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="R46" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="S46" s="25">
-        <f t="shared" si="68"/>
+        <f t="shared" si="70"/>
         <v>6872.6729999999989</v>
       </c>
       <c r="T46" s="25"/>
@@ -5626,27 +5626,27 @@
         <v>6264.04</v>
       </c>
       <c r="N53" s="25">
-        <f t="shared" ref="N53:S53" si="69">SUM(N48:N52)</f>
+        <f t="shared" ref="N53:S53" si="71">SUM(N48:N52)</f>
         <v>0</v>
       </c>
       <c r="O53" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="P53" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="Q53" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="R53" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="S53" s="25">
-        <f t="shared" si="69"/>
+        <f t="shared" si="71"/>
         <v>6872.6729999999998</v>
       </c>
       <c r="T53" s="25"/>

--- a/BMRN.xlsx
+++ b/BMRN.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F0F158B-D563-4D91-BCD2-FF8318DB6657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93C997B3-3DCF-4CF1-B9B2-8227B8F649B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30270" yWindow="1515" windowWidth="25650" windowHeight="17700" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
+    <workbookView xWindow="120" yWindow="2470" windowWidth="16760" windowHeight="11340" activeTab="1" xr2:uid="{1A28BDC2-CB33-447E-AED0-8D4C76155960}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Model" sheetId="2" r:id="rId2"/>
-    <sheet name="valrox" sheetId="4" r:id="rId3"/>
-    <sheet name="Matrix" sheetId="3" r:id="rId4"/>
+    <sheet name="Voxzogo" sheetId="5" r:id="rId3"/>
+    <sheet name="valrox" sheetId="4" r:id="rId4"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="183">
   <si>
     <t>Price</t>
   </si>
@@ -323,21 +324,6 @@
     <t>Share</t>
   </si>
   <si>
-    <t>THREE KEY QUESTIONS</t>
-  </si>
-  <si>
-    <t>1. How big can Voxzogo get? $400m? $600m? $800m?</t>
-  </si>
-  <si>
-    <t>2. What will valrox do? Zero? $500m? $1B+?</t>
-  </si>
-  <si>
-    <t>3. What is the base business growth, if any?</t>
-  </si>
-  <si>
-    <t>4. Is the rest of the pipeline worth anything?</t>
-  </si>
-  <si>
     <t>Net Cash</t>
   </si>
   <si>
@@ -347,9 +333,6 @@
     <t>Val/Vox</t>
   </si>
   <si>
-    <t>ValRox</t>
-  </si>
-  <si>
     <t>Delta</t>
   </si>
   <si>
@@ -440,9 +423,6 @@
     <t>Competition</t>
   </si>
   <si>
-    <t xml:space="preserve">  2a. Who else is pursuing hemophilia</t>
-  </si>
-  <si>
     <t>Belief Biomed BBM 002, DTX201/BAY2599023, ASC Therapeutics ASC 618, SPK-8011 (Roche), PF-07055480, Expression Therapeutics, LLC, SPK-8016 (Roche), Freeline Therapeutics, CSL AMT-061</t>
   </si>
   <si>
@@ -513,6 +493,102 @@
   </si>
   <si>
     <t>CFFO</t>
+  </si>
+  <si>
+    <t>Q125</t>
+  </si>
+  <si>
+    <t>Q225</t>
+  </si>
+  <si>
+    <t>Q325</t>
+  </si>
+  <si>
+    <t>Q425</t>
+  </si>
+  <si>
+    <t>Roctavian</t>
+  </si>
+  <si>
+    <t>Model NI</t>
+  </si>
+  <si>
+    <t>Reported NI</t>
+  </si>
+  <si>
+    <t>CIC</t>
+  </si>
+  <si>
+    <t>DX</t>
+  </si>
+  <si>
+    <t>CFFF</t>
+  </si>
+  <si>
+    <t>D&amp;A</t>
+  </si>
+  <si>
+    <t>Non-Cash Interest Expense</t>
+  </si>
+  <si>
+    <t>Accretion of Discount</t>
+  </si>
+  <si>
+    <t>SBC</t>
+  </si>
+  <si>
+    <t>Impairment</t>
+  </si>
+  <si>
+    <t>Unrealized FX</t>
+  </si>
+  <si>
+    <t>WC</t>
+  </si>
+  <si>
+    <t>CFFI</t>
+  </si>
+  <si>
+    <t>Investments</t>
+  </si>
+  <si>
+    <t>Revenue CC</t>
+  </si>
+  <si>
+    <t>CEO: Alexander Hardy</t>
+  </si>
+  <si>
+    <t>vosoritide</t>
+  </si>
+  <si>
+    <t>hypochondroplasia</t>
+  </si>
+  <si>
+    <t>"CANOPY"</t>
+  </si>
+  <si>
+    <t>BMN 333</t>
+  </si>
+  <si>
+    <t>long-acting CNP</t>
+  </si>
+  <si>
+    <t>CNP</t>
+  </si>
+  <si>
+    <t>Phase III "hypochondroplasia"</t>
+  </si>
+  <si>
+    <t>achondroplasia results in adult height of 3.5-4.5 feet.</t>
+  </si>
+  <si>
+    <t>1:27000 people, autosomal dominant FGFR3 mutations</t>
+  </si>
+  <si>
+    <t>oligo</t>
+  </si>
+  <si>
+    <t>BMN370 - vWD discontinued</t>
   </si>
 </sst>
 </file>
@@ -694,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -774,6 +850,11 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -798,16 +879,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21556</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41093</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>21556</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>21168</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>41093</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -822,8 +903,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12493353" y="0"/>
-          <a:ext cx="0" cy="9022293"/>
+          <a:off x="15071055" y="0"/>
+          <a:ext cx="0" cy="13916269"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -848,16 +929,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>31421</xdr:colOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>65614</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>31421</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>65614</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>134937</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -872,8 +953,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12503218" y="0"/>
-          <a:ext cx="0" cy="7143750"/>
+          <a:off x="22451806" y="63500"/>
+          <a:ext cx="0" cy="7496052"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1196,24 +1277,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D32D52D-8D10-4D01-9D30-7F79A6792282}">
-  <dimension ref="B2:M26"/>
+  <dimension ref="B2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="35.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
-    <col min="9" max="10" width="4.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="2" max="2" width="35.453125" customWidth="1"/>
+    <col min="3" max="3" width="13.54296875" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="6" width="12.54296875" customWidth="1"/>
+    <col min="9" max="10" width="4.81640625" customWidth="1"/>
+    <col min="13" max="13" width="8.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
@@ -1239,12 +1320,12 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>70</v>
+        <v>58.91</v>
       </c>
       <c r="M2" s="30"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -1256,20 +1337,22 @@
       <c r="E3" s="16">
         <v>1</v>
       </c>
-      <c r="F3" s="16"/>
+      <c r="F3" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="G3" s="3"/>
       <c r="H3" s="18"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="2">
-        <v>190.382822</v>
+        <v>196</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="8" t="s">
         <v>9</v>
       </c>
@@ -1290,10 +1373,10 @@
       </c>
       <c r="L4" s="2">
         <f>+L2*L3</f>
-        <v>13326.79754</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>11546.359999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1313,14 +1396,13 @@
         <v>3</v>
       </c>
       <c r="L5" s="2">
-        <f>972.15+252.201+557.083</f>
-        <v>1781.4339999999997</v>
+        <v>1779</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
@@ -1342,14 +1424,13 @@
         <v>4</v>
       </c>
       <c r="L6" s="2">
-        <f>494.837+594.116</f>
-        <v>1088.953</v>
+        <v>596</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1372,10 +1453,10 @@
       </c>
       <c r="L7" s="2">
         <f>+L4-L5+L6</f>
-        <v>12634.31654</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.2">
+        <v>10363.359999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="8" t="s">
         <v>13</v>
       </c>
@@ -1394,7 +1475,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="8" t="s">
         <v>14</v>
       </c>
@@ -1412,20 +1493,35 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="12"/>
+      <c r="K9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="E10" s="30">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="9"/>
       <c r="K10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="19" t="s">
@@ -1436,47 +1532,40 @@
       <c r="G11" s="13"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="47" t="s">
-        <v>114</v>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E12" s="30">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D14" s="20" t="s">
         <v>40</v>
@@ -1485,21 +1574,23 @@
       <c r="G14" s="3"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="8" t="s">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>176</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>43</v>
       </c>
@@ -1513,21 +1604,23 @@
       <c r="G16" s="3"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="8" t="s">
+    <row r="17" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B17" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="23" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>181</v>
+      </c>
       <c r="G17" s="3"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>47</v>
       </c>
@@ -1542,42 +1635,24 @@
       <c r="G18" s="15"/>
       <c r="H18" s="12"/>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="23" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="23" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B22" s="23"/>
+    </row>
+    <row r="23" spans="2:8" ht="13" x14ac:dyDescent="0.3">
+      <c r="B23" s="23"/>
+    </row>
+    <row r="24" spans="2:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>98</v>
-      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B12" location="valrox!A1" display="Roctavian (valoctogene roxaparvovec)" xr:uid="{E70517BA-A69B-4419-96B8-40614DF47CFE}"/>
+    <hyperlink ref="B10" location="valrox!A1" display="Roctavian (valoctogene roxaparvovec)" xr:uid="{E70517BA-A69B-4419-96B8-40614DF47CFE}"/>
+    <hyperlink ref="B3" location="Voxzogo!A1" display="Voxzogo (vosoritide)" xr:uid="{A62DE089-F293-4ECE-856A-F738D6FD5BD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1586,29 +1661,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1997BFD-C986-43B5-AFE7-A2D1E0EBF425}">
-  <dimension ref="A1:DO55"/>
+  <dimension ref="A1:DR75"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="AK22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AS39" sqref="AS39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="23" width="9.140625" style="3"/>
-    <col min="40" max="40" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="22" width="9.1796875" style="3"/>
+    <col min="23" max="25" width="8.7265625" style="3"/>
+    <col min="26" max="26" width="9.1796875" style="3"/>
+    <col min="43" max="43" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
       <c r="C2" s="3" t="s">
         <v>51</v>
       </c>
@@ -1646,82 +1723,94 @@
         <v>61</v>
       </c>
       <c r="O2" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="P2" s="3" t="s">
+      <c r="V2" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="Q2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="R2" s="3" t="s">
+      <c r="W2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="S2" s="3" t="s">
+      <c r="X2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>2018</v>
       </c>
-      <c r="AA2">
-        <f>+Z2+1</f>
+      <c r="AD2">
+        <f>+AC2+1</f>
         <v>2019</v>
       </c>
-      <c r="AB2">
-        <f>+AA2+1</f>
+      <c r="AE2">
+        <f>+AD2+1</f>
         <v>2020</v>
       </c>
-      <c r="AC2">
-        <f>+AB2+1</f>
+      <c r="AF2">
+        <f>+AE2+1</f>
         <v>2021</v>
       </c>
-      <c r="AD2">
-        <f t="shared" ref="AD2:AL2" si="0">+AC2+1</f>
+      <c r="AG2">
+        <f t="shared" ref="AG2:AO2" si="0">+AF2+1</f>
         <v>2022</v>
       </c>
-      <c r="AE2">
+      <c r="AH2">
         <f t="shared" si="0"/>
         <v>2023</v>
       </c>
-      <c r="AF2">
+      <c r="AI2">
         <f t="shared" si="0"/>
         <v>2024</v>
       </c>
-      <c r="AG2">
+      <c r="AJ2">
         <f t="shared" si="0"/>
         <v>2025</v>
       </c>
-      <c r="AH2">
+      <c r="AK2">
         <f t="shared" si="0"/>
         <v>2026</v>
       </c>
-      <c r="AI2">
+      <c r="AL2">
         <f t="shared" si="0"/>
         <v>2027</v>
       </c>
-      <c r="AJ2">
+      <c r="AM2">
         <f t="shared" si="0"/>
         <v>2028</v>
       </c>
-      <c r="AK2">
+      <c r="AN2">
         <f t="shared" si="0"/>
         <v>2029</v>
       </c>
-      <c r="AL2">
+      <c r="AO2">
         <f t="shared" si="0"/>
         <v>2030</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
@@ -1754,8 +1843,11 @@
       <c r="U3" s="25"/>
       <c r="V3" s="25"/>
       <c r="W3" s="25"/>
-    </row>
-    <row r="4" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+    </row>
+    <row r="4" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>85</v>
       </c>
@@ -1788,8 +1880,11 @@
       <c r="U4" s="25"/>
       <c r="V4" s="25"/>
       <c r="W4" s="25"/>
-    </row>
-    <row r="5" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="25"/>
+      <c r="Y4" s="25"/>
+      <c r="Z4" s="25"/>
+    </row>
+    <row r="5" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>87</v>
       </c>
@@ -1822,8 +1917,11 @@
       <c r="U5" s="25"/>
       <c r="V5" s="25"/>
       <c r="W5" s="25"/>
-    </row>
-    <row r="6" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X5" s="25"/>
+      <c r="Y5" s="25"/>
+      <c r="Z5" s="25"/>
+    </row>
+    <row r="6" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>86</v>
       </c>
@@ -1856,15 +1954,18 @@
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
       <c r="W6" s="25"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="X6" s="25"/>
+      <c r="Y6" s="25"/>
+      <c r="Z6" s="25"/>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
       <c r="L7" s="25"/>
     </row>
-    <row r="8" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
@@ -1918,59 +2019,77 @@
       <c r="T8" s="25">
         <v>178.01599999999999</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="AA8" s="2">
+      <c r="U8" s="25">
+        <v>178</v>
+      </c>
+      <c r="V8" s="25">
+        <v>191</v>
+      </c>
+      <c r="W8" s="25">
+        <v>188</v>
+      </c>
+      <c r="X8" s="25">
+        <f>+T8*1.05</f>
+        <v>186.91679999999999</v>
+      </c>
+      <c r="Y8" s="25">
+        <f>+U8*1.05</f>
+        <v>186.9</v>
+      </c>
+      <c r="Z8" s="25">
+        <f>+V8*1.05</f>
+        <v>200.55</v>
+      </c>
+      <c r="AD8" s="2">
         <v>544.29999999999995</v>
       </c>
-      <c r="AB8" s="2">
+      <c r="AE8" s="2">
         <v>544.4</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AF8" s="2">
         <f>SUM(G8:J8)</f>
         <v>623.25500000000011</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AG8" s="2">
         <f>SUM(K8:N8)</f>
         <v>663.77600000000007</v>
       </c>
-      <c r="AE8" s="2">
-        <f>+AD8*1.07</f>
-        <v>710.24032000000011</v>
-      </c>
-      <c r="AF8" s="2">
-        <f t="shared" ref="AF8" si="1">+AE8*1.07</f>
-        <v>759.95714240000018</v>
-      </c>
-      <c r="AG8" s="2">
-        <f>+AF8*1.04</f>
-        <v>790.3554280960002</v>
-      </c>
       <c r="AH8" s="2">
-        <f t="shared" ref="AH8:AL8" si="2">+AG8*1.04</f>
-        <v>821.96964521984023</v>
+        <f>SUM(O8:R8)</f>
+        <v>701.08400000000006</v>
       </c>
       <c r="AI8" s="2">
-        <f t="shared" si="2"/>
-        <v>854.84843102863385</v>
+        <f>SUM(S8:V8)</f>
+        <v>739.53600000000006</v>
       </c>
       <c r="AJ8" s="2">
-        <f t="shared" si="2"/>
-        <v>889.04236826977922</v>
+        <f>SUM(W8:Z8)</f>
+        <v>762.36680000000001</v>
       </c>
       <c r="AK8" s="2">
-        <f t="shared" si="2"/>
-        <v>924.60406300057036</v>
+        <f t="shared" ref="AK8:AO8" si="1">+AJ8*1.04</f>
+        <v>792.86147200000005</v>
       </c>
       <c r="AL8" s="2">
-        <f t="shared" si="2"/>
-        <v>961.58822552059326</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>824.5759308800001</v>
+      </c>
+      <c r="AM8" s="2">
+        <f t="shared" si="1"/>
+        <v>857.55896811520017</v>
+      </c>
+      <c r="AN8" s="2">
+        <f t="shared" si="1"/>
+        <v>891.86132683980816</v>
+      </c>
+      <c r="AO8" s="2">
+        <f t="shared" si="1"/>
+        <v>927.53577991340046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>155</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="25"/>
@@ -2006,45 +2125,67 @@
       <c r="T9" s="25">
         <v>7.4320000000000004</v>
       </c>
-      <c r="U9" s="25"/>
-      <c r="V9" s="25"/>
-      <c r="W9" s="25"/>
-      <c r="AC9" s="2">
+      <c r="U9" s="25">
+        <v>7</v>
+      </c>
+      <c r="V9" s="25">
+        <v>11</v>
+      </c>
+      <c r="W9" s="25">
+        <v>11</v>
+      </c>
+      <c r="X9" s="25">
+        <f>+W9+1</f>
+        <v>12</v>
+      </c>
+      <c r="Y9" s="25">
+        <f>+X9+1</f>
+        <v>13</v>
+      </c>
+      <c r="Z9" s="25">
+        <f>+Y9+1</f>
+        <v>14</v>
+      </c>
+      <c r="AF9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AG9" s="2">
         <v>0</v>
       </c>
-      <c r="AE9" s="2">
-        <v>500</v>
-      </c>
-      <c r="AF9" s="2">
-        <v>1000</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>1500</v>
-      </c>
       <c r="AH9" s="2">
-        <v>2000</v>
+        <f>SUM(O9:R9)</f>
+        <v>3.5</v>
       </c>
       <c r="AI9" s="2">
-        <f>+AH9*1.2</f>
-        <v>2400</v>
+        <f>SUM(S9:V9)</f>
+        <v>26.280999999999999</v>
       </c>
       <c r="AJ9" s="2">
-        <f>+AI9*1.2</f>
-        <v>2880</v>
+        <f>SUM(W9:Z9)</f>
+        <v>50</v>
       </c>
       <c r="AK9" s="2">
-        <f>+AJ9*1.2</f>
-        <v>3456</v>
+        <f>+AJ9*1.3</f>
+        <v>65</v>
       </c>
       <c r="AL9" s="2">
-        <f>+AK9*1.15</f>
-        <v>3974.3999999999996</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AK9*1.2</f>
+        <v>78</v>
+      </c>
+      <c r="AM9" s="2">
+        <f>+AL9*1.2</f>
+        <v>93.6</v>
+      </c>
+      <c r="AN9" s="2">
+        <f>+AM9*1.2</f>
+        <v>112.32</v>
+      </c>
+      <c r="AO9" s="2">
+        <f>+AN9*1.15</f>
+        <v>129.16799999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>78</v>
       </c>
@@ -2098,57 +2239,75 @@
       <c r="T10" s="25">
         <v>132.04900000000001</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="V10" s="25"/>
-      <c r="W10" s="25"/>
-      <c r="AA10" s="2">
+      <c r="U10" s="25">
+        <v>132</v>
+      </c>
+      <c r="V10" s="25">
+        <v>110</v>
+      </c>
+      <c r="W10" s="25">
+        <v>114</v>
+      </c>
+      <c r="X10" s="25">
+        <f>+T10</f>
+        <v>132.04900000000001</v>
+      </c>
+      <c r="Y10" s="25">
+        <f>+U10</f>
+        <v>132</v>
+      </c>
+      <c r="Z10" s="25">
+        <f>+V10</f>
+        <v>110</v>
+      </c>
+      <c r="AD10" s="2">
         <v>374.3</v>
       </c>
-      <c r="AB10" s="2">
+      <c r="AE10" s="2">
         <v>391.3</v>
       </c>
-      <c r="AC10" s="2">
-        <f t="shared" ref="AC10:AC22" si="3">SUM(G10:J10)</f>
+      <c r="AF10" s="2">
+        <f t="shared" ref="AF10:AF22" si="2">SUM(G10:J10)</f>
         <v>380.41300000000001</v>
       </c>
-      <c r="AD10" s="2">
-        <f t="shared" ref="AD10:AD22" si="4">SUM(K10:N10)</f>
+      <c r="AG10" s="2">
+        <f t="shared" ref="AG10:AG22" si="3">SUM(K10:N10)</f>
         <v>443.78899999999999</v>
       </c>
-      <c r="AE10" s="2">
-        <f>+AD10*1.04</f>
-        <v>461.54056000000003</v>
-      </c>
-      <c r="AF10" s="2">
-        <f t="shared" ref="AF10:AL10" si="5">+AE10*1.04</f>
-        <v>480.00218240000004</v>
-      </c>
-      <c r="AG10" s="2">
-        <f t="shared" si="5"/>
-        <v>499.20226969600003</v>
-      </c>
       <c r="AH10" s="2">
-        <f t="shared" si="5"/>
-        <v>519.17036048384</v>
+        <f>SUM(O10:R10)</f>
+        <v>420.32400000000001</v>
       </c>
       <c r="AI10" s="2">
-        <f t="shared" si="5"/>
-        <v>539.93717490319364</v>
+        <f>SUM(S10:V10)</f>
+        <v>479.678</v>
       </c>
       <c r="AJ10" s="2">
-        <f t="shared" si="5"/>
-        <v>561.53466189932135</v>
+        <f>SUM(W10:Z10)</f>
+        <v>488.04899999999998</v>
       </c>
       <c r="AK10" s="2">
-        <f t="shared" si="5"/>
-        <v>583.99604837529421</v>
+        <f t="shared" ref="AI10:AO10" si="4">+AJ10*1.04</f>
+        <v>507.57096000000001</v>
       </c>
       <c r="AL10" s="2">
-        <f t="shared" si="5"/>
-        <v>607.35589031030599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>527.87379840000006</v>
+      </c>
+      <c r="AM10" s="2">
+        <f t="shared" si="4"/>
+        <v>548.98875033600007</v>
+      </c>
+      <c r="AN10" s="2">
+        <f t="shared" si="4"/>
+        <v>570.94830034944005</v>
+      </c>
+      <c r="AO10" s="2">
+        <f t="shared" si="4"/>
+        <v>593.78623236341764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2202,57 +2361,75 @@
       <c r="T11" s="25">
         <v>88.290999999999997</v>
       </c>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="AA11" s="2">
+      <c r="U11" s="25">
+        <v>91</v>
+      </c>
+      <c r="V11" s="25">
+        <v>100</v>
+      </c>
+      <c r="W11" s="25">
+        <v>93</v>
+      </c>
+      <c r="X11" s="25">
+        <f>+T11*1.1</f>
+        <v>97.120100000000008</v>
+      </c>
+      <c r="Y11" s="25">
+        <f>+U11*1.1</f>
+        <v>100.10000000000001</v>
+      </c>
+      <c r="Z11" s="25">
+        <f>+V11*1.1</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="AD11" s="2">
         <v>86.9</v>
       </c>
-      <c r="AB11" s="2">
+      <c r="AE11" s="2">
         <v>171</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AF11" s="2">
+        <f t="shared" si="2"/>
+        <v>237.435</v>
+      </c>
+      <c r="AG11" s="2">
         <f t="shared" si="3"/>
-        <v>237.435</v>
-      </c>
-      <c r="AD11" s="2">
-        <f t="shared" si="4"/>
         <v>255.04900000000004</v>
       </c>
-      <c r="AE11" s="2">
-        <f>+AD11*1.05</f>
-        <v>267.80145000000005</v>
-      </c>
-      <c r="AF11" s="2">
-        <f t="shared" ref="AF11:AL11" si="6">+AE11*1.05</f>
-        <v>281.19152250000008</v>
-      </c>
-      <c r="AG11" s="2">
-        <f t="shared" si="6"/>
-        <v>295.25109862500011</v>
-      </c>
       <c r="AH11" s="2">
-        <f t="shared" si="6"/>
-        <v>310.01365355625012</v>
+        <f>SUM(O11:R11)</f>
+        <v>303.92</v>
       </c>
       <c r="AI11" s="2">
-        <f t="shared" si="6"/>
-        <v>325.51433623406263</v>
+        <f>SUM(S11:V11)</f>
+        <v>355</v>
       </c>
       <c r="AJ11" s="2">
-        <f t="shared" si="6"/>
-        <v>341.79005304576577</v>
+        <f>SUM(W11:Z11)</f>
+        <v>400.2201</v>
       </c>
       <c r="AK11" s="2">
-        <f t="shared" si="6"/>
-        <v>358.87955569805411</v>
+        <f t="shared" ref="AI11:AO11" si="5">+AJ11*1.05</f>
+        <v>420.23110500000001</v>
       </c>
       <c r="AL11" s="2">
-        <f t="shared" si="6"/>
-        <v>376.8235334829568</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="5"/>
+        <v>441.24266025000003</v>
+      </c>
+      <c r="AM11" s="2">
+        <f t="shared" si="5"/>
+        <v>463.30479326250003</v>
+      </c>
+      <c r="AN11" s="2">
+        <f t="shared" si="5"/>
+        <v>486.47003292562505</v>
+      </c>
+      <c r="AO11" s="2">
+        <f t="shared" si="5"/>
+        <v>510.79353457190632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>80</v>
       </c>
@@ -2306,57 +2483,75 @@
       <c r="T12" s="25">
         <v>28.550999999999998</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="V12" s="25"/>
-      <c r="W12" s="25"/>
-      <c r="AA12" s="2">
+      <c r="U12" s="25">
+        <v>28</v>
+      </c>
+      <c r="V12" s="25">
+        <v>28</v>
+      </c>
+      <c r="W12" s="25">
+        <v>25</v>
+      </c>
+      <c r="X12" s="25">
+        <f>+W12-1</f>
+        <v>24</v>
+      </c>
+      <c r="Y12" s="25">
+        <f>+X12-1</f>
+        <v>23</v>
+      </c>
+      <c r="Z12" s="25">
+        <f>+Y12-1</f>
+        <v>22</v>
+      </c>
+      <c r="AD12" s="2">
         <v>463.4</v>
       </c>
-      <c r="AB12" s="2">
+      <c r="AE12" s="2">
         <v>457.7</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AF12" s="2">
+        <f t="shared" si="2"/>
+        <v>285.80700000000002</v>
+      </c>
+      <c r="AG12" s="2">
         <f t="shared" si="3"/>
-        <v>285.80700000000002</v>
-      </c>
-      <c r="AD12" s="2">
-        <f t="shared" si="4"/>
         <v>227.54</v>
       </c>
-      <c r="AE12" s="2">
-        <f>+AD12*0.9</f>
-        <v>204.786</v>
-      </c>
-      <c r="AF12" s="2">
-        <f t="shared" ref="AF12:AL12" si="7">+AE12*0.9</f>
-        <v>184.3074</v>
-      </c>
-      <c r="AG12" s="2">
-        <f t="shared" si="7"/>
-        <v>165.87666000000002</v>
-      </c>
       <c r="AH12" s="2">
-        <f t="shared" si="7"/>
-        <v>149.28899400000003</v>
+        <f>SUM(O12:R12)</f>
+        <v>180.7</v>
       </c>
       <c r="AI12" s="2">
-        <f t="shared" si="7"/>
-        <v>134.36009460000002</v>
+        <f>SUM(S12:V12)</f>
+        <v>120.461</v>
       </c>
       <c r="AJ12" s="2">
-        <f t="shared" si="7"/>
-        <v>120.92408514000003</v>
+        <f>SUM(W12:Z12)</f>
+        <v>94</v>
       </c>
       <c r="AK12" s="2">
-        <f t="shared" si="7"/>
-        <v>108.83167662600003</v>
+        <f t="shared" ref="AI12:AO12" si="6">+AJ12*0.9</f>
+        <v>84.600000000000009</v>
       </c>
       <c r="AL12" s="2">
-        <f t="shared" si="7"/>
-        <v>97.94850896340003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="6"/>
+        <v>76.140000000000015</v>
+      </c>
+      <c r="AM12" s="2">
+        <f t="shared" si="6"/>
+        <v>68.52600000000001</v>
+      </c>
+      <c r="AN12" s="2">
+        <f t="shared" si="6"/>
+        <v>61.673400000000008</v>
+      </c>
+      <c r="AO12" s="2">
+        <f t="shared" si="6"/>
+        <v>55.506060000000005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>81</v>
       </c>
@@ -2410,57 +2605,75 @@
       <c r="T13" s="25">
         <v>45.308999999999997</v>
       </c>
-      <c r="U13" s="25"/>
-      <c r="V13" s="25"/>
-      <c r="W13" s="25"/>
-      <c r="AA13" s="2">
+      <c r="U13" s="25">
+        <v>37</v>
+      </c>
+      <c r="V13" s="25">
+        <v>48</v>
+      </c>
+      <c r="W13" s="25">
+        <v>40</v>
+      </c>
+      <c r="X13" s="25">
+        <f>+T13</f>
+        <v>45.308999999999997</v>
+      </c>
+      <c r="Y13" s="25">
+        <f>+U13</f>
+        <v>37</v>
+      </c>
+      <c r="Z13" s="25">
+        <f>+V13</f>
+        <v>48</v>
+      </c>
+      <c r="AD13" s="2">
         <v>72</v>
       </c>
-      <c r="AB13" s="2">
+      <c r="AE13" s="2">
         <v>110.2</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AF13" s="2">
+        <f t="shared" si="2"/>
+        <v>127.93200000000002</v>
+      </c>
+      <c r="AG13" s="2">
         <f t="shared" si="3"/>
-        <v>127.93200000000002</v>
-      </c>
-      <c r="AD13" s="2">
-        <f t="shared" si="4"/>
         <v>154.31800000000001</v>
       </c>
-      <c r="AE13" s="2">
-        <f>+AD13*1.1</f>
-        <v>169.74980000000002</v>
-      </c>
-      <c r="AF13" s="2">
-        <f>+AE13*1.1</f>
-        <v>186.72478000000004</v>
-      </c>
-      <c r="AG13" s="2">
-        <f>+AF13*1.05</f>
-        <v>196.06101900000004</v>
-      </c>
       <c r="AH13" s="2">
-        <f t="shared" ref="AH13:AL13" si="8">+AG13*1.05</f>
-        <v>205.86406995000004</v>
+        <f>SUM(O13:R13)</f>
+        <v>161.80199999999999</v>
       </c>
       <c r="AI13" s="2">
-        <f t="shared" si="8"/>
-        <v>216.15727344750005</v>
+        <f>SUM(S13:V13)</f>
+        <v>169.35599999999999</v>
       </c>
       <c r="AJ13" s="2">
-        <f t="shared" si="8"/>
-        <v>226.96513711987507</v>
+        <f>SUM(W13:Z13)</f>
+        <v>170.309</v>
       </c>
       <c r="AK13" s="2">
-        <f t="shared" si="8"/>
-        <v>238.31339397586882</v>
+        <f t="shared" ref="AK13:AO13" si="7">+AJ13*1.05</f>
+        <v>178.82445000000001</v>
       </c>
       <c r="AL13" s="2">
-        <f t="shared" si="8"/>
-        <v>250.22906367466229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="7"/>
+        <v>187.76567250000002</v>
+      </c>
+      <c r="AM13" s="2">
+        <f t="shared" si="7"/>
+        <v>197.15395612500004</v>
+      </c>
+      <c r="AN13" s="2">
+        <f t="shared" si="7"/>
+        <v>207.01165393125004</v>
+      </c>
+      <c r="AO13" s="2">
+        <f t="shared" si="7"/>
+        <v>217.36223662781254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>82</v>
       </c>
@@ -2514,55 +2727,75 @@
       <c r="T14" s="25">
         <v>183.923</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="V14" s="25"/>
-      <c r="W14" s="25"/>
-      <c r="AA14" s="2">
+      <c r="U14" s="25">
+        <v>190</v>
+      </c>
+      <c r="V14" s="25">
+        <v>208</v>
+      </c>
+      <c r="W14" s="25">
+        <v>214</v>
+      </c>
+      <c r="X14" s="25">
+        <f>+T14*1.3</f>
+        <v>239.09990000000002</v>
+      </c>
+      <c r="Y14" s="25">
+        <f>+U14*1.3</f>
+        <v>247</v>
+      </c>
+      <c r="Z14" s="25">
+        <f>+V14*1.3</f>
+        <v>270.40000000000003</v>
+      </c>
+      <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="2">
+      <c r="AE14" s="2">
         <v>0</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AF14" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="AG14" s="2">
         <f t="shared" si="3"/>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="AD14" s="2">
-        <f t="shared" si="4"/>
         <v>169.16300000000001</v>
       </c>
-      <c r="AE14" s="2">
-        <v>320</v>
-      </c>
-      <c r="AF14" s="2">
-        <v>500</v>
-      </c>
-      <c r="AG14" s="2">
-        <f>+AF14*1.08</f>
-        <v>540</v>
-      </c>
       <c r="AH14" s="2">
-        <f t="shared" ref="AH14:AL14" si="9">+AG14*1.08</f>
-        <v>583.20000000000005</v>
+        <f>SUM(O14:R14)</f>
+        <v>469.97300000000001</v>
       </c>
       <c r="AI14" s="2">
-        <f t="shared" si="9"/>
-        <v>629.85600000000011</v>
+        <f>SUM(S14:V14)</f>
+        <v>734.82299999999998</v>
       </c>
       <c r="AJ14" s="2">
-        <f t="shared" si="9"/>
-        <v>680.24448000000018</v>
+        <f>SUM(W14:Z14)</f>
+        <v>970.49990000000003</v>
       </c>
       <c r="AK14" s="2">
-        <f t="shared" si="9"/>
-        <v>734.66403840000021</v>
+        <f>+AJ14*1.03</f>
+        <v>999.61489700000004</v>
       </c>
       <c r="AL14" s="2">
-        <f t="shared" si="9"/>
-        <v>793.4371614720003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f>+AK14*1.03</f>
+        <v>1029.6033439100001</v>
+      </c>
+      <c r="AM14" s="2">
+        <f>+AL14*1.03</f>
+        <v>1060.4914442273002</v>
+      </c>
+      <c r="AN14" s="2">
+        <f>+AM14*1.03</f>
+        <v>1092.3061875541193</v>
+      </c>
+      <c r="AO14" s="2">
+        <f>+AN14*1.03</f>
+        <v>1125.0753731807429</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>83</v>
       </c>
@@ -2616,96 +2849,114 @@
       <c r="T15" s="25">
         <v>38.558</v>
       </c>
-      <c r="U15" s="25"/>
-      <c r="V15" s="25"/>
-      <c r="W15" s="25"/>
-      <c r="AA15" s="2">
+      <c r="U15" s="25">
+        <v>71</v>
+      </c>
+      <c r="V15" s="25">
+        <v>39</v>
+      </c>
+      <c r="W15" s="25">
+        <v>49</v>
+      </c>
+      <c r="X15" s="25">
+        <f>+T15</f>
+        <v>38.558</v>
+      </c>
+      <c r="Y15" s="25">
+        <f>+U15</f>
+        <v>71</v>
+      </c>
+      <c r="Z15" s="25">
+        <f>+V15</f>
+        <v>39</v>
+      </c>
+      <c r="AD15" s="2">
         <v>97.8</v>
       </c>
-      <c r="AB15" s="2">
+      <c r="AE15" s="2">
         <v>130.1</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AF15" s="2">
+        <f t="shared" si="2"/>
+        <v>122.82799999999999</v>
+      </c>
+      <c r="AG15" s="2">
         <f t="shared" si="3"/>
-        <v>122.82799999999999</v>
-      </c>
-      <c r="AD15" s="2">
-        <f t="shared" si="4"/>
         <v>128.37299999999999</v>
       </c>
-      <c r="AE15" s="2">
-        <f>+AD15*1.03</f>
-        <v>132.22418999999999</v>
-      </c>
-      <c r="AF15" s="2">
-        <f t="shared" ref="AF15:AL15" si="10">+AE15*1.03</f>
-        <v>136.19091570000001</v>
-      </c>
-      <c r="AG15" s="2">
-        <f t="shared" si="10"/>
-        <v>140.27664317100002</v>
-      </c>
       <c r="AH15" s="2">
-        <f t="shared" si="10"/>
-        <v>144.48494246613004</v>
+        <f>SUM(O15:R15)</f>
+        <v>131.221</v>
       </c>
       <c r="AI15" s="2">
-        <f t="shared" si="10"/>
-        <v>148.81949074011393</v>
+        <f>SUM(S15:V15)</f>
+        <v>183.82</v>
       </c>
       <c r="AJ15" s="2">
-        <f t="shared" si="10"/>
-        <v>153.28407546231736</v>
+        <f>SUM(W15:Z15)</f>
+        <v>197.55799999999999</v>
       </c>
       <c r="AK15" s="2">
-        <f t="shared" si="10"/>
-        <v>157.88259772618687</v>
+        <f t="shared" ref="AI15:AO15" si="8">+AJ15*1.03</f>
+        <v>203.48473999999999</v>
       </c>
       <c r="AL15" s="2">
-        <f t="shared" si="10"/>
-        <v>162.61907565797247</v>
-      </c>
-    </row>
-    <row r="16" spans="1:38" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="8"/>
+        <v>209.58928219999999</v>
+      </c>
+      <c r="AM15" s="2">
+        <f t="shared" si="8"/>
+        <v>215.876960666</v>
+      </c>
+      <c r="AN15" s="2">
+        <f t="shared" si="8"/>
+        <v>222.35326948598001</v>
+      </c>
+      <c r="AO15" s="2">
+        <f t="shared" si="8"/>
+        <v>229.02386757055942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25">
-        <f t="shared" ref="E16:L16" si="11">SUM(E8:E15)</f>
+        <f t="shared" ref="E16:L16" si="9">SUM(E8:E15)</f>
         <v>460.69999999999993</v>
       </c>
       <c r="F16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>437</v>
       </c>
       <c r="G16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>467.8</v>
       </c>
       <c r="H16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>486.67</v>
       </c>
       <c r="I16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>393.9</v>
       </c>
       <c r="J16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>435.2</v>
       </c>
       <c r="K16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>505.49999999999994</v>
       </c>
       <c r="L16" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>517.66</v>
       </c>
       <c r="M16" s="25">
-        <f t="shared" ref="M16" si="12">SUM(M8:M15)</f>
+        <f t="shared" ref="M16" si="10">SUM(M8:M15)</f>
         <v>493.34800000000001</v>
       </c>
       <c r="N16" s="25"/>
@@ -2718,56 +2969,59 @@
       <c r="U16" s="25"/>
       <c r="V16" s="25"/>
       <c r="W16" s="25"/>
-      <c r="AA16" s="2">
-        <f>SUM(AA8:AA15)</f>
-        <v>1638.6999999999998</v>
-      </c>
-      <c r="AB16" s="2">
-        <f>SUM(AB8:AB15)</f>
-        <v>1804.7</v>
-      </c>
-      <c r="AC16" s="2">
-        <f>SUM(AC8:AC15)</f>
-        <v>1783.5700000000002</v>
-      </c>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
       <c r="AD16" s="2">
         <f>SUM(AD8:AD15)</f>
+        <v>1638.6999999999998</v>
+      </c>
+      <c r="AE16" s="2">
+        <f>SUM(AE8:AE15)</f>
+        <v>1804.7</v>
+      </c>
+      <c r="AF16" s="2">
+        <f>SUM(AF8:AF15)</f>
+        <v>1783.5700000000002</v>
+      </c>
+      <c r="AG16" s="2">
+        <f>SUM(AG8:AG15)</f>
         <v>2042.008</v>
       </c>
-      <c r="AE16" s="2">
-        <f t="shared" ref="AE16:AK16" si="13">SUM(AE8:AE15)</f>
-        <v>2766.3423200000002</v>
-      </c>
-      <c r="AF16" s="2">
-        <f t="shared" si="13"/>
-        <v>3528.3739430000005</v>
-      </c>
-      <c r="AG16" s="2">
-        <f t="shared" si="13"/>
-        <v>4127.0231185880002</v>
-      </c>
       <c r="AH16" s="2">
-        <f t="shared" si="13"/>
-        <v>4733.9916656760606</v>
+        <f t="shared" ref="AH16:AN16" si="11">SUM(AH8:AH15)</f>
+        <v>2372.5240000000003</v>
       </c>
       <c r="AI16" s="2">
-        <f t="shared" si="13"/>
-        <v>5249.4928009535033</v>
+        <f t="shared" si="11"/>
+        <v>2808.9549999999999</v>
       </c>
       <c r="AJ16" s="2">
-        <f t="shared" si="13"/>
-        <v>5853.7848609370594</v>
+        <f t="shared" si="11"/>
+        <v>3133.0028000000002</v>
       </c>
       <c r="AK16" s="2">
-        <f t="shared" si="13"/>
-        <v>6563.1713738019744</v>
+        <f t="shared" si="11"/>
+        <v>3252.1876239999997</v>
       </c>
       <c r="AL16" s="2">
-        <f>SUM(AL8:AL15)</f>
-        <v>7224.4014590818906</v>
-      </c>
-    </row>
-    <row r="17" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="11"/>
+        <v>3374.7906881400004</v>
+      </c>
+      <c r="AM16" s="2">
+        <f t="shared" si="11"/>
+        <v>3505.5008727320005</v>
+      </c>
+      <c r="AN16" s="2">
+        <f t="shared" si="11"/>
+        <v>3644.9441710862229</v>
+      </c>
+      <c r="AO16" s="2">
+        <f>SUM(AO8:AO15)</f>
+        <v>3788.2510842278398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>62</v>
       </c>
@@ -2821,179 +3075,218 @@
       <c r="T17" s="25">
         <v>9.9</v>
       </c>
-      <c r="U17" s="25"/>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="AA17" s="2">
+      <c r="U17" s="25">
+        <v>11.872999999999999</v>
+      </c>
+      <c r="V17" s="25">
+        <v>11.679</v>
+      </c>
+      <c r="W17" s="25">
+        <v>10.500999999999999</v>
+      </c>
+      <c r="X17" s="25">
+        <f>+T17</f>
+        <v>9.9</v>
+      </c>
+      <c r="Y17" s="25">
+        <f>+U17</f>
+        <v>11.872999999999999</v>
+      </c>
+      <c r="Z17" s="25">
+        <f>+V17</f>
+        <v>11.679</v>
+      </c>
+      <c r="AD17" s="2">
         <v>43.005000000000003</v>
       </c>
-      <c r="AB17" s="2">
+      <c r="AE17" s="2">
         <v>54.594000000000001</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AF17" s="2">
+        <f t="shared" si="2"/>
+        <v>62.777000000000001</v>
+      </c>
+      <c r="AG17" s="2">
         <f t="shared" si="3"/>
-        <v>62.777000000000001</v>
-      </c>
-      <c r="AD17" s="2">
-        <f t="shared" si="4"/>
         <v>54.014000000000003</v>
       </c>
-      <c r="AE17" s="2">
-        <f>+AD17</f>
-        <v>54.014000000000003</v>
-      </c>
-      <c r="AF17" s="2">
-        <f t="shared" ref="AF17:AL17" si="14">+AE17</f>
-        <v>54.014000000000003</v>
-      </c>
-      <c r="AG17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
-      </c>
       <c r="AH17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
+        <f>SUM(O17:R17)</f>
+        <v>46.688000000000002</v>
       </c>
       <c r="AI17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
+        <f>SUM(S17:V17)</f>
+        <v>44.47</v>
       </c>
       <c r="AJ17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
+        <f>SUM(W17:Z17)</f>
+        <v>43.953000000000003</v>
       </c>
       <c r="AK17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
+        <f t="shared" ref="AI17:AO17" si="12">+AJ17</f>
+        <v>43.953000000000003</v>
       </c>
       <c r="AL17" s="2">
-        <f t="shared" si="14"/>
-        <v>54.014000000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:119" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="12"/>
+        <v>43.953000000000003</v>
+      </c>
+      <c r="AM17" s="2">
+        <f t="shared" si="12"/>
+        <v>43.953000000000003</v>
+      </c>
+      <c r="AN17" s="2">
+        <f t="shared" si="12"/>
+        <v>43.953000000000003</v>
+      </c>
+      <c r="AO17" s="2">
+        <f t="shared" si="12"/>
+        <v>43.953000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="2:122" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26">
-        <f t="shared" ref="E18:L18" si="15">+E16+E17</f>
+        <f t="shared" ref="E18:L18" si="13">+E16+E17</f>
         <v>476.74299999999994</v>
       </c>
       <c r="F18" s="26">
+        <f t="shared" si="13"/>
+        <v>452.072</v>
+      </c>
+      <c r="G18" s="26">
+        <f t="shared" si="13"/>
+        <v>486.06100000000004</v>
+      </c>
+      <c r="H18" s="26">
+        <f t="shared" si="13"/>
+        <v>501.69300000000004</v>
+      </c>
+      <c r="I18" s="26">
+        <f t="shared" si="13"/>
+        <v>408.80199999999996</v>
+      </c>
+      <c r="J18" s="26">
+        <f t="shared" si="13"/>
+        <v>449.791</v>
+      </c>
+      <c r="K18" s="26">
+        <f t="shared" si="13"/>
+        <v>519.33399999999995</v>
+      </c>
+      <c r="L18" s="26">
+        <f t="shared" si="13"/>
+        <v>533.798</v>
+      </c>
+      <c r="M18" s="26">
+        <f t="shared" ref="M18" si="14">+M16+M17</f>
+        <v>505.34399999999999</v>
+      </c>
+      <c r="N18" s="26">
+        <f t="shared" ref="N18:Z18" si="15">SUM(N8:N17)</f>
+        <v>537.54600000000005</v>
+      </c>
+      <c r="O18" s="26">
         <f t="shared" si="15"/>
-        <v>452.072</v>
-      </c>
-      <c r="G18" s="26">
+        <v>596.41500000000008</v>
+      </c>
+      <c r="P18" s="26">
         <f t="shared" si="15"/>
-        <v>486.06100000000004</v>
-      </c>
-      <c r="H18" s="26">
+        <v>595.27499999999998</v>
+      </c>
+      <c r="Q18" s="26">
         <f t="shared" si="15"/>
-        <v>501.69300000000004</v>
-      </c>
-      <c r="I18" s="26">
+        <v>581.36299999999994</v>
+      </c>
+      <c r="R18" s="26">
         <f t="shared" si="15"/>
-        <v>408.80199999999996</v>
-      </c>
-      <c r="J18" s="26">
+        <v>646.15899999999999</v>
+      </c>
+      <c r="S18" s="26">
         <f t="shared" si="15"/>
-        <v>449.791</v>
-      </c>
-      <c r="K18" s="26">
+        <v>648.84400000000005</v>
+      </c>
+      <c r="T18" s="26">
         <f t="shared" si="15"/>
-        <v>519.33399999999995</v>
-      </c>
-      <c r="L18" s="26">
+        <v>712.02899999999988</v>
+      </c>
+      <c r="U18" s="26">
         <f t="shared" si="15"/>
-        <v>533.798</v>
-      </c>
-      <c r="M18" s="26">
-        <f t="shared" ref="M18" si="16">+M16+M17</f>
-        <v>505.34399999999999</v>
-      </c>
-      <c r="N18" s="26">
-        <f t="shared" ref="N18:T18" si="17">SUM(N8:N17)</f>
-        <v>537.54600000000005</v>
-      </c>
-      <c r="O18" s="26">
-        <f t="shared" si="17"/>
-        <v>596.41500000000008</v>
-      </c>
-      <c r="P18" s="26">
-        <f t="shared" si="17"/>
-        <v>595.27499999999998</v>
-      </c>
-      <c r="Q18" s="26">
-        <f t="shared" si="17"/>
-        <v>581.36299999999994</v>
-      </c>
-      <c r="R18" s="26">
-        <f t="shared" si="17"/>
-        <v>646.15899999999999</v>
-      </c>
-      <c r="S18" s="26">
-        <f t="shared" si="17"/>
-        <v>648.84400000000005</v>
-      </c>
-      <c r="T18" s="26">
-        <f t="shared" si="17"/>
-        <v>712.02899999999988</v>
-      </c>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
-      <c r="W18" s="26"/>
-      <c r="AA18" s="4">
-        <f>+AA16+AA17</f>
-        <v>1681.7049999999999</v>
-      </c>
-      <c r="AB18" s="4">
-        <f>+AB16+AB17</f>
-        <v>1859.2940000000001</v>
-      </c>
-      <c r="AC18" s="4">
-        <f>+AC16+AC17</f>
-        <v>1846.3470000000002</v>
+        <v>745.87300000000005</v>
+      </c>
+      <c r="V18" s="26">
+        <f t="shared" si="15"/>
+        <v>746.67899999999997</v>
+      </c>
+      <c r="W18" s="26">
+        <f t="shared" si="15"/>
+        <v>744.50099999999998</v>
+      </c>
+      <c r="X18" s="26">
+        <f t="shared" si="15"/>
+        <v>784.95280000000002</v>
+      </c>
+      <c r="Y18" s="26">
+        <f t="shared" si="15"/>
+        <v>821.87300000000005</v>
+      </c>
+      <c r="Z18" s="26">
+        <f t="shared" si="15"/>
+        <v>825.62900000000002</v>
       </c>
       <c r="AD18" s="4">
         <f>+AD16+AD17</f>
+        <v>1681.7049999999999</v>
+      </c>
+      <c r="AE18" s="4">
+        <f>+AE16+AE17</f>
+        <v>1859.2940000000001</v>
+      </c>
+      <c r="AF18" s="4">
+        <f>+AF16+AF17</f>
+        <v>1846.3470000000002</v>
+      </c>
+      <c r="AG18" s="4">
+        <f>+AG16+AG17</f>
         <v>2096.0219999999999</v>
       </c>
-      <c r="AE18" s="4">
-        <f t="shared" ref="AE18:AL18" si="18">+AE16+AE17</f>
-        <v>2820.3563200000003</v>
-      </c>
-      <c r="AF18" s="4">
-        <f t="shared" si="18"/>
-        <v>3582.3879430000006</v>
-      </c>
-      <c r="AG18" s="4">
-        <f t="shared" si="18"/>
-        <v>4181.0371185880003</v>
-      </c>
       <c r="AH18" s="4">
-        <f t="shared" si="18"/>
-        <v>4788.0056656760607</v>
+        <f t="shared" ref="AH18:AO18" si="16">+AH16+AH17</f>
+        <v>2419.2120000000004</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="18"/>
-        <v>5303.5068009535034</v>
+        <f t="shared" si="16"/>
+        <v>2853.4249999999997</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="18"/>
-        <v>5907.7988609370595</v>
+        <f t="shared" si="16"/>
+        <v>3176.9558000000002</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="18"/>
-        <v>6617.1853738019745</v>
+        <f t="shared" si="16"/>
+        <v>3296.1406239999997</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="18"/>
-        <v>7278.4154590818907</v>
-      </c>
-    </row>
-    <row r="19" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="16"/>
+        <v>3418.7436881400004</v>
+      </c>
+      <c r="AM18" s="4">
+        <f t="shared" si="16"/>
+        <v>3549.4538727320005</v>
+      </c>
+      <c r="AN18" s="4">
+        <f t="shared" si="16"/>
+        <v>3688.8971710862229</v>
+      </c>
+      <c r="AO18" s="4">
+        <f t="shared" si="16"/>
+        <v>3832.2040842278398</v>
+      </c>
+    </row>
+    <row r="19" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>64</v>
       </c>
@@ -3047,179 +3340,200 @@
       <c r="T19" s="25">
         <v>130.459</v>
       </c>
-      <c r="U19" s="25"/>
-      <c r="V19" s="25"/>
-      <c r="W19" s="25"/>
-      <c r="AA19" s="2">
+      <c r="U19" s="25">
+        <v>188.45699999999999</v>
+      </c>
+      <c r="V19" s="25">
+        <v>136.13900000000001</v>
+      </c>
+      <c r="W19" s="25">
+        <v>151.55799999999999</v>
+      </c>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AD19" s="2">
         <v>359.46600000000001</v>
       </c>
-      <c r="AB19" s="2">
+      <c r="AE19" s="2">
         <v>524.27200000000005</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AF19" s="2">
+        <f t="shared" si="2"/>
+        <v>470.51499999999999</v>
+      </c>
+      <c r="AG19" s="2">
         <f t="shared" si="3"/>
-        <v>470.51499999999999</v>
-      </c>
-      <c r="AD19" s="2">
-        <f t="shared" si="4"/>
         <v>483.66900000000004</v>
       </c>
-      <c r="AE19" s="2">
-        <f>+AE18*0.21</f>
-        <v>592.2748272</v>
-      </c>
-      <c r="AF19" s="2">
-        <f t="shared" ref="AF19:AL19" si="19">+AF18*0.21</f>
-        <v>752.30146803000014</v>
-      </c>
-      <c r="AG19" s="2">
-        <f t="shared" si="19"/>
-        <v>878.01779490348008</v>
-      </c>
       <c r="AH19" s="2">
-        <f t="shared" si="19"/>
-        <v>1005.4811897919727</v>
+        <f>+AH18*0.21</f>
+        <v>508.0345200000001</v>
       </c>
       <c r="AI19" s="2">
-        <f t="shared" si="19"/>
-        <v>1113.7364282002357</v>
+        <f t="shared" ref="AI19:AO19" si="17">+AI18*0.21</f>
+        <v>599.21924999999987</v>
       </c>
       <c r="AJ19" s="2">
-        <f t="shared" si="19"/>
-        <v>1240.6377607967825</v>
+        <f t="shared" si="17"/>
+        <v>667.16071799999997</v>
       </c>
       <c r="AK19" s="2">
-        <f t="shared" si="19"/>
-        <v>1389.6089284984146</v>
+        <f t="shared" si="17"/>
+        <v>692.18953103999991</v>
       </c>
       <c r="AL19" s="2">
-        <f t="shared" si="19"/>
-        <v>1528.4672464071971</v>
-      </c>
-    </row>
-    <row r="20" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="17"/>
+        <v>717.93617450940008</v>
+      </c>
+      <c r="AM19" s="2">
+        <f t="shared" si="17"/>
+        <v>745.38531327372004</v>
+      </c>
+      <c r="AN19" s="2">
+        <f t="shared" si="17"/>
+        <v>774.66840592810684</v>
+      </c>
+      <c r="AO19" s="2">
+        <f t="shared" si="17"/>
+        <v>804.76285768784635</v>
+      </c>
+    </row>
+    <row r="20" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25">
-        <f t="shared" ref="E20:L20" si="20">+E18-E19</f>
+        <f t="shared" ref="E20:L20" si="18">+E18-E19</f>
         <v>287.94999999999993</v>
       </c>
       <c r="F20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>325.93399999999997</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>365.89500000000004</v>
       </c>
       <c r="H20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>374.63100000000003</v>
       </c>
       <c r="I20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>305.26499999999999</v>
       </c>
       <c r="J20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>330.041</v>
       </c>
       <c r="K20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>402.36899999999991</v>
       </c>
       <c r="L20" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="18"/>
         <v>410.67200000000003</v>
       </c>
       <c r="M20" s="25">
-        <f t="shared" ref="M20:T20" si="21">+M18-M19</f>
+        <f t="shared" ref="M20:W20" si="19">+M18-M19</f>
         <v>389.05599999999998</v>
       </c>
       <c r="N20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>410.25600000000003</v>
       </c>
       <c r="O20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>460.9430000000001</v>
       </c>
       <c r="P20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>529.70899999999995</v>
       </c>
       <c r="Q20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>456.61799999999994</v>
       </c>
       <c r="R20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>510.68099999999998</v>
       </c>
       <c r="S20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>523.66399999999999</v>
       </c>
       <c r="T20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="19"/>
         <v>581.56999999999994</v>
       </c>
-      <c r="U20" s="25"/>
-      <c r="V20" s="25"/>
-      <c r="W20" s="25"/>
-      <c r="AA20" s="2">
-        <f>+AA18-AA19</f>
-        <v>1322.239</v>
-      </c>
-      <c r="AB20" s="2">
-        <f>+AB18-AB19</f>
-        <v>1335.0219999999999</v>
-      </c>
-      <c r="AC20" s="2">
-        <f>+AC18-AC19</f>
-        <v>1375.8320000000003</v>
-      </c>
+      <c r="U20" s="25">
+        <f t="shared" si="19"/>
+        <v>557.41600000000005</v>
+      </c>
+      <c r="V20" s="25">
+        <f t="shared" si="19"/>
+        <v>610.54</v>
+      </c>
+      <c r="W20" s="25">
+        <f t="shared" si="19"/>
+        <v>592.94299999999998</v>
+      </c>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
       <c r="AD20" s="2">
         <f>+AD18-AD19</f>
-        <v>1612.3529999999998</v>
+        <v>1322.239</v>
       </c>
       <c r="AE20" s="2">
         <f>+AE18-AE19</f>
-        <v>2228.0814928000004</v>
+        <v>1335.0219999999999</v>
       </c>
       <c r="AF20" s="2">
-        <f t="shared" ref="AF20:AL20" si="22">+AF18-AF19</f>
-        <v>2830.0864749700004</v>
+        <f>+AF18-AF19</f>
+        <v>1375.8320000000003</v>
       </c>
       <c r="AG20" s="2">
-        <f t="shared" si="22"/>
-        <v>3303.0193236845203</v>
+        <f>+AG18-AG19</f>
+        <v>1612.3529999999998</v>
       </c>
       <c r="AH20" s="2">
-        <f t="shared" si="22"/>
-        <v>3782.5244758840881</v>
+        <f>+AH18-AH19</f>
+        <v>1911.1774800000003</v>
       </c>
       <c r="AI20" s="2">
-        <f t="shared" si="22"/>
-        <v>4189.770372753268</v>
+        <f t="shared" ref="AI20:AO20" si="20">+AI18-AI19</f>
+        <v>2254.2057500000001</v>
       </c>
       <c r="AJ20" s="2">
-        <f t="shared" si="22"/>
-        <v>4667.1611001402771</v>
+        <f t="shared" si="20"/>
+        <v>2509.7950820000001</v>
       </c>
       <c r="AK20" s="2">
-        <f t="shared" si="22"/>
-        <v>5227.5764453035599</v>
+        <f t="shared" si="20"/>
+        <v>2603.9510929599996</v>
       </c>
       <c r="AL20" s="2">
-        <f t="shared" si="22"/>
-        <v>5749.9482126746934</v>
-      </c>
-    </row>
-    <row r="21" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="20"/>
+        <v>2700.8075136306002</v>
+      </c>
+      <c r="AM20" s="2">
+        <f t="shared" si="20"/>
+        <v>2804.0685594582806</v>
+      </c>
+      <c r="AN20" s="2">
+        <f t="shared" si="20"/>
+        <v>2914.2287651581159</v>
+      </c>
+      <c r="AO20" s="2">
+        <f t="shared" si="20"/>
+        <v>3027.4412265399933</v>
+      </c>
+    </row>
+    <row r="21" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>68</v>
       </c>
@@ -3273,25 +3587,34 @@
       <c r="T21" s="25">
         <v>183.78700000000001</v>
       </c>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="25"/>
-      <c r="AA21" s="2">
+      <c r="U21" s="25">
+        <v>253.48</v>
+      </c>
+      <c r="V21" s="25">
+        <v>173.50899999999999</v>
+      </c>
+      <c r="W21" s="25">
+        <v>158.73099999999999</v>
+      </c>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AD21" s="2">
         <v>715.00699999999995</v>
       </c>
-      <c r="AB21" s="2">
+      <c r="AE21" s="2">
         <v>628.11599999999999</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AF21" s="2">
+        <f t="shared" si="2"/>
+        <v>628.79300000000001</v>
+      </c>
+      <c r="AG21" s="2">
         <f t="shared" si="3"/>
-        <v>628.79300000000001</v>
-      </c>
-      <c r="AD21" s="2">
-        <f t="shared" si="4"/>
         <v>649.60599999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
@@ -3345,301 +3668,334 @@
       <c r="T22" s="25">
         <v>263.03199999999998</v>
       </c>
-      <c r="U22" s="25"/>
-      <c r="V22" s="25"/>
-      <c r="W22" s="25"/>
-      <c r="AA22" s="2">
+      <c r="U22" s="25">
+        <v>184.90100000000001</v>
+      </c>
+      <c r="V22" s="25">
+        <v>266.60700000000003</v>
+      </c>
+      <c r="W22" s="25">
+        <v>206.11600000000001</v>
+      </c>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AD22" s="2">
         <v>680.92399999999998</v>
       </c>
-      <c r="AB22" s="2">
+      <c r="AE22" s="2">
         <v>737.66899999999998</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AF22" s="2">
+        <f t="shared" si="2"/>
+        <v>759.375</v>
+      </c>
+      <c r="AG22" s="2">
         <f t="shared" si="3"/>
-        <v>759.375</v>
-      </c>
-      <c r="AD22" s="2">
-        <f t="shared" si="4"/>
         <v>854.00900000000001</v>
       </c>
-      <c r="AE22" s="2">
-        <f>+AD22*1.04</f>
+      <c r="AH22" s="2">
+        <f>+AG22*1.04</f>
         <v>888.1693600000001</v>
       </c>
-      <c r="AF22" s="2">
-        <f t="shared" ref="AF22:AL22" si="23">+AE22*1.04</f>
+      <c r="AI22" s="2">
+        <f t="shared" ref="AI22:AO22" si="21">+AH22*1.04</f>
         <v>923.69613440000012</v>
       </c>
-      <c r="AG22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AJ22" s="2">
+        <f t="shared" si="21"/>
         <v>960.64397977600015</v>
       </c>
-      <c r="AH22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AK22" s="2">
+        <f t="shared" si="21"/>
         <v>999.06973896704017</v>
       </c>
-      <c r="AI22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AL22" s="2">
+        <f t="shared" si="21"/>
         <v>1039.0325285257218</v>
       </c>
-      <c r="AJ22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AM22" s="2">
+        <f t="shared" si="21"/>
         <v>1080.5938296667507</v>
       </c>
-      <c r="AK22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AN22" s="2">
+        <f t="shared" si="21"/>
         <v>1123.8175828534208</v>
       </c>
-      <c r="AL22" s="2">
-        <f t="shared" si="23"/>
+      <c r="AO22" s="2">
+        <f t="shared" si="21"/>
         <v>1168.7702861675577</v>
       </c>
     </row>
-    <row r="23" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C23" s="25"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25">
-        <f t="shared" ref="E23:L23" si="24">+E21+E22</f>
+        <f t="shared" ref="E23:L23" si="22">+E21+E22</f>
         <v>326.50299999999999</v>
       </c>
       <c r="F23" s="25">
+        <f t="shared" si="22"/>
+        <v>352.17899999999997</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="22"/>
+        <v>323.04300000000001</v>
+      </c>
+      <c r="H23" s="25">
+        <f t="shared" si="22"/>
+        <v>345.26800000000003</v>
+      </c>
+      <c r="I23" s="25">
+        <f t="shared" si="22"/>
+        <v>341.202</v>
+      </c>
+      <c r="J23" s="25">
+        <f t="shared" si="22"/>
+        <v>378.65499999999997</v>
+      </c>
+      <c r="K23" s="25">
+        <f t="shared" si="22"/>
+        <v>355.45500000000004</v>
+      </c>
+      <c r="L23" s="25">
+        <f t="shared" si="22"/>
+        <v>355.02499999999998</v>
+      </c>
+      <c r="M23" s="25">
+        <f t="shared" ref="M23:N23" si="23">+M21+M22</f>
+        <v>374.64499999999998</v>
+      </c>
+      <c r="N23" s="25">
+        <f t="shared" si="23"/>
+        <v>418.49</v>
+      </c>
+      <c r="O23" s="25">
+        <f t="shared" ref="O23:W23" si="24">+O21+O22</f>
+        <v>382.86900000000003</v>
+      </c>
+      <c r="P23" s="25">
         <f t="shared" si="24"/>
-        <v>352.17899999999997</v>
-      </c>
-      <c r="G23" s="25">
+        <v>383.46600000000001</v>
+      </c>
+      <c r="Q23" s="25">
         <f t="shared" si="24"/>
-        <v>323.04300000000001</v>
-      </c>
-      <c r="H23" s="25">
+        <v>415.24199999999996</v>
+      </c>
+      <c r="R23" s="25">
         <f t="shared" si="24"/>
-        <v>345.26800000000003</v>
-      </c>
-      <c r="I23" s="25">
+        <v>481.274</v>
+      </c>
+      <c r="S23" s="25">
         <f t="shared" si="24"/>
-        <v>341.202</v>
-      </c>
-      <c r="J23" s="25">
+        <v>430.89300000000003</v>
+      </c>
+      <c r="T23" s="25">
         <f t="shared" si="24"/>
-        <v>378.65499999999997</v>
-      </c>
-      <c r="K23" s="25">
+        <v>446.81899999999996</v>
+      </c>
+      <c r="U23" s="25">
         <f t="shared" si="24"/>
-        <v>355.45500000000004</v>
-      </c>
-      <c r="L23" s="25">
+        <v>438.38099999999997</v>
+      </c>
+      <c r="V23" s="25">
         <f t="shared" si="24"/>
-        <v>355.02499999999998</v>
-      </c>
-      <c r="M23" s="25">
-        <f t="shared" ref="M23:N23" si="25">+M21+M22</f>
-        <v>374.64499999999998</v>
-      </c>
-      <c r="N23" s="25">
-        <f t="shared" si="25"/>
-        <v>418.49</v>
-      </c>
-      <c r="O23" s="25">
-        <f t="shared" ref="O23:T23" si="26">+O21+O22</f>
-        <v>382.86900000000003</v>
-      </c>
-      <c r="P23" s="25">
-        <f t="shared" si="26"/>
-        <v>383.46600000000001</v>
-      </c>
-      <c r="Q23" s="25">
-        <f t="shared" si="26"/>
-        <v>415.24199999999996</v>
-      </c>
-      <c r="R23" s="25">
-        <f t="shared" si="26"/>
-        <v>481.274</v>
-      </c>
-      <c r="S23" s="25">
-        <f t="shared" si="26"/>
-        <v>430.89300000000003</v>
-      </c>
-      <c r="T23" s="25">
-        <f t="shared" si="26"/>
-        <v>446.81899999999996</v>
-      </c>
-      <c r="U23" s="25"/>
-      <c r="V23" s="25"/>
-      <c r="W23" s="25"/>
-      <c r="AA23" s="2">
-        <f>+AA22+AA21</f>
-        <v>1395.931</v>
-      </c>
-      <c r="AB23" s="2">
-        <f>+AB22+AB21</f>
-        <v>1365.7849999999999</v>
-      </c>
-      <c r="AC23" s="2">
-        <f>+AC22+AC21</f>
-        <v>1388.1680000000001</v>
-      </c>
+        <v>440.11599999999999</v>
+      </c>
+      <c r="W23" s="25">
+        <f t="shared" si="24"/>
+        <v>364.84699999999998</v>
+      </c>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
       <c r="AD23" s="2">
         <f>+AD22+AD21</f>
+        <v>1395.931</v>
+      </c>
+      <c r="AE23" s="2">
+        <f>+AE22+AE21</f>
+        <v>1365.7849999999999</v>
+      </c>
+      <c r="AF23" s="2">
+        <f>+AF22+AF21</f>
+        <v>1388.1680000000001</v>
+      </c>
+      <c r="AG23" s="2">
+        <f>+AG22+AG21</f>
         <v>1503.615</v>
       </c>
-      <c r="AE23" s="2">
-        <f t="shared" ref="AE23:AL23" si="27">+AE22+AE21</f>
+      <c r="AH23" s="2">
+        <f t="shared" ref="AH23:AO23" si="25">+AH22+AH21</f>
         <v>888.1693600000001</v>
       </c>
-      <c r="AF23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AI23" s="2">
+        <f t="shared" si="25"/>
         <v>923.69613440000012</v>
       </c>
-      <c r="AG23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AJ23" s="2">
+        <f t="shared" si="25"/>
         <v>960.64397977600015</v>
       </c>
-      <c r="AH23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AK23" s="2">
+        <f t="shared" si="25"/>
         <v>999.06973896704017</v>
       </c>
-      <c r="AI23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AL23" s="2">
+        <f t="shared" si="25"/>
         <v>1039.0325285257218</v>
       </c>
-      <c r="AJ23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AM23" s="2">
+        <f t="shared" si="25"/>
         <v>1080.5938296667507</v>
       </c>
-      <c r="AK23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AN23" s="2">
+        <f t="shared" si="25"/>
         <v>1123.8175828534208</v>
       </c>
-      <c r="AL23" s="2">
-        <f t="shared" si="27"/>
+      <c r="AO23" s="2">
+        <f t="shared" si="25"/>
         <v>1168.7702861675577</v>
       </c>
     </row>
-    <row r="24" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C24" s="25"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25">
-        <f t="shared" ref="E24:L24" si="28">+E20-E23</f>
+        <f t="shared" ref="E24:L24" si="26">+E20-E23</f>
         <v>-38.553000000000054</v>
       </c>
       <c r="F24" s="25">
+        <f t="shared" si="26"/>
+        <v>-26.245000000000005</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="26"/>
+        <v>42.852000000000032</v>
+      </c>
+      <c r="H24" s="25">
+        <f t="shared" si="26"/>
+        <v>29.363</v>
+      </c>
+      <c r="I24" s="25">
+        <f t="shared" si="26"/>
+        <v>-35.937000000000012</v>
+      </c>
+      <c r="J24" s="25">
+        <f t="shared" si="26"/>
+        <v>-48.613999999999976</v>
+      </c>
+      <c r="K24" s="25">
+        <f t="shared" si="26"/>
+        <v>46.913999999999874</v>
+      </c>
+      <c r="L24" s="25">
+        <f t="shared" si="26"/>
+        <v>55.647000000000048</v>
+      </c>
+      <c r="M24" s="25">
+        <f t="shared" ref="M24:N24" si="27">+M20-M23</f>
+        <v>14.411000000000001</v>
+      </c>
+      <c r="N24" s="25">
+        <f t="shared" si="27"/>
+        <v>-8.2339999999999804</v>
+      </c>
+      <c r="O24" s="25">
+        <f t="shared" ref="O24:W24" si="28">+O20-O23</f>
+        <v>78.074000000000069</v>
+      </c>
+      <c r="P24" s="25">
         <f t="shared" si="28"/>
-        <v>-26.245000000000005</v>
-      </c>
-      <c r="G24" s="25">
+        <v>146.24299999999994</v>
+      </c>
+      <c r="Q24" s="25">
         <f t="shared" si="28"/>
-        <v>42.852000000000032</v>
-      </c>
-      <c r="H24" s="25">
+        <v>41.375999999999976</v>
+      </c>
+      <c r="R24" s="25">
         <f t="shared" si="28"/>
-        <v>29.363</v>
-      </c>
-      <c r="I24" s="25">
+        <v>29.406999999999982</v>
+      </c>
+      <c r="S24" s="25">
         <f t="shared" si="28"/>
-        <v>-35.937000000000012</v>
-      </c>
-      <c r="J24" s="25">
+        <v>92.770999999999958</v>
+      </c>
+      <c r="T24" s="25">
         <f t="shared" si="28"/>
-        <v>-48.613999999999976</v>
-      </c>
-      <c r="K24" s="25">
+        <v>134.75099999999998</v>
+      </c>
+      <c r="U24" s="25">
         <f t="shared" si="28"/>
-        <v>46.913999999999874</v>
-      </c>
-      <c r="L24" s="25">
+        <v>119.03500000000008</v>
+      </c>
+      <c r="V24" s="25">
         <f t="shared" si="28"/>
-        <v>55.647000000000048</v>
-      </c>
-      <c r="M24" s="25">
-        <f t="shared" ref="M24:N24" si="29">+M20-M23</f>
-        <v>14.411000000000001</v>
-      </c>
-      <c r="N24" s="25">
-        <f t="shared" si="29"/>
-        <v>-8.2339999999999804</v>
-      </c>
-      <c r="O24" s="25">
-        <f t="shared" ref="O24:T24" si="30">+O20-O23</f>
-        <v>78.074000000000069</v>
-      </c>
-      <c r="P24" s="25">
-        <f t="shared" si="30"/>
-        <v>146.24299999999994</v>
-      </c>
-      <c r="Q24" s="25">
-        <f t="shared" si="30"/>
-        <v>41.375999999999976</v>
-      </c>
-      <c r="R24" s="25">
-        <f t="shared" si="30"/>
-        <v>29.406999999999982</v>
-      </c>
-      <c r="S24" s="25">
-        <f t="shared" si="30"/>
-        <v>92.770999999999958</v>
-      </c>
-      <c r="T24" s="25">
-        <f t="shared" si="30"/>
-        <v>134.75099999999998</v>
-      </c>
-      <c r="U24" s="25"/>
-      <c r="V24" s="25"/>
-      <c r="W24" s="25"/>
-      <c r="AA24" s="2">
-        <f>+AA20-AA23</f>
-        <v>-73.692000000000007</v>
-      </c>
-      <c r="AB24" s="2">
-        <f>+AB20-AB23</f>
-        <v>-30.76299999999992</v>
-      </c>
-      <c r="AC24" s="2">
-        <f>+AC20-AC23</f>
-        <v>-12.335999999999785</v>
-      </c>
+        <v>170.42399999999998</v>
+      </c>
+      <c r="W24" s="25">
+        <f t="shared" si="28"/>
+        <v>228.096</v>
+      </c>
+      <c r="X24" s="25"/>
+      <c r="Y24" s="25"/>
+      <c r="Z24" s="25"/>
       <c r="AD24" s="2">
         <f>+AD20-AD23</f>
+        <v>-73.692000000000007</v>
+      </c>
+      <c r="AE24" s="2">
+        <f>+AE20-AE23</f>
+        <v>-30.76299999999992</v>
+      </c>
+      <c r="AF24" s="2">
+        <f>+AF20-AF23</f>
+        <v>-12.335999999999785</v>
+      </c>
+      <c r="AG24" s="2">
+        <f>+AG20-AG23</f>
         <v>108.73799999999983</v>
       </c>
-      <c r="AE24" s="2">
-        <f t="shared" ref="AE24:AL24" si="31">+AE20-AE23</f>
-        <v>1339.9121328000003</v>
-      </c>
-      <c r="AF24" s="2">
-        <f t="shared" si="31"/>
-        <v>1906.3903405700003</v>
-      </c>
-      <c r="AG24" s="2">
-        <f t="shared" si="31"/>
-        <v>2342.3753439085203</v>
-      </c>
       <c r="AH24" s="2">
-        <f t="shared" si="31"/>
-        <v>2783.4547369170477</v>
+        <f t="shared" ref="AH24:AO24" si="29">+AH20-AH23</f>
+        <v>1023.0081200000002</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="31"/>
-        <v>3150.7378442275462</v>
+        <f t="shared" si="29"/>
+        <v>1330.5096156</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="31"/>
-        <v>3586.5672704735262</v>
+        <f t="shared" si="29"/>
+        <v>1549.1511022239999</v>
       </c>
       <c r="AK24" s="2">
-        <f t="shared" si="31"/>
-        <v>4103.7588624501386</v>
+        <f t="shared" si="29"/>
+        <v>1604.8813539929595</v>
       </c>
       <c r="AL24" s="2">
-        <f t="shared" si="31"/>
-        <v>4581.1779265071355</v>
-      </c>
-    </row>
-    <row r="25" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="29"/>
+        <v>1661.7749851048784</v>
+      </c>
+      <c r="AM24" s="2">
+        <f t="shared" si="29"/>
+        <v>1723.4747297915299</v>
+      </c>
+      <c r="AN24" s="2">
+        <f t="shared" si="29"/>
+        <v>1790.4111823046951</v>
+      </c>
+      <c r="AO24" s="2">
+        <f t="shared" si="29"/>
+        <v>1858.6709403724356</v>
+      </c>
+    </row>
+    <row r="25" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
@@ -3709,181 +4065,205 @@
         <f>19.785-3.574-4.527</f>
         <v>11.683999999999997</v>
       </c>
-      <c r="U25" s="25"/>
-      <c r="V25" s="25"/>
-      <c r="W25" s="25"/>
-      <c r="AA25" s="2">
+      <c r="U25" s="25">
+        <f>18.053-2.968</f>
+        <v>15.085000000000001</v>
+      </c>
+      <c r="V25" s="25">
+        <f>17.68-2.577</f>
+        <v>15.103</v>
+      </c>
+      <c r="W25" s="25">
+        <f>19.013-2.863</f>
+        <v>16.150000000000002</v>
+      </c>
+      <c r="X25" s="25"/>
+      <c r="Y25" s="25"/>
+      <c r="Z25" s="25"/>
+      <c r="AD25" s="2">
         <f>-0.587+22.748-23.46+6.945</f>
         <v>5.6460000000000008</v>
       </c>
-      <c r="AB25" s="2">
+      <c r="AE25" s="2">
         <f>16.61-29.309+7.142</f>
         <v>-5.5570000000000013</v>
       </c>
-      <c r="AC25" s="2">
-        <f t="shared" ref="AC25" si="32">SUM(G25:J25)</f>
+      <c r="AF25" s="2">
+        <f t="shared" ref="AF25" si="30">SUM(G25:J25)</f>
         <v>6.9910000000000014</v>
       </c>
-      <c r="AD25" s="2">
-        <f t="shared" ref="AD25:AD27" si="33">SUM(K25:N25)</f>
+      <c r="AG25" s="2">
+        <f t="shared" ref="AG25:AG27" si="31">SUM(K25:N25)</f>
         <v>1.4000000000001123E-2</v>
       </c>
-      <c r="AE25" s="2">
-        <f>+AD37*$AO$35</f>
+      <c r="AH25" s="2">
+        <f>+AG38*$AR$36</f>
         <v>0</v>
       </c>
-      <c r="AF25" s="2">
-        <f t="shared" ref="AF25:AL25" si="34">+AE37*$AO$35</f>
-        <v>26.798242656000006</v>
-      </c>
-      <c r="AG25" s="2">
-        <f t="shared" si="34"/>
-        <v>65.462014320520012</v>
-      </c>
-      <c r="AH25" s="2">
-        <f t="shared" si="34"/>
-        <v>108.80308676864276</v>
-      </c>
       <c r="AI25" s="2">
-        <f t="shared" si="34"/>
-        <v>155.0792119476138</v>
+        <f t="shared" ref="AI25:AO25" si="32">+AH38*$AR$36</f>
+        <v>20.460162400000005</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="34"/>
-        <v>207.97228484641639</v>
+        <f t="shared" si="32"/>
+        <v>47.479557960000001</v>
       </c>
       <c r="AK25" s="2">
-        <f t="shared" si="34"/>
-        <v>268.68491773153545</v>
+        <f t="shared" si="32"/>
+        <v>76.218909843311991</v>
       </c>
       <c r="AL25" s="2">
-        <f t="shared" si="34"/>
-        <v>338.64401821444227</v>
-      </c>
-    </row>
-    <row r="26" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="32"/>
+        <v>103.11651406469235</v>
+      </c>
+      <c r="AM25" s="2">
+        <f t="shared" si="32"/>
+        <v>131.35477805140548</v>
+      </c>
+      <c r="AN25" s="2">
+        <f t="shared" si="32"/>
+        <v>161.03205017689245</v>
+      </c>
+      <c r="AO25" s="2">
+        <f t="shared" si="32"/>
+        <v>192.25514189659785</v>
+      </c>
+    </row>
+    <row r="26" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="25"/>
       <c r="E26" s="25">
-        <f t="shared" ref="E26:T26" si="35">+E24+E25</f>
+        <f t="shared" ref="E26:W26" si="33">+E24+E25</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>40.994000000000035</v>
       </c>
       <c r="H26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>31.847000000000001</v>
       </c>
       <c r="I26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-28.878000000000011</v>
       </c>
       <c r="J26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-49.307999999999979</v>
       </c>
       <c r="K26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>43.773999999999873</v>
       </c>
       <c r="L26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>51.346000000000046</v>
       </c>
       <c r="M26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>14.924000000000001</v>
       </c>
       <c r="N26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>-1.2919999999999785</v>
       </c>
       <c r="O26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>72.427000000000064</v>
       </c>
       <c r="P26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>151.48699999999994</v>
       </c>
       <c r="Q26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>57.383999999999972</v>
       </c>
       <c r="R26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>34.514999999999986</v>
       </c>
       <c r="S26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>109.85599999999995</v>
       </c>
       <c r="T26" s="25">
-        <f t="shared" si="35"/>
+        <f t="shared" si="33"/>
         <v>146.43499999999997</v>
       </c>
-      <c r="U26" s="25"/>
-      <c r="V26" s="25"/>
-      <c r="W26" s="25"/>
-      <c r="AA26" s="2">
-        <f>+AA24+AA25</f>
-        <v>-68.046000000000006</v>
-      </c>
-      <c r="AB26" s="2">
-        <f>+AB24+AB25</f>
-        <v>-36.319999999999922</v>
-      </c>
-      <c r="AC26" s="2">
-        <f>+AC24+AC25</f>
-        <v>-5.3449999999997839</v>
-      </c>
+      <c r="U26" s="25">
+        <f t="shared" si="33"/>
+        <v>134.12000000000009</v>
+      </c>
+      <c r="V26" s="25">
+        <f t="shared" si="33"/>
+        <v>185.52699999999999</v>
+      </c>
+      <c r="W26" s="25">
+        <f t="shared" si="33"/>
+        <v>244.24600000000001</v>
+      </c>
+      <c r="X26" s="25"/>
+      <c r="Y26" s="25"/>
+      <c r="Z26" s="25"/>
       <c r="AD26" s="2">
         <f>+AD24+AD25</f>
+        <v>-68.046000000000006</v>
+      </c>
+      <c r="AE26" s="2">
+        <f>+AE24+AE25</f>
+        <v>-36.319999999999922</v>
+      </c>
+      <c r="AF26" s="2">
+        <f>+AF24+AF25</f>
+        <v>-5.3449999999997839</v>
+      </c>
+      <c r="AG26" s="2">
+        <f>+AG24+AG25</f>
         <v>108.75199999999982</v>
       </c>
-      <c r="AE26" s="2">
-        <f t="shared" ref="AE26:AL26" si="36">+AE24+AE25</f>
-        <v>1339.9121328000003</v>
-      </c>
-      <c r="AF26" s="2">
-        <f t="shared" si="36"/>
-        <v>1933.1885832260002</v>
-      </c>
-      <c r="AG26" s="2">
-        <f t="shared" si="36"/>
-        <v>2407.8373582290405</v>
-      </c>
       <c r="AH26" s="2">
-        <f t="shared" si="36"/>
-        <v>2892.2578236856907</v>
+        <f t="shared" ref="AH26:AO26" si="34">+AH24+AH25</f>
+        <v>1023.0081200000002</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="36"/>
-        <v>3305.8170561751599</v>
+        <f t="shared" si="34"/>
+        <v>1350.9697779999999</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="36"/>
-        <v>3794.5395553199423</v>
+        <f t="shared" si="34"/>
+        <v>1596.6306601839999</v>
       </c>
       <c r="AK26" s="2">
-        <f t="shared" si="36"/>
-        <v>4372.4437801816739</v>
+        <f t="shared" si="34"/>
+        <v>1681.1002638362716</v>
       </c>
       <c r="AL26" s="2">
-        <f t="shared" si="36"/>
-        <v>4919.8219447215779</v>
-      </c>
-    </row>
-    <row r="27" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="34"/>
+        <v>1764.8914991695708</v>
+      </c>
+      <c r="AM26" s="2">
+        <f t="shared" si="34"/>
+        <v>1854.8295078429353</v>
+      </c>
+      <c r="AN26" s="2">
+        <f t="shared" si="34"/>
+        <v>1951.4432324815875</v>
+      </c>
+      <c r="AO26" s="2">
+        <f t="shared" si="34"/>
+        <v>2050.9260822690335</v>
+      </c>
+    </row>
+    <row r="27" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>74</v>
       </c>
@@ -3937,556 +4317,577 @@
       <c r="T27" s="25">
         <v>24.962</v>
       </c>
-      <c r="U27" s="25"/>
-      <c r="V27" s="25"/>
-      <c r="W27" s="25"/>
-      <c r="AA27" s="2">
+      <c r="U27" s="25">
+        <v>28.361000000000001</v>
+      </c>
+      <c r="V27" s="25">
+        <v>44.695999999999998</v>
+      </c>
+      <c r="W27" s="25">
+        <v>52.402999999999999</v>
+      </c>
+      <c r="X27" s="25"/>
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AD27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="2">
+      <c r="AE27" s="2">
         <v>0</v>
       </c>
-      <c r="AC27" s="2">
-        <f t="shared" ref="AC27" si="37">SUM(G27:J27)</f>
+      <c r="AF27" s="2">
+        <f t="shared" ref="AF27" si="35">SUM(G27:J27)</f>
         <v>-11.27</v>
       </c>
-      <c r="AD27" s="2">
-        <f t="shared" si="33"/>
+      <c r="AG27" s="2">
+        <f t="shared" si="31"/>
         <v>8.0150000000000006</v>
       </c>
-      <c r="AE27" s="2">
-        <f>+AE26*0</f>
+      <c r="AH27" s="2">
+        <f>+AH26*0</f>
         <v>0</v>
       </c>
-      <c r="AF27" s="2">
-        <f>+AF26*0</f>
+      <c r="AI27" s="2">
+        <f>+AI26*0</f>
         <v>0</v>
       </c>
-      <c r="AG27" s="2">
-        <f>+AG26*0.1</f>
-        <v>240.78373582290408</v>
-      </c>
-      <c r="AH27" s="2">
-        <f>+AH26*0.2</f>
-        <v>578.45156473713814</v>
-      </c>
-      <c r="AI27" s="2">
-        <f t="shared" ref="AI27:AL27" si="38">+AI26*0.2</f>
-        <v>661.16341123503207</v>
-      </c>
       <c r="AJ27" s="2">
-        <f t="shared" si="38"/>
-        <v>758.90791106398854</v>
+        <f>+AJ26*0.1</f>
+        <v>159.6630660184</v>
       </c>
       <c r="AK27" s="2">
-        <f t="shared" si="38"/>
-        <v>874.48875603633485</v>
+        <f>+AK26*0.2</f>
+        <v>336.22005276725434</v>
       </c>
       <c r="AL27" s="2">
-        <f t="shared" si="38"/>
-        <v>983.9643889443156</v>
-      </c>
-    </row>
-    <row r="28" spans="2:119" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="AL27:AO27" si="36">+AL26*0.2</f>
+        <v>352.97829983391421</v>
+      </c>
+      <c r="AM27" s="2">
+        <f t="shared" si="36"/>
+        <v>370.96590156858707</v>
+      </c>
+      <c r="AN27" s="2">
+        <f t="shared" si="36"/>
+        <v>390.28864649631754</v>
+      </c>
+      <c r="AO27" s="2">
+        <f t="shared" si="36"/>
+        <v>410.18521645380673</v>
+      </c>
+    </row>
+    <row r="28" spans="2:122" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25"/>
       <c r="E28" s="25">
-        <f t="shared" ref="E28:T28" si="39">+E26-E27</f>
+        <f t="shared" ref="E28:U28" si="37">+E26-E27</f>
         <v>-43.828000000000053</v>
       </c>
       <c r="F28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-21.590000000000003</v>
       </c>
       <c r="G28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>35.137000000000036</v>
       </c>
       <c r="H28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>30.632000000000001</v>
       </c>
       <c r="I28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-19.21200000000001</v>
       </c>
       <c r="J28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>-40.631999999999977</v>
       </c>
       <c r="K28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>30.384999999999874</v>
       </c>
       <c r="L28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>44.159000000000049</v>
       </c>
       <c r="M28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>10.176000000000002</v>
       </c>
       <c r="N28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>16.017000000000024</v>
       </c>
       <c r="O28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>66.522000000000062</v>
       </c>
       <c r="P28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>136.71699999999993</v>
       </c>
       <c r="Q28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>56.092999999999975</v>
       </c>
       <c r="R28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>35.562999999999988</v>
       </c>
       <c r="S28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>92.970999999999947</v>
       </c>
       <c r="T28" s="25">
-        <f t="shared" si="39"/>
+        <f t="shared" si="37"/>
         <v>121.47299999999997</v>
       </c>
-      <c r="U28" s="25"/>
-      <c r="V28" s="25"/>
-      <c r="W28" s="25"/>
-      <c r="AA28" s="2">
-        <f>+AA26-AA27</f>
-        <v>-68.046000000000006</v>
-      </c>
-      <c r="AB28" s="2">
-        <f>+AB26-AB27</f>
-        <v>-36.319999999999922</v>
-      </c>
-      <c r="AC28" s="2">
-        <f>+AC26-AC27</f>
-        <v>5.9250000000002156</v>
-      </c>
+      <c r="U28" s="25">
+        <f t="shared" si="37"/>
+        <v>105.75900000000009</v>
+      </c>
+      <c r="V28" s="25">
+        <f>+V26-V27</f>
+        <v>140.83099999999999</v>
+      </c>
+      <c r="W28" s="25">
+        <f>+W26-W27</f>
+        <v>191.84300000000002</v>
+      </c>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
       <c r="AD28" s="2">
         <f>+AD26-AD27</f>
+        <v>-68.046000000000006</v>
+      </c>
+      <c r="AE28" s="2">
+        <f>+AE26-AE27</f>
+        <v>-36.319999999999922</v>
+      </c>
+      <c r="AF28" s="2">
+        <f>+AF26-AF27</f>
+        <v>5.9250000000002156</v>
+      </c>
+      <c r="AG28" s="2">
+        <f>+AG26-AG27</f>
         <v>100.73699999999982</v>
       </c>
-      <c r="AE28" s="2">
-        <f t="shared" ref="AE28:AL28" si="40">+AE26-AE27</f>
-        <v>1339.9121328000003</v>
-      </c>
-      <c r="AF28" s="2">
+      <c r="AH28" s="2">
+        <f t="shared" ref="AH28:AO28" si="38">+AH26-AH27</f>
+        <v>1023.0081200000002</v>
+      </c>
+      <c r="AI28" s="2">
+        <f t="shared" si="38"/>
+        <v>1350.9697779999999</v>
+      </c>
+      <c r="AJ28" s="2">
+        <f t="shared" si="38"/>
+        <v>1436.9675941655998</v>
+      </c>
+      <c r="AK28" s="2">
+        <f t="shared" si="38"/>
+        <v>1344.8802110690172</v>
+      </c>
+      <c r="AL28" s="2">
+        <f t="shared" si="38"/>
+        <v>1411.9131993356566</v>
+      </c>
+      <c r="AM28" s="2">
+        <f t="shared" si="38"/>
+        <v>1483.8636062743483</v>
+      </c>
+      <c r="AN28" s="2">
+        <f t="shared" si="38"/>
+        <v>1561.1545859852699</v>
+      </c>
+      <c r="AO28" s="2">
+        <f t="shared" si="38"/>
+        <v>1640.7408658152267</v>
+      </c>
+      <c r="AP28" s="2">
+        <f>+AO28*(1+$AR$35)</f>
+        <v>1624.3334571570745</v>
+      </c>
+      <c r="AQ28" s="2">
+        <f t="shared" ref="AQ28:DB28" si="39">+AP28*(1+$AR$35)</f>
+        <v>1608.0901225855037</v>
+      </c>
+      <c r="AR28" s="2">
+        <f t="shared" si="39"/>
+        <v>1592.0092213596486</v>
+      </c>
+      <c r="AS28" s="2">
+        <f t="shared" si="39"/>
+        <v>1576.0891291460521</v>
+      </c>
+      <c r="AT28" s="2">
+        <f t="shared" si="39"/>
+        <v>1560.3282378545916</v>
+      </c>
+      <c r="AU28" s="2">
+        <f t="shared" si="39"/>
+        <v>1544.7249554760458</v>
+      </c>
+      <c r="AV28" s="2">
+        <f t="shared" si="39"/>
+        <v>1529.2777059212854</v>
+      </c>
+      <c r="AW28" s="2">
+        <f t="shared" si="39"/>
+        <v>1513.9849288620726</v>
+      </c>
+      <c r="AX28" s="2">
+        <f t="shared" si="39"/>
+        <v>1498.8450795734518</v>
+      </c>
+      <c r="AY28" s="2">
+        <f t="shared" si="39"/>
+        <v>1483.8566287777173</v>
+      </c>
+      <c r="AZ28" s="2">
+        <f t="shared" si="39"/>
+        <v>1469.0180624899401</v>
+      </c>
+      <c r="BA28" s="2">
+        <f t="shared" si="39"/>
+        <v>1454.3278818650408</v>
+      </c>
+      <c r="BB28" s="2">
+        <f t="shared" si="39"/>
+        <v>1439.7846030463904</v>
+      </c>
+      <c r="BC28" s="2">
+        <f t="shared" si="39"/>
+        <v>1425.3867570159266</v>
+      </c>
+      <c r="BD28" s="2">
+        <f t="shared" si="39"/>
+        <v>1411.1328894457674</v>
+      </c>
+      <c r="BE28" s="2">
+        <f t="shared" si="39"/>
+        <v>1397.0215605513097</v>
+      </c>
+      <c r="BF28" s="2">
+        <f t="shared" si="39"/>
+        <v>1383.0513449457965</v>
+      </c>
+      <c r="BG28" s="2">
+        <f t="shared" si="39"/>
+        <v>1369.2208314963384</v>
+      </c>
+      <c r="BH28" s="2">
+        <f t="shared" si="39"/>
+        <v>1355.528623181375</v>
+      </c>
+      <c r="BI28" s="2">
+        <f t="shared" si="39"/>
+        <v>1341.9733369495611</v>
+      </c>
+      <c r="BJ28" s="2">
+        <f t="shared" si="39"/>
+        <v>1328.5536035800656</v>
+      </c>
+      <c r="BK28" s="2">
+        <f t="shared" si="39"/>
+        <v>1315.2680675442648</v>
+      </c>
+      <c r="BL28" s="2">
+        <f t="shared" si="39"/>
+        <v>1302.115386868822</v>
+      </c>
+      <c r="BM28" s="2">
+        <f t="shared" si="39"/>
+        <v>1289.0942330001337</v>
+      </c>
+      <c r="BN28" s="2">
+        <f t="shared" si="39"/>
+        <v>1276.2032906701324</v>
+      </c>
+      <c r="BO28" s="2">
+        <f t="shared" si="39"/>
+        <v>1263.4412577634312</v>
+      </c>
+      <c r="BP28" s="2">
+        <f t="shared" si="39"/>
+        <v>1250.8068451857969</v>
+      </c>
+      <c r="BQ28" s="2">
+        <f t="shared" si="39"/>
+        <v>1238.2987767339389</v>
+      </c>
+      <c r="BR28" s="2">
+        <f t="shared" si="39"/>
+        <v>1225.9157889665994</v>
+      </c>
+      <c r="BS28" s="2">
+        <f t="shared" si="39"/>
+        <v>1213.6566310769333</v>
+      </c>
+      <c r="BT28" s="2">
+        <f t="shared" si="39"/>
+        <v>1201.5200647661641</v>
+      </c>
+      <c r="BU28" s="2">
+        <f t="shared" si="39"/>
+        <v>1189.5048641185024</v>
+      </c>
+      <c r="BV28" s="2">
+        <f t="shared" si="39"/>
+        <v>1177.6098154773174</v>
+      </c>
+      <c r="BW28" s="2">
+        <f t="shared" si="39"/>
+        <v>1165.8337173225443</v>
+      </c>
+      <c r="BX28" s="2">
+        <f t="shared" si="39"/>
+        <v>1154.1753801493189</v>
+      </c>
+      <c r="BY28" s="2">
+        <f t="shared" si="39"/>
+        <v>1142.6336263478258</v>
+      </c>
+      <c r="BZ28" s="2">
+        <f t="shared" si="39"/>
+        <v>1131.2072900843475</v>
+      </c>
+      <c r="CA28" s="2">
+        <f t="shared" si="39"/>
+        <v>1119.895217183504</v>
+      </c>
+      <c r="CB28" s="2">
+        <f t="shared" si="39"/>
+        <v>1108.6962650116689</v>
+      </c>
+      <c r="CC28" s="2">
+        <f t="shared" si="39"/>
+        <v>1097.6093023615522</v>
+      </c>
+      <c r="CD28" s="2">
+        <f t="shared" si="39"/>
+        <v>1086.6332093379367</v>
+      </c>
+      <c r="CE28" s="2">
+        <f t="shared" si="39"/>
+        <v>1075.7668772445572</v>
+      </c>
+      <c r="CF28" s="2">
+        <f t="shared" si="39"/>
+        <v>1065.0092084721116</v>
+      </c>
+      <c r="CG28" s="2">
+        <f t="shared" si="39"/>
+        <v>1054.3591163873905</v>
+      </c>
+      <c r="CH28" s="2">
+        <f t="shared" si="39"/>
+        <v>1043.8155252235165</v>
+      </c>
+      <c r="CI28" s="2">
+        <f t="shared" si="39"/>
+        <v>1033.3773699712813</v>
+      </c>
+      <c r="CJ28" s="2">
+        <f t="shared" si="39"/>
+        <v>1023.0435962715684</v>
+      </c>
+      <c r="CK28" s="2">
+        <f t="shared" si="39"/>
+        <v>1012.8131603088527</v>
+      </c>
+      <c r="CL28" s="2">
+        <f t="shared" si="39"/>
+        <v>1002.6850287057642</v>
+      </c>
+      <c r="CM28" s="2">
+        <f t="shared" si="39"/>
+        <v>992.6581784187066</v>
+      </c>
+      <c r="CN28" s="2">
+        <f t="shared" si="39"/>
+        <v>982.73159663451952</v>
+      </c>
+      <c r="CO28" s="2">
+        <f t="shared" si="39"/>
+        <v>972.90428066817435</v>
+      </c>
+      <c r="CP28" s="2">
+        <f t="shared" si="39"/>
+        <v>963.17523786149263</v>
+      </c>
+      <c r="CQ28" s="2">
+        <f t="shared" si="39"/>
+        <v>953.54348548287771</v>
+      </c>
+      <c r="CR28" s="2">
+        <f t="shared" si="39"/>
+        <v>944.00805062804898</v>
+      </c>
+      <c r="CS28" s="2">
+        <f t="shared" si="39"/>
+        <v>934.56797012176844</v>
+      </c>
+      <c r="CT28" s="2">
+        <f t="shared" si="39"/>
+        <v>925.22229042055073</v>
+      </c>
+      <c r="CU28" s="2">
+        <f t="shared" si="39"/>
+        <v>915.97006751634524</v>
+      </c>
+      <c r="CV28" s="2">
+        <f t="shared" si="39"/>
+        <v>906.8103668411818</v>
+      </c>
+      <c r="CW28" s="2">
+        <f t="shared" si="39"/>
+        <v>897.74226317276998</v>
+      </c>
+      <c r="CX28" s="2">
+        <f t="shared" si="39"/>
+        <v>888.7648405410423</v>
+      </c>
+      <c r="CY28" s="2">
+        <f t="shared" si="39"/>
+        <v>879.87719213563184</v>
+      </c>
+      <c r="CZ28" s="2">
+        <f t="shared" si="39"/>
+        <v>871.07842021427552</v>
+      </c>
+      <c r="DA28" s="2">
+        <f t="shared" si="39"/>
+        <v>862.36763601213272</v>
+      </c>
+      <c r="DB28" s="2">
+        <f t="shared" si="39"/>
+        <v>853.74395965201143</v>
+      </c>
+      <c r="DC28" s="2">
+        <f t="shared" ref="DC28:DR28" si="40">+DB28*(1+$AR$35)</f>
+        <v>845.2065200554913</v>
+      </c>
+      <c r="DD28" s="2">
         <f t="shared" si="40"/>
-        <v>1933.1885832260002</v>
-      </c>
-      <c r="AG28" s="2">
+        <v>836.7544548549364</v>
+      </c>
+      <c r="DE28" s="2">
         <f t="shared" si="40"/>
-        <v>2167.0536224061366</v>
-      </c>
-      <c r="AH28" s="2">
+        <v>828.38691030638699</v>
+      </c>
+      <c r="DF28" s="2">
         <f t="shared" si="40"/>
-        <v>2313.8062589485526</v>
-      </c>
-      <c r="AI28" s="2">
+        <v>820.10304120332307</v>
+      </c>
+      <c r="DG28" s="2">
         <f t="shared" si="40"/>
-        <v>2644.6536449401278</v>
-      </c>
-      <c r="AJ28" s="2">
+        <v>811.90201079128985</v>
+      </c>
+      <c r="DH28" s="2">
         <f t="shared" si="40"/>
-        <v>3035.6316442559537</v>
-      </c>
-      <c r="AK28" s="2">
+        <v>803.78299068337697</v>
+      </c>
+      <c r="DI28" s="2">
         <f t="shared" si="40"/>
-        <v>3497.9550241453389</v>
-      </c>
-      <c r="AL28" s="2">
+        <v>795.74516077654323</v>
+      </c>
+      <c r="DJ28" s="2">
         <f t="shared" si="40"/>
-        <v>3935.8575557772624</v>
-      </c>
-      <c r="AM28" s="2">
-        <f>+AL28*(1+$AO$34)</f>
-        <v>3896.4989802194896</v>
-      </c>
-      <c r="AN28" s="2">
-        <f t="shared" ref="AN28:CY28" si="41">+AM28*(1+$AO$34)</f>
-        <v>3857.5339904172947</v>
-      </c>
-      <c r="AO28" s="2">
-        <f t="shared" si="41"/>
-        <v>3818.9586505131219</v>
-      </c>
-      <c r="AP28" s="2">
-        <f t="shared" si="41"/>
-        <v>3780.7690640079909</v>
-      </c>
-      <c r="AQ28" s="2">
-        <f t="shared" si="41"/>
-        <v>3742.9613733679112</v>
-      </c>
-      <c r="AR28" s="2">
-        <f t="shared" si="41"/>
-        <v>3705.531759634232</v>
-      </c>
-      <c r="AS28" s="2">
-        <f t="shared" si="41"/>
-        <v>3668.4764420378897</v>
-      </c>
-      <c r="AT28" s="2">
-        <f t="shared" si="41"/>
-        <v>3631.7916776175107</v>
-      </c>
-      <c r="AU28" s="2">
-        <f t="shared" si="41"/>
-        <v>3595.4737608413357</v>
-      </c>
-      <c r="AV28" s="2">
-        <f t="shared" si="41"/>
-        <v>3559.5190232329223</v>
-      </c>
-      <c r="AW28" s="2">
-        <f t="shared" si="41"/>
-        <v>3523.9238330005933</v>
-      </c>
-      <c r="AX28" s="2">
-        <f t="shared" si="41"/>
-        <v>3488.6845946705871</v>
-      </c>
-      <c r="AY28" s="2">
-        <f t="shared" si="41"/>
-        <v>3453.7977487238813</v>
-      </c>
-      <c r="AZ28" s="2">
-        <f t="shared" si="41"/>
-        <v>3419.2597712366423</v>
-      </c>
-      <c r="BA28" s="2">
-        <f t="shared" si="41"/>
-        <v>3385.0671735242759</v>
-      </c>
-      <c r="BB28" s="2">
-        <f t="shared" si="41"/>
-        <v>3351.2165017890329</v>
-      </c>
-      <c r="BC28" s="2">
-        <f t="shared" si="41"/>
-        <v>3317.7043367711426</v>
-      </c>
-      <c r="BD28" s="2">
-        <f t="shared" si="41"/>
-        <v>3284.527293403431</v>
-      </c>
-      <c r="BE28" s="2">
-        <f t="shared" si="41"/>
-        <v>3251.6820204693968</v>
-      </c>
-      <c r="BF28" s="2">
-        <f t="shared" si="41"/>
-        <v>3219.1652002647029</v>
-      </c>
-      <c r="BG28" s="2">
-        <f t="shared" si="41"/>
-        <v>3186.9735482620558</v>
-      </c>
-      <c r="BH28" s="2">
-        <f t="shared" si="41"/>
-        <v>3155.1038127794354</v>
-      </c>
-      <c r="BI28" s="2">
-        <f t="shared" si="41"/>
-        <v>3123.5527746516409</v>
-      </c>
-      <c r="BJ28" s="2">
-        <f t="shared" si="41"/>
-        <v>3092.3172469051246</v>
-      </c>
-      <c r="BK28" s="2">
-        <f t="shared" si="41"/>
-        <v>3061.3940744360734</v>
-      </c>
-      <c r="BL28" s="2">
-        <f t="shared" si="41"/>
-        <v>3030.7801336917128</v>
-      </c>
-      <c r="BM28" s="2">
-        <f t="shared" si="41"/>
-        <v>3000.4723323547955</v>
-      </c>
-      <c r="BN28" s="2">
-        <f t="shared" si="41"/>
-        <v>2970.4676090312473</v>
-      </c>
-      <c r="BO28" s="2">
-        <f t="shared" si="41"/>
-        <v>2940.7629329409347</v>
-      </c>
-      <c r="BP28" s="2">
-        <f t="shared" si="41"/>
-        <v>2911.3553036115254</v>
-      </c>
-      <c r="BQ28" s="2">
-        <f t="shared" si="41"/>
-        <v>2882.2417505754102</v>
-      </c>
-      <c r="BR28" s="2">
-        <f t="shared" si="41"/>
-        <v>2853.4193330696562</v>
-      </c>
-      <c r="BS28" s="2">
-        <f t="shared" si="41"/>
-        <v>2824.8851397389594</v>
-      </c>
-      <c r="BT28" s="2">
-        <f t="shared" si="41"/>
-        <v>2796.63628834157</v>
-      </c>
-      <c r="BU28" s="2">
-        <f t="shared" si="41"/>
-        <v>2768.6699254581545</v>
-      </c>
-      <c r="BV28" s="2">
-        <f t="shared" si="41"/>
-        <v>2740.9832262035729</v>
-      </c>
-      <c r="BW28" s="2">
-        <f t="shared" si="41"/>
-        <v>2713.5733939415372</v>
-      </c>
-      <c r="BX28" s="2">
-        <f t="shared" si="41"/>
-        <v>2686.4376600021219</v>
-      </c>
-      <c r="BY28" s="2">
-        <f t="shared" si="41"/>
-        <v>2659.5732834021005</v>
-      </c>
-      <c r="BZ28" s="2">
-        <f t="shared" si="41"/>
-        <v>2632.9775505680796</v>
-      </c>
-      <c r="CA28" s="2">
-        <f t="shared" si="41"/>
-        <v>2606.6477750623985</v>
-      </c>
-      <c r="CB28" s="2">
-        <f t="shared" si="41"/>
-        <v>2580.5812973117745</v>
-      </c>
-      <c r="CC28" s="2">
-        <f t="shared" si="41"/>
-        <v>2554.775484338657</v>
-      </c>
-      <c r="CD28" s="2">
-        <f t="shared" si="41"/>
-        <v>2529.2277294952705</v>
-      </c>
-      <c r="CE28" s="2">
-        <f t="shared" si="41"/>
-        <v>2503.9354522003177</v>
-      </c>
-      <c r="CF28" s="2">
-        <f t="shared" si="41"/>
-        <v>2478.8960976783146</v>
-      </c>
-      <c r="CG28" s="2">
-        <f t="shared" si="41"/>
-        <v>2454.1071367015315</v>
-      </c>
-      <c r="CH28" s="2">
-        <f t="shared" si="41"/>
-        <v>2429.5660653345162</v>
-      </c>
-      <c r="CI28" s="2">
-        <f t="shared" si="41"/>
-        <v>2405.2704046811709</v>
-      </c>
-      <c r="CJ28" s="2">
-        <f t="shared" si="41"/>
-        <v>2381.2177006343591</v>
-      </c>
-      <c r="CK28" s="2">
-        <f t="shared" si="41"/>
-        <v>2357.4055236280155</v>
-      </c>
-      <c r="CL28" s="2">
-        <f t="shared" si="41"/>
-        <v>2333.8314683917351</v>
-      </c>
-      <c r="CM28" s="2">
-        <f t="shared" si="41"/>
-        <v>2310.4931537078178</v>
-      </c>
-      <c r="CN28" s="2">
-        <f t="shared" si="41"/>
-        <v>2287.3882221707395</v>
-      </c>
-      <c r="CO28" s="2">
-        <f t="shared" si="41"/>
-        <v>2264.5143399490321</v>
-      </c>
-      <c r="CP28" s="2">
-        <f t="shared" si="41"/>
-        <v>2241.8691965495418</v>
-      </c>
-      <c r="CQ28" s="2">
-        <f t="shared" si="41"/>
-        <v>2219.4505045840465</v>
-      </c>
-      <c r="CR28" s="2">
-        <f t="shared" si="41"/>
-        <v>2197.2559995382062</v>
-      </c>
-      <c r="CS28" s="2">
-        <f t="shared" si="41"/>
-        <v>2175.283439542824</v>
-      </c>
-      <c r="CT28" s="2">
-        <f t="shared" si="41"/>
-        <v>2153.5306051473958</v>
-      </c>
-      <c r="CU28" s="2">
-        <f t="shared" si="41"/>
-        <v>2131.9952990959218</v>
-      </c>
-      <c r="CV28" s="2">
-        <f t="shared" si="41"/>
-        <v>2110.6753461049625</v>
-      </c>
-      <c r="CW28" s="2">
-        <f t="shared" si="41"/>
-        <v>2089.5685926439128</v>
-      </c>
-      <c r="CX28" s="2">
-        <f t="shared" si="41"/>
-        <v>2068.6729067174738</v>
-      </c>
-      <c r="CY28" s="2">
-        <f t="shared" si="41"/>
-        <v>2047.9861776502989</v>
-      </c>
-      <c r="CZ28" s="2">
-        <f t="shared" ref="CZ28:DO28" si="42">+CY28*(1+$AO$34)</f>
-        <v>2027.506315873796</v>
-      </c>
-      <c r="DA28" s="2">
-        <f t="shared" si="42"/>
-        <v>2007.231252715058</v>
-      </c>
-      <c r="DB28" s="2">
-        <f t="shared" si="42"/>
-        <v>1987.1589401879073</v>
-      </c>
-      <c r="DC28" s="2">
-        <f t="shared" si="42"/>
-        <v>1967.2873507860281</v>
-      </c>
-      <c r="DD28" s="2">
-        <f t="shared" si="42"/>
-        <v>1947.6144772781679</v>
-      </c>
-      <c r="DE28" s="2">
-        <f t="shared" si="42"/>
-        <v>1928.1383325053862</v>
-      </c>
-      <c r="DF28" s="2">
-        <f t="shared" si="42"/>
-        <v>1908.8569491803323</v>
-      </c>
-      <c r="DG28" s="2">
-        <f t="shared" si="42"/>
-        <v>1889.768379688529</v>
-      </c>
-      <c r="DH28" s="2">
-        <f t="shared" si="42"/>
-        <v>1870.8706958916437</v>
-      </c>
-      <c r="DI28" s="2">
-        <f t="shared" si="42"/>
-        <v>1852.1619889327271</v>
-      </c>
-      <c r="DJ28" s="2">
-        <f t="shared" si="42"/>
-        <v>1833.6403690433999</v>
+        <v>787.78770916877784</v>
       </c>
       <c r="DK28" s="2">
-        <f t="shared" si="42"/>
-        <v>1815.3039653529659</v>
+        <f t="shared" si="40"/>
+        <v>779.90983207709007</v>
       </c>
       <c r="DL28" s="2">
-        <f t="shared" si="42"/>
-        <v>1797.1509256994361</v>
+        <f t="shared" si="40"/>
+        <v>772.11073375631918</v>
       </c>
       <c r="DM28" s="2">
-        <f t="shared" si="42"/>
-        <v>1779.1794164424418</v>
+        <f t="shared" si="40"/>
+        <v>764.38962641875594</v>
       </c>
       <c r="DN28" s="2">
-        <f t="shared" si="42"/>
-        <v>1761.3876222780175</v>
+        <f t="shared" si="40"/>
+        <v>756.74573015456838</v>
       </c>
       <c r="DO28" s="2">
-        <f t="shared" si="42"/>
-        <v>1743.7737460552373</v>
-      </c>
-    </row>
-    <row r="29" spans="2:119" x14ac:dyDescent="0.2">
+        <f t="shared" si="40"/>
+        <v>749.17827285302269</v>
+      </c>
+      <c r="DP28" s="2">
+        <f t="shared" si="40"/>
+        <v>741.68649012449248</v>
+      </c>
+      <c r="DQ28" s="2">
+        <f t="shared" si="40"/>
+        <v>734.26962522324754</v>
+      </c>
+      <c r="DR28" s="2">
+        <f t="shared" si="40"/>
+        <v>726.92692897101506</v>
+      </c>
+    </row>
+    <row r="29" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>70</v>
       </c>
       <c r="E29" s="27">
-        <f t="shared" ref="E29:Q29" si="43">+E28/E30</f>
+        <f t="shared" ref="E29:Q29" si="41">+E28/E30</f>
         <v>-0.22171858716877307</v>
       </c>
       <c r="F29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.11703419414991655</v>
       </c>
       <c r="G29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.19058389607571954</v>
       </c>
       <c r="H29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.16519708564556404</v>
       </c>
       <c r="I29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.10486098223934857</v>
       </c>
       <c r="J29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>-0.22136265077306938</v>
       </c>
       <c r="K29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.15591166117627678</v>
       </c>
       <c r="L29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.23558000085357031</v>
       </c>
       <c r="M29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>5.4828472442981308E-2</v>
       </c>
       <c r="N29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>8.6099941944223587E-2</v>
       </c>
       <c r="O29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.34225649943662151</v>
       </c>
       <c r="P29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.70112001148729697</v>
       </c>
       <c r="Q29" s="27">
-        <f t="shared" si="43"/>
+        <f t="shared" si="41"/>
         <v>0.29341486506985803</v>
       </c>
       <c r="R29" s="27">
@@ -4501,59 +4902,71 @@
         <f>T28/T30</f>
         <v>0.60583526595346737</v>
       </c>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="AA29" s="1">
-        <f>+AA28/AA30</f>
-        <v>-0.3800624444953335</v>
-      </c>
-      <c r="AB29" s="1">
-        <f>+AB28/AB30</f>
-        <v>-0.18948444787612517</v>
-      </c>
-      <c r="AC29" s="1">
-        <f>+AC28/AC30</f>
-        <v>3.2176604757251086E-2</v>
-      </c>
+      <c r="U29" s="27">
+        <f>U28/U30</f>
+        <v>0.53644742248170196</v>
+      </c>
+      <c r="V29" s="27">
+        <f>V28/V30</f>
+        <v>0.71640189031493373</v>
+      </c>
+      <c r="W29" s="27">
+        <f>W28/W30</f>
+        <v>0.97642945122509861</v>
+      </c>
+      <c r="X29" s="27"/>
+      <c r="Y29" s="27"/>
+      <c r="Z29" s="27"/>
       <c r="AD29" s="1">
         <f>+AD28/AD30</f>
+        <v>-0.3800624444953335</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>+AE28/AE30</f>
+        <v>-0.18948444787612517</v>
+      </c>
+      <c r="AF29" s="1">
+        <f>+AF28/AF30</f>
+        <v>3.2176604757251086E-2</v>
+      </c>
+      <c r="AG29" s="1">
+        <f>+AG28/AG30</f>
         <v>0.53444285431966365</v>
       </c>
-      <c r="AE29" s="1">
-        <f t="shared" ref="AE29:AL29" si="44">+AE28/AE30</f>
-        <v>7.1086737225764276</v>
-      </c>
-      <c r="AF29" s="1">
-        <f t="shared" si="44"/>
-        <v>10.256200049212225</v>
-      </c>
-      <c r="AG29" s="1">
-        <f t="shared" si="44"/>
-        <v>11.496930853832298</v>
-      </c>
       <c r="AH29" s="1">
-        <f t="shared" si="44"/>
-        <v>12.275501765738202</v>
+        <f t="shared" ref="AH29:AO29" si="42">+AH28/AH30</f>
+        <v>5.4273939033820149</v>
       </c>
       <c r="AI29" s="1">
-        <f t="shared" si="44"/>
-        <v>14.030755756958284</v>
+        <f t="shared" si="42"/>
+        <v>7.1673381602978399</v>
       </c>
       <c r="AJ29" s="1">
-        <f t="shared" si="44"/>
-        <v>16.105022391169566</v>
+        <f t="shared" si="42"/>
+        <v>7.6235848058878517</v>
       </c>
       <c r="AK29" s="1">
-        <f t="shared" si="44"/>
-        <v>18.557799690144098</v>
+        <f t="shared" si="42"/>
+        <v>7.1350310086835869</v>
       </c>
       <c r="AL29" s="1">
-        <f t="shared" si="44"/>
-        <v>20.881016372387688</v>
-      </c>
-    </row>
-    <row r="30" spans="2:119" x14ac:dyDescent="0.2">
+        <f t="shared" si="42"/>
+        <v>7.4906630166131389</v>
+      </c>
+      <c r="AM29" s="1">
+        <f t="shared" si="42"/>
+        <v>7.8723835448577342</v>
+      </c>
+      <c r="AN29" s="1">
+        <f t="shared" si="42"/>
+        <v>8.2824375648292268</v>
+      </c>
+      <c r="AO29" s="1">
+        <f t="shared" si="42"/>
+        <v>8.7046689054191351</v>
+      </c>
+    </row>
+    <row r="30" spans="2:122" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>1</v>
       </c>
@@ -4605,601 +5018,651 @@
       <c r="T30" s="25">
         <v>200.505</v>
       </c>
-      <c r="U30" s="25"/>
-      <c r="V30" s="25"/>
-      <c r="W30" s="25"/>
-      <c r="AA30" s="2">
+      <c r="U30" s="25">
+        <v>197.14699999999999</v>
+      </c>
+      <c r="V30" s="25">
+        <v>196.58099999999999</v>
+      </c>
+      <c r="W30" s="25">
+        <v>196.47399999999999</v>
+      </c>
+      <c r="X30" s="25"/>
+      <c r="Y30" s="25"/>
+      <c r="Z30" s="25"/>
+      <c r="AD30" s="2">
         <v>179.03899999999999</v>
       </c>
-      <c r="AB30" s="2">
+      <c r="AE30" s="2">
         <v>191.678</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AF30" s="2">
         <f>AVERAGE(G30:J30)</f>
         <v>184.14000000000001</v>
       </c>
-      <c r="AD30" s="2">
+      <c r="AG30" s="2">
         <f>AVERAGE(K30:N30)</f>
         <v>188.48975000000002</v>
       </c>
-      <c r="AE30" s="2">
-        <f>+AD30</f>
+      <c r="AH30" s="2">
+        <f>+AG30</f>
         <v>188.48975000000002</v>
       </c>
-      <c r="AF30" s="2">
-        <f t="shared" ref="AF30:AL30" si="45">+AE30</f>
+      <c r="AI30" s="2">
+        <f t="shared" ref="AI30:AO30" si="43">+AH30</f>
         <v>188.48975000000002</v>
       </c>
-      <c r="AG30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AJ30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
-      <c r="AH30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AK30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
-      <c r="AI30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AL30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
-      <c r="AJ30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AM30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
-      <c r="AK30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AN30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
-      <c r="AL30" s="2">
-        <f t="shared" si="45"/>
+      <c r="AO30" s="2">
+        <f t="shared" si="43"/>
         <v>188.48975000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:119" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="23" t="s">
+    <row r="32" spans="2:122" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>170</v>
+      </c>
+      <c r="U32" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="V32" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="W32" s="49">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:44" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="B33" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="24"/>
-      <c r="H32" s="24"/>
-      <c r="I32" s="28">
-        <f t="shared" ref="I32:N32" si="46">+I18/E18-1</f>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="28">
+        <f t="shared" ref="I33:N33" si="44">+I18/E18-1</f>
         <v>-0.14251074478282844</v>
       </c>
-      <c r="J32" s="28">
-        <f t="shared" si="46"/>
+      <c r="J33" s="28">
+        <f t="shared" si="44"/>
         <v>-5.0456564441062612E-3</v>
       </c>
-      <c r="K32" s="28">
-        <f t="shared" si="46"/>
+      <c r="K33" s="28">
+        <f t="shared" si="44"/>
         <v>6.8454370953439758E-2</v>
       </c>
-      <c r="L32" s="28">
-        <f t="shared" si="46"/>
+      <c r="L33" s="28">
+        <f t="shared" si="44"/>
         <v>6.3993318623142059E-2</v>
       </c>
-      <c r="M32" s="28">
-        <f t="shared" si="46"/>
+      <c r="M33" s="28">
+        <f t="shared" si="44"/>
         <v>0.23615833582027501</v>
       </c>
-      <c r="N32" s="28">
-        <f t="shared" si="46"/>
+      <c r="N33" s="28">
+        <f t="shared" si="44"/>
         <v>0.19510172502339995</v>
       </c>
-      <c r="O32" s="28">
-        <f t="shared" ref="O32" si="47">+O18/K18-1</f>
+      <c r="O33" s="28">
+        <f t="shared" ref="O33" si="45">+O18/K18-1</f>
         <v>0.14842278764725614</v>
       </c>
-      <c r="P32" s="28">
-        <f t="shared" ref="P32" si="48">+P18/L18-1</f>
+      <c r="P33" s="28">
+        <f t="shared" ref="P33" si="46">+P18/L18-1</f>
         <v>0.11516903397914557</v>
       </c>
-      <c r="Q32" s="28">
-        <f t="shared" ref="Q32" si="49">+Q18/M18-1</f>
+      <c r="Q33" s="28">
+        <f t="shared" ref="Q33" si="47">+Q18/M18-1</f>
         <v>0.15043020200101309</v>
       </c>
-      <c r="R32" s="28">
-        <f t="shared" ref="R32" si="50">+R18/N18-1</f>
+      <c r="R33" s="28">
+        <f t="shared" ref="R33" si="48">+R18/N18-1</f>
         <v>0.2020534056620269</v>
       </c>
-      <c r="S32" s="28">
-        <f t="shared" ref="S32" si="51">+S18/O18-1</f>
+      <c r="S33" s="28">
+        <f t="shared" ref="S33" si="49">+S18/O18-1</f>
         <v>8.7906910456645004E-2</v>
       </c>
-      <c r="T32" s="28">
-        <f t="shared" ref="T32" si="52">+T18/P18-1</f>
+      <c r="T33" s="28">
+        <f t="shared" ref="T33" si="50">+T18/P18-1</f>
         <v>0.1961345596573012</v>
       </c>
-      <c r="U32" s="28"/>
-      <c r="V32" s="28"/>
-      <c r="W32" s="28"/>
-      <c r="AB32" s="29">
-        <f>+AB18/AA18-1</f>
+      <c r="U33" s="28">
+        <f t="shared" ref="U33" si="51">+U18/Q18-1</f>
+        <v>0.28297294461463851</v>
+      </c>
+      <c r="V33" s="28">
+        <f t="shared" ref="V33" si="52">+V18/R18-1</f>
+        <v>0.15556542584719857</v>
+      </c>
+      <c r="W33" s="28">
+        <f t="shared" ref="W32:Z33" si="53">+W18/S18-1</f>
+        <v>0.14742680829290222</v>
+      </c>
+      <c r="X33" s="28">
+        <f t="shared" si="53"/>
+        <v>0.10241689594103631</v>
+      </c>
+      <c r="Y33" s="28">
+        <f t="shared" si="53"/>
+        <v>0.1018940221726754</v>
+      </c>
+      <c r="Z33" s="28">
+        <f t="shared" si="53"/>
+        <v>0.1057348606295343</v>
+      </c>
+      <c r="AE33" s="29">
+        <f>+AE18/AD18-1</f>
         <v>0.10560056609215063</v>
       </c>
-      <c r="AC32" s="29">
-        <f>+AC18/AB18-1</f>
+      <c r="AF33" s="29">
+        <f>+AF18/AE18-1</f>
         <v>-6.9633957835607552E-3</v>
       </c>
-      <c r="AD32" s="29">
-        <f>+AD18/AC18-1</f>
+      <c r="AG33" s="29">
+        <f>+AG18/AF18-1</f>
         <v>0.13522647692985101</v>
       </c>
-      <c r="AE32" s="29">
-        <f t="shared" ref="AE32:AL32" si="53">+AE18/AD18-1</f>
-        <v>0.34557572391892855</v>
-      </c>
-      <c r="AF32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.27018984005538704</v>
-      </c>
-      <c r="AG32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.16710897454804208</v>
-      </c>
-      <c r="AH32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.14517176716504321</v>
-      </c>
-      <c r="AI32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.10766510553087549</v>
-      </c>
-      <c r="AJ32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.11394197889496671</v>
-      </c>
-      <c r="AK32" s="29">
-        <f t="shared" si="53"/>
-        <v>0.12007628044946617</v>
-      </c>
-      <c r="AL32" s="29">
-        <f t="shared" si="53"/>
-        <v>9.9926184310596078E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="AH33" s="29">
+        <f t="shared" ref="AH33:AO33" si="54">+AH18/AG18-1</f>
+        <v>0.15419208386171546</v>
+      </c>
+      <c r="AI33" s="29">
+        <f t="shared" si="54"/>
+        <v>0.17948530347898384</v>
+      </c>
+      <c r="AJ33" s="29">
+        <f t="shared" si="54"/>
+        <v>0.11338332004520901</v>
+      </c>
+      <c r="AK33" s="29">
+        <f t="shared" si="54"/>
+        <v>3.7515417746762258E-2</v>
+      </c>
+      <c r="AL33" s="29">
+        <f t="shared" si="54"/>
+        <v>3.7195944629090816E-2</v>
+      </c>
+      <c r="AM33" s="29">
+        <f t="shared" si="54"/>
+        <v>3.8233396977213729E-2</v>
+      </c>
+      <c r="AN33" s="29">
+        <f t="shared" si="54"/>
+        <v>3.9285846035489902E-2</v>
+      </c>
+      <c r="AO33" s="29">
+        <f t="shared" si="54"/>
+        <v>3.884817236567728E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
         <v>76</v>
       </c>
-      <c r="E33" s="16">
-        <f t="shared" ref="E33:L33" si="54">+E20/E18</f>
+      <c r="E34" s="16">
+        <f t="shared" ref="E34:L34" si="55">+E20/E18</f>
         <v>0.6039941855465103</v>
       </c>
-      <c r="F33" s="16">
-        <f t="shared" si="54"/>
+      <c r="F34" s="16">
+        <f t="shared" si="55"/>
         <v>0.72097807428905125</v>
       </c>
-      <c r="G33" s="16">
-        <f t="shared" si="54"/>
+      <c r="G34" s="16">
+        <f t="shared" si="55"/>
         <v>0.75277588615420699</v>
       </c>
-      <c r="H33" s="16">
-        <f t="shared" si="54"/>
+      <c r="H34" s="16">
+        <f t="shared" si="55"/>
         <v>0.74673356016528036</v>
       </c>
-      <c r="I33" s="16">
-        <f t="shared" si="54"/>
+      <c r="I34" s="16">
+        <f t="shared" si="55"/>
         <v>0.74673069114143276</v>
       </c>
-      <c r="J33" s="16">
-        <f t="shared" si="54"/>
+      <c r="J34" s="16">
+        <f t="shared" si="55"/>
         <v>0.73376523763258938</v>
       </c>
-      <c r="K33" s="16">
-        <f t="shared" si="54"/>
+      <c r="K34" s="16">
+        <f t="shared" si="55"/>
         <v>0.77477885137503022</v>
       </c>
-      <c r="L33" s="16">
-        <f t="shared" si="54"/>
+      <c r="L34" s="16">
+        <f t="shared" si="55"/>
         <v>0.7693397127752446</v>
       </c>
-      <c r="M33" s="16">
-        <f t="shared" ref="M33:N33" si="55">+M20/M18</f>
+      <c r="M34" s="16">
+        <f t="shared" ref="M34:N34" si="56">+M20/M18</f>
         <v>0.76988348530901718</v>
       </c>
-      <c r="N33" s="16">
-        <f t="shared" si="55"/>
+      <c r="N34" s="16">
+        <f t="shared" si="56"/>
         <v>0.7632016608811153</v>
       </c>
-      <c r="O33" s="16">
-        <f t="shared" ref="O33:T33" si="56">+O20/O18</f>
+      <c r="O34" s="16">
+        <f t="shared" ref="O34:T34" si="57">+O20/O18</f>
         <v>0.77285614882254816</v>
       </c>
-      <c r="P33" s="16">
-        <f t="shared" si="56"/>
+      <c r="P34" s="16">
+        <f t="shared" si="57"/>
         <v>0.88985594893116626</v>
       </c>
-      <c r="Q33" s="16">
-        <f t="shared" si="56"/>
+      <c r="Q34" s="16">
+        <f t="shared" si="57"/>
         <v>0.78542666113942572</v>
       </c>
-      <c r="R33" s="16">
-        <f t="shared" si="56"/>
+      <c r="R34" s="16">
+        <f t="shared" si="57"/>
         <v>0.79033333900789127</v>
       </c>
-      <c r="S33" s="16">
-        <f t="shared" si="56"/>
+      <c r="S34" s="16">
+        <f t="shared" si="57"/>
         <v>0.80707227006799775</v>
       </c>
-      <c r="T33" s="16">
-        <f t="shared" si="56"/>
+      <c r="T34" s="16">
+        <f t="shared" si="57"/>
         <v>0.81677853008795998</v>
       </c>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="AA33" s="16">
-        <f>+AA20/AA18</f>
+      <c r="U34" s="16">
+        <f t="shared" ref="U34:V34" si="58">+U20/U18</f>
+        <v>0.74733366136058021</v>
+      </c>
+      <c r="V34" s="16">
+        <f t="shared" si="58"/>
+        <v>0.81767399377778138</v>
+      </c>
+      <c r="W34" s="16">
+        <f t="shared" ref="W34" si="59">+W20/W18</f>
+        <v>0.79643009210195825</v>
+      </c>
+      <c r="X34" s="16"/>
+      <c r="Y34" s="16"/>
+      <c r="Z34" s="16"/>
+      <c r="AD34" s="16">
+        <f>+AD20/AD18</f>
         <v>0.78624907459988524</v>
       </c>
-      <c r="AB33" s="16">
-        <f>+AB20/AB18</f>
+      <c r="AE34" s="16">
+        <f>+AE20/AE18</f>
         <v>0.71802630460809314</v>
       </c>
-      <c r="AC33" s="16">
-        <f>+AC20/AC18</f>
+      <c r="AF34" s="16">
+        <f>+AF20/AF18</f>
         <v>0.74516437051106876</v>
       </c>
-      <c r="AD33" s="16">
-        <f>+AD20/AD18</f>
+      <c r="AG34" s="16">
+        <f>+AG20/AG18</f>
         <v>0.76924431136696081</v>
       </c>
-      <c r="AE33" s="16">
-        <f t="shared" ref="AE33:AL33" si="57">+AE20/AE18</f>
+      <c r="AH34" s="16">
+        <f t="shared" ref="AH34:AO34" si="60">+AH20/AH18</f>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="AI34" s="16">
+        <f t="shared" si="60"/>
+        <v>0.79000000000000015</v>
+      </c>
+      <c r="AJ34" s="16">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AF33" s="16">
-        <f t="shared" si="57"/>
+      <c r="AK34" s="16">
+        <f t="shared" si="60"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="AG33" s="16">
-        <f t="shared" si="57"/>
+      <c r="AL34" s="16">
+        <f t="shared" si="60"/>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="AM34" s="16">
+        <f t="shared" si="60"/>
         <v>0.79</v>
       </c>
-      <c r="AH33" s="16">
-        <f t="shared" si="57"/>
-        <v>0.79</v>
-      </c>
-      <c r="AI33" s="16">
-        <f t="shared" si="57"/>
-        <v>0.79</v>
-      </c>
-      <c r="AJ33" s="16">
-        <f t="shared" si="57"/>
-        <v>0.79</v>
-      </c>
-      <c r="AK33" s="16">
-        <f t="shared" si="57"/>
-        <v>0.79</v>
-      </c>
-      <c r="AL33" s="16">
-        <f t="shared" si="57"/>
+      <c r="AN34" s="16">
+        <f t="shared" si="60"/>
         <v>0.78999999999999992</v>
       </c>
-      <c r="AN33" t="s">
+      <c r="AO34" s="16">
+        <f t="shared" si="60"/>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="AQ34" t="s">
         <v>90</v>
       </c>
-      <c r="AO33" s="30">
+      <c r="AR34" s="30">
         <v>0.08</v>
       </c>
     </row>
-    <row r="34" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+    <row r="35" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>88</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16">
-        <f t="shared" ref="I34:K34" si="58">+I22/E22-1</f>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16">
+        <f t="shared" ref="I35:K35" si="61">+I22/E22-1</f>
         <v>2.1638339370298132E-2</v>
       </c>
-      <c r="J34" s="16">
-        <f t="shared" si="58"/>
+      <c r="J35" s="16">
+        <f t="shared" si="61"/>
         <v>0.11278591595400789</v>
       </c>
-      <c r="K34" s="16">
-        <f t="shared" si="58"/>
+      <c r="K35" s="16">
+        <f t="shared" si="61"/>
         <v>0.11645957388221517</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L35" s="16">
         <f>+L22/H22-1</f>
         <v>6.8820217092652625E-2</v>
       </c>
-      <c r="M34" s="16">
-        <f t="shared" ref="M34:N34" si="59">+M22/I22-1</f>
+      <c r="M35" s="16">
+        <f t="shared" ref="M35:N35" si="62">+M22/I22-1</f>
         <v>0.18263487751795915</v>
       </c>
-      <c r="N34" s="16">
-        <f t="shared" si="59"/>
+      <c r="N35" s="16">
+        <f t="shared" si="62"/>
         <v>0.12950731512251634</v>
       </c>
-      <c r="O34" s="16">
-        <f t="shared" ref="O34" si="60">+O22/K22-1</f>
+      <c r="O35" s="16">
+        <f t="shared" ref="O35" si="63">+O22/K22-1</f>
         <v>8.4287762243151931E-2</v>
       </c>
-      <c r="P34" s="16">
-        <f t="shared" ref="P34" si="61">+P22/L22-1</f>
+      <c r="P35" s="16">
+        <f t="shared" ref="P35" si="64">+P22/L22-1</f>
         <v>4.7085122056544915E-2</v>
       </c>
-      <c r="Q34" s="16">
-        <f t="shared" ref="Q34" si="62">+Q22/M22-1</f>
+      <c r="Q35" s="16">
+        <f t="shared" ref="Q35" si="65">+Q22/M22-1</f>
         <v>3.2802007231938601E-2</v>
       </c>
-      <c r="R34" s="16">
-        <f t="shared" ref="R34" si="63">+R22/N22-1</f>
+      <c r="R35" s="16">
+        <f t="shared" ref="R35" si="66">+R22/N22-1</f>
         <v>0.11917115313401605</v>
       </c>
-      <c r="S34" s="16">
-        <f t="shared" ref="S34" si="64">+S22/O22-1</f>
+      <c r="S35" s="16">
+        <f t="shared" ref="S35" si="67">+S22/O22-1</f>
         <v>7.0527857153011908E-2</v>
       </c>
-      <c r="T34" s="16">
-        <f t="shared" ref="T34" si="65">+T22/P22-1</f>
+      <c r="T35" s="16">
+        <f t="shared" ref="T35" si="68">+T22/P22-1</f>
         <v>0.27621626080163786</v>
       </c>
-      <c r="U34" s="16"/>
-      <c r="V34" s="16"/>
-      <c r="W34" s="16"/>
-      <c r="X34" s="16"/>
-      <c r="AB34" s="16">
-        <f>+AB22/AA22-1</f>
+      <c r="U35" s="16">
+        <f t="shared" ref="U35" si="69">+U22/Q22-1</f>
+        <v>-0.17428369833160651</v>
+      </c>
+      <c r="V35" s="16">
+        <f t="shared" ref="V35" si="70">+V22/R22-1</f>
+        <v>-3.0604601780208185E-2</v>
+      </c>
+      <c r="W35" s="16">
+        <f t="shared" ref="W35" si="71">+W22/S22-1</f>
+        <v>-8.7602808247678188E-2</v>
+      </c>
+      <c r="X35" s="16"/>
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="16"/>
+      <c r="AA35" s="16"/>
+      <c r="AE35" s="16">
+        <f>+AE22/AD22-1</f>
         <v>8.3335291456902771E-2</v>
       </c>
-      <c r="AC34" s="16">
-        <f>+AC22/AB22-1</f>
+      <c r="AF35" s="16">
+        <f>+AF22/AE22-1</f>
         <v>2.9425121565363366E-2</v>
       </c>
-      <c r="AD34" s="16">
-        <f>+AD22/AC22-1</f>
+      <c r="AG35" s="16">
+        <f>+AG22/AF22-1</f>
         <v>0.1246209053497942</v>
       </c>
-      <c r="AE34" s="16">
-        <f t="shared" ref="AE34:AL34" si="66">+AE22/AD22-1</f>
+      <c r="AH35" s="16">
+        <f t="shared" ref="AH35:AO35" si="72">+AH22/AG22-1</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AF34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AI35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AG34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AJ35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AH34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AK35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AI34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AL35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AJ34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AM35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AK34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AN35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AL34" s="16">
-        <f t="shared" si="66"/>
+      <c r="AO35" s="16">
+        <f t="shared" si="72"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AN34" t="s">
+      <c r="AQ35" t="s">
         <v>91</v>
       </c>
-      <c r="AO34" s="30">
+      <c r="AR35" s="30">
         <v>-0.01</v>
       </c>
     </row>
-    <row r="35" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L36" s="16">
         <f>+L8/H8-1</f>
         <v>9.0355655238705257E-3</v>
       </c>
-      <c r="M35" s="16">
+      <c r="M36" s="16">
         <f>+M8/I8-1</f>
         <v>0.13564645726807889</v>
       </c>
-      <c r="N35" s="16">
+      <c r="N36" s="16">
         <f>+N8/J8-1</f>
         <v>-2.6871401151631558E-2</v>
       </c>
-      <c r="O35" s="16">
-        <f t="shared" ref="O35:T35" si="67">+O8/K8-1</f>
+      <c r="O36" s="16">
+        <f t="shared" ref="O36:T36" si="73">+O8/K8-1</f>
         <v>3.3836065573770613E-2</v>
       </c>
-      <c r="P35" s="16">
-        <f t="shared" si="67"/>
+      <c r="P36" s="16">
+        <f t="shared" si="73"/>
         <v>2.4167754003902919E-2</v>
       </c>
-      <c r="Q35" s="16">
-        <f t="shared" si="67"/>
+      <c r="Q36" s="16">
+        <f t="shared" si="73"/>
         <v>2.2062134173795656E-2</v>
       </c>
-      <c r="R35" s="16">
-        <f t="shared" si="67"/>
+      <c r="R36" s="16">
+        <f t="shared" si="73"/>
         <v>0.15450361604207763</v>
       </c>
-      <c r="S35" s="16">
-        <f t="shared" si="67"/>
+      <c r="S36" s="16">
+        <f t="shared" si="73"/>
         <v>1.7590595796862507E-2</v>
       </c>
-      <c r="T35" s="16">
-        <f t="shared" si="67"/>
+      <c r="T36" s="16">
+        <f t="shared" si="73"/>
         <v>3.5176332641833064E-3</v>
       </c>
-      <c r="AB35" s="30">
-        <f>+AB8/AA8-1</f>
+      <c r="U36" s="16">
+        <f t="shared" ref="U36" si="74">+U8/Q8-1</f>
+        <v>0.12020138451856499</v>
+      </c>
+      <c r="V36" s="16">
+        <f t="shared" ref="V36" si="75">+V8/R8-1</f>
+        <v>8.7699316628701673E-2</v>
+      </c>
+      <c r="W36" s="16">
+        <f t="shared" ref="W36" si="76">+W8/S8-1</f>
+        <v>-2.347808019945985E-2</v>
+      </c>
+      <c r="AE36" s="30">
+        <f>+AE8/AD8-1</f>
         <v>1.8372221201556904E-4</v>
       </c>
-      <c r="AC35" s="30">
-        <f>+AC8/AB8-1</f>
+      <c r="AF36" s="30">
+        <f>+AF8/AE8-1</f>
         <v>0.14484753857457777</v>
       </c>
-      <c r="AD35" s="30">
-        <f>+AD8/AC8-1</f>
+      <c r="AG36" s="30">
+        <f>+AG8/AF8-1</f>
         <v>6.5015122221241617E-2</v>
       </c>
-      <c r="AE35" s="30">
-        <f t="shared" ref="AE35:AL35" si="68">+AE8/AD8-1</f>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="AF35" s="30">
-        <f t="shared" si="68"/>
-        <v>7.0000000000000062E-2</v>
-      </c>
-      <c r="AG35" s="30">
-        <f t="shared" si="68"/>
+      <c r="AH36" s="30">
+        <f t="shared" ref="AH36:AO36" si="77">+AH8/AG8-1</f>
+        <v>5.6205707949669836E-2</v>
+      </c>
+      <c r="AI36" s="30">
+        <f t="shared" si="77"/>
+        <v>5.4846494856536365E-2</v>
+      </c>
+      <c r="AJ36" s="30">
+        <f t="shared" si="77"/>
+        <v>3.0871789879059142E-2</v>
+      </c>
+      <c r="AK36" s="30">
+        <f t="shared" si="77"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AH35" s="30">
-        <f t="shared" si="68"/>
+      <c r="AL36" s="30">
+        <f t="shared" si="77"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AI35" s="30">
-        <f t="shared" si="68"/>
+      <c r="AM36" s="30">
+        <f t="shared" si="77"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AJ35" s="30">
-        <f t="shared" si="68"/>
+      <c r="AN36" s="30">
+        <f t="shared" si="77"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AK35" s="30">
-        <f t="shared" si="68"/>
+      <c r="AO36" s="30">
+        <f t="shared" si="77"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="AL35" s="30">
-        <f t="shared" si="68"/>
-        <v>4.0000000000000036E-2</v>
-      </c>
-      <c r="AN35" t="s">
-        <v>100</v>
-      </c>
-      <c r="AO35" s="30">
+      <c r="AQ36" t="s">
+        <v>95</v>
+      </c>
+      <c r="AR36" s="30">
         <v>0.02</v>
       </c>
     </row>
-    <row r="36" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="AN36" t="s">
+    <row r="37" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AQ37" t="s">
         <v>92</v>
       </c>
-      <c r="AO36" s="2">
-        <f>NPV(AO33,AE28:DO28)+Main!L5-Main!L6</f>
-        <v>38262.149555882228</v>
-      </c>
-    </row>
-    <row r="37" spans="2:41" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="L37" s="25">
+      <c r="AR37" s="2">
+        <f>NPV(AR34,AH28:DR28)+Main!L5-Main!L6</f>
+        <v>18853.455038609995</v>
+      </c>
+    </row>
+    <row r="38" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="L38" s="25">
         <f>+Main!L5-Main!L6</f>
-        <v>692.48099999999977</v>
-      </c>
-      <c r="M37" s="25">
-        <f>+M38-M50</f>
+        <v>1183</v>
+      </c>
+      <c r="M38" s="25">
+        <f>+M39-M51</f>
         <v>564.03700000000026</v>
-      </c>
-      <c r="N37" s="25"/>
-      <c r="O37" s="25"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="25"/>
-      <c r="S37" s="25"/>
-      <c r="T37" s="25"/>
-      <c r="U37" s="25"/>
-      <c r="V37" s="25"/>
-      <c r="W37" s="25"/>
-      <c r="AD37" s="2">
-        <f>+N37</f>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="2">
-        <f>+AD37+AE28</f>
-        <v>1339.9121328000003</v>
-      </c>
-      <c r="AF37" s="2">
-        <f t="shared" ref="AF37:AL37" si="69">+AE37+AF28</f>
-        <v>3273.1007160260006</v>
-      </c>
-      <c r="AG37" s="2">
-        <f t="shared" si="69"/>
-        <v>5440.1543384321376</v>
-      </c>
-      <c r="AH37" s="2">
-        <f t="shared" si="69"/>
-        <v>7753.9605973806902</v>
-      </c>
-      <c r="AI37" s="2">
-        <f t="shared" si="69"/>
-        <v>10398.614242320818</v>
-      </c>
-      <c r="AJ37" s="2">
-        <f t="shared" si="69"/>
-        <v>13434.245886576773</v>
-      </c>
-      <c r="AK37" s="2">
-        <f t="shared" si="69"/>
-        <v>16932.200910722113</v>
-      </c>
-      <c r="AL37" s="2">
-        <f t="shared" si="69"/>
-        <v>20868.058466499377</v>
-      </c>
-      <c r="AN37" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO37" s="1">
-        <f>+AO36/Main!L3</f>
-        <v>200.97479990018337</v>
-      </c>
-    </row>
-    <row r="38" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="25"/>
-      <c r="K38" s="25"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="25">
-        <f>761.515+512.253+372.302</f>
-        <v>1646.0700000000002</v>
       </c>
       <c r="N38" s="25"/>
       <c r="O38" s="25"/>
       <c r="P38" s="25"/>
       <c r="Q38" s="25"/>
       <c r="R38" s="25"/>
-      <c r="S38" s="25">
-        <f>746.996+299.584+620.551</f>
-        <v>1667.1309999999999</v>
-      </c>
+      <c r="S38" s="25"/>
       <c r="T38" s="25"/>
       <c r="U38" s="25"/>
       <c r="V38" s="25"/>
-      <c r="W38" s="25"/>
+      <c r="W38" s="25">
+        <f>+W39-W51</f>
+        <v>1183.4090000000001</v>
+      </c>
+      <c r="X38" s="25"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AG38" s="2">
+        <f>+N38</f>
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <f>+AG38+AH28</f>
+        <v>1023.0081200000002</v>
+      </c>
+      <c r="AI38" s="2">
+        <f t="shared" ref="AI38:AO38" si="78">+AH38+AI28</f>
+        <v>2373.9778980000001</v>
+      </c>
+      <c r="AJ38" s="2">
+        <f t="shared" si="78"/>
+        <v>3810.9454921655997</v>
+      </c>
+      <c r="AK38" s="2">
+        <f t="shared" si="78"/>
+        <v>5155.8257032346173</v>
+      </c>
+      <c r="AL38" s="2">
+        <f t="shared" si="78"/>
+        <v>6567.7389025702741</v>
+      </c>
+      <c r="AM38" s="2">
+        <f t="shared" si="78"/>
+        <v>8051.6025088446222</v>
+      </c>
+      <c r="AN38" s="2">
+        <f t="shared" si="78"/>
+        <v>9612.7570948298926</v>
+      </c>
       <c r="AO38" s="2">
-        <f>+AO37/Main!L2-1</f>
-        <v>1.8710685700026195</v>
-      </c>
-    </row>
-    <row r="39" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="78"/>
+        <v>11253.49796064512</v>
+      </c>
+      <c r="AQ38" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR38" s="1">
+        <f>+AR37/Main!L3</f>
+        <v>96.191097135765276</v>
+      </c>
+    </row>
+    <row r="39" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>137</v>
+        <v>3</v>
       </c>
       <c r="C39" s="25"/>
       <c r="D39" s="25"/>
@@ -5212,7 +5675,8 @@
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
       <c r="M39" s="25">
-        <v>419.62200000000001</v>
+        <f>761.515+512.253+372.302</f>
+        <v>1646.0700000000002</v>
       </c>
       <c r="N39" s="25"/>
       <c r="O39" s="25"/>
@@ -5220,16 +5684,27 @@
       <c r="Q39" s="25"/>
       <c r="R39" s="25"/>
       <c r="S39" s="25">
-        <v>637.16300000000001</v>
+        <f>746.996+299.584+620.551</f>
+        <v>1667.1309999999999</v>
       </c>
       <c r="T39" s="25"/>
       <c r="U39" s="25"/>
       <c r="V39" s="25"/>
-      <c r="W39" s="25"/>
-    </row>
-    <row r="40" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W39" s="25">
+        <f>1048.803+223.532+506.724</f>
+        <v>1779.059</v>
+      </c>
+      <c r="X39" s="25"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AR39" s="30">
+        <f>+AR38/Main!L2-1</f>
+        <v>0.63284836421261725</v>
+      </c>
+    </row>
+    <row r="40" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -5242,7 +5717,7 @@
       <c r="K40" s="25"/>
       <c r="L40" s="25"/>
       <c r="M40" s="25">
-        <v>839.46</v>
+        <v>419.62200000000001</v>
       </c>
       <c r="N40" s="25"/>
       <c r="O40" s="25"/>
@@ -5250,16 +5725,21 @@
       <c r="Q40" s="25"/>
       <c r="R40" s="25"/>
       <c r="S40" s="25">
-        <v>1137.982</v>
+        <v>637.16300000000001</v>
       </c>
       <c r="T40" s="25"/>
       <c r="U40" s="25"/>
       <c r="V40" s="25"/>
-      <c r="W40" s="25"/>
-    </row>
-    <row r="41" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W40" s="25">
+        <v>739.17700000000002</v>
+      </c>
+      <c r="X40" s="25"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+    </row>
+    <row r="41" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C41" s="25"/>
       <c r="D41" s="25"/>
@@ -5272,7 +5752,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25">
-        <v>149.851</v>
+        <v>839.46</v>
       </c>
       <c r="N41" s="25"/>
       <c r="O41" s="25"/>
@@ -5280,16 +5760,21 @@
       <c r="Q41" s="25"/>
       <c r="R41" s="25"/>
       <c r="S41" s="25">
-        <v>163.28700000000001</v>
+        <v>1137.982</v>
       </c>
       <c r="T41" s="25"/>
       <c r="U41" s="25"/>
       <c r="V41" s="25"/>
-      <c r="W41" s="25"/>
-    </row>
-    <row r="42" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W41" s="25">
+        <v>1274.848</v>
+      </c>
+      <c r="X41" s="25"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+    </row>
+    <row r="42" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C42" s="25"/>
       <c r="D42" s="25"/>
@@ -5302,7 +5787,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25">
-        <v>1051.8209999999999</v>
+        <v>149.851</v>
       </c>
       <c r="N42" s="25"/>
       <c r="O42" s="25"/>
@@ -5310,16 +5795,21 @@
       <c r="Q42" s="25"/>
       <c r="R42" s="25"/>
       <c r="S42" s="25">
-        <v>1060.425</v>
+        <v>163.28700000000001</v>
       </c>
       <c r="T42" s="25"/>
       <c r="U42" s="25"/>
       <c r="V42" s="25"/>
-      <c r="W42" s="25"/>
-    </row>
-    <row r="43" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W42" s="25">
+        <v>181.54499999999999</v>
+      </c>
+      <c r="X42" s="25"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+    </row>
+    <row r="43" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C43" s="25"/>
       <c r="D43" s="25"/>
@@ -5332,8 +5822,7 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25">
-        <f>354.024+196.199</f>
-        <v>550.22299999999996</v>
+        <v>1051.8209999999999</v>
       </c>
       <c r="N43" s="25"/>
       <c r="O43" s="25"/>
@@ -5341,17 +5830,21 @@
       <c r="Q43" s="25"/>
       <c r="R43" s="25"/>
       <c r="S43" s="25">
-        <f>279.653+196.199</f>
-        <v>475.85200000000003</v>
+        <v>1060.425</v>
       </c>
       <c r="T43" s="25"/>
       <c r="U43" s="25"/>
       <c r="V43" s="25"/>
-      <c r="W43" s="25"/>
-    </row>
-    <row r="44" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W43" s="25">
+        <v>1032.6130000000001</v>
+      </c>
+      <c r="X43" s="25"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+    </row>
+    <row r="44" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C44" s="25"/>
       <c r="D44" s="25"/>
@@ -5364,7 +5857,8 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25">
-        <v>1455.2049999999999</v>
+        <f>354.024+196.199</f>
+        <v>550.22299999999996</v>
       </c>
       <c r="N44" s="25"/>
       <c r="O44" s="25"/>
@@ -5372,16 +5866,23 @@
       <c r="Q44" s="25"/>
       <c r="R44" s="25"/>
       <c r="S44" s="25">
-        <v>1546.0429999999999</v>
+        <f>279.653+196.199</f>
+        <v>475.85200000000003</v>
       </c>
       <c r="T44" s="25"/>
       <c r="U44" s="25"/>
       <c r="V44" s="25"/>
-      <c r="W44" s="25"/>
-    </row>
-    <row r="45" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W44" s="25">
+        <f>247.346+196.199</f>
+        <v>443.54500000000002</v>
+      </c>
+      <c r="X44" s="25"/>
+      <c r="Y44" s="25"/>
+      <c r="Z44" s="25"/>
+    </row>
+    <row r="45" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C45" s="25"/>
       <c r="D45" s="25"/>
@@ -5394,7 +5895,7 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25">
-        <v>151.78800000000001</v>
+        <v>1455.2049999999999</v>
       </c>
       <c r="N45" s="25"/>
       <c r="O45" s="25"/>
@@ -5402,16 +5903,21 @@
       <c r="Q45" s="25"/>
       <c r="R45" s="25"/>
       <c r="S45" s="25">
-        <v>184.79</v>
+        <v>1546.0429999999999</v>
       </c>
       <c r="T45" s="25"/>
       <c r="U45" s="25"/>
       <c r="V45" s="25"/>
-      <c r="W45" s="25"/>
-    </row>
-    <row r="46" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W45" s="25">
+        <v>1460.566</v>
+      </c>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+    </row>
+    <row r="46" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C46" s="25"/>
       <c r="D46" s="25"/>
@@ -5424,71 +5930,91 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25">
-        <f>SUM(M38:M45)</f>
-        <v>6264.0400000000009</v>
-      </c>
-      <c r="N46" s="25">
-        <f t="shared" ref="N46:S46" si="70">SUM(N38:N45)</f>
-        <v>0</v>
-      </c>
-      <c r="O46" s="25">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="P46" s="25">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="25">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
-      <c r="R46" s="25">
-        <f t="shared" si="70"/>
-        <v>0</v>
-      </c>
+        <v>151.78800000000001</v>
+      </c>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
       <c r="S46" s="25">
-        <f t="shared" si="70"/>
-        <v>6872.6729999999989</v>
+        <v>184.79</v>
       </c>
       <c r="T46" s="25"/>
       <c r="U46" s="25"/>
       <c r="V46" s="25"/>
-      <c r="W46" s="25"/>
-    </row>
-    <row r="48" spans="2:41" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="25"/>
-      <c r="D48" s="25"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="25"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="25"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="25"/>
-      <c r="K48" s="25"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="25">
-        <v>492.71699999999998</v>
-      </c>
-      <c r="N48" s="25"/>
-      <c r="O48" s="25"/>
-      <c r="P48" s="25"/>
-      <c r="Q48" s="25"/>
-      <c r="R48" s="25"/>
-      <c r="S48" s="25">
-        <v>593.54300000000001</v>
-      </c>
-      <c r="T48" s="25"/>
-      <c r="U48" s="25"/>
-      <c r="V48" s="25"/>
-      <c r="W48" s="25"/>
-    </row>
-    <row r="49" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W46" s="25">
+        <v>235.654</v>
+      </c>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+    </row>
+    <row r="47" spans="2:44" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="25"/>
+      <c r="E47" s="25"/>
+      <c r="F47" s="25"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="25"/>
+      <c r="I47" s="25"/>
+      <c r="J47" s="25"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25">
+        <f>SUM(M39:M46)</f>
+        <v>6264.0400000000009</v>
+      </c>
+      <c r="N47" s="25">
+        <f t="shared" ref="N47:W47" si="79">SUM(N39:N46)</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="P47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="R47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="25">
+        <f t="shared" si="79"/>
+        <v>6872.6729999999989</v>
+      </c>
+      <c r="T47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="U47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="V47" s="25">
+        <f t="shared" si="79"/>
+        <v>0</v>
+      </c>
+      <c r="W47" s="25">
+        <f t="shared" si="79"/>
+        <v>7147.0069999999996</v>
+      </c>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+    </row>
+    <row r="49" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C49" s="25"/>
       <c r="D49" s="25"/>
@@ -5501,7 +6027,7 @@
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
       <c r="M49" s="25">
-        <v>28.303000000000001</v>
+        <v>492.71699999999998</v>
       </c>
       <c r="N49" s="25"/>
       <c r="O49" s="25"/>
@@ -5509,16 +6035,21 @@
       <c r="Q49" s="25"/>
       <c r="R49" s="25"/>
       <c r="S49" s="25">
-        <v>0</v>
+        <v>593.54300000000001</v>
       </c>
       <c r="T49" s="25"/>
       <c r="U49" s="25"/>
       <c r="V49" s="25"/>
-      <c r="W49" s="25"/>
-    </row>
-    <row r="50" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W49" s="25">
+        <v>628.21299999999997</v>
+      </c>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+    </row>
+    <row r="50" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="C50" s="25"/>
       <c r="D50" s="25"/>
@@ -5531,7 +6062,7 @@
       <c r="K50" s="25"/>
       <c r="L50" s="25"/>
       <c r="M50" s="25">
-        <v>1082.0329999999999</v>
+        <v>28.303000000000001</v>
       </c>
       <c r="N50" s="25"/>
       <c r="O50" s="25"/>
@@ -5539,17 +6070,21 @@
       <c r="Q50" s="25"/>
       <c r="R50" s="25"/>
       <c r="S50" s="25">
-        <f>494.357+593.605</f>
-        <v>1087.962</v>
+        <v>0</v>
       </c>
       <c r="T50" s="25"/>
       <c r="U50" s="25"/>
       <c r="V50" s="25"/>
-      <c r="W50" s="25"/>
-    </row>
-    <row r="51" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W50" s="25">
+        <v>0</v>
+      </c>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+    </row>
+    <row r="51" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>147</v>
+        <v>4</v>
       </c>
       <c r="C51" s="25"/>
       <c r="D51" s="25"/>
@@ -5562,7 +6097,7 @@
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
       <c r="M51" s="25">
-        <v>92.472999999999999</v>
+        <v>1082.0329999999999</v>
       </c>
       <c r="N51" s="25"/>
       <c r="O51" s="25"/>
@@ -5570,16 +6105,22 @@
       <c r="Q51" s="25"/>
       <c r="R51" s="25"/>
       <c r="S51" s="25">
-        <v>117.352</v>
+        <f>494.357+593.605</f>
+        <v>1087.962</v>
       </c>
       <c r="T51" s="25"/>
       <c r="U51" s="25"/>
       <c r="V51" s="25"/>
-      <c r="W51" s="25"/>
-    </row>
-    <row r="52" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W51" s="25">
+        <v>595.65</v>
+      </c>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+    </row>
+    <row r="52" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C52" s="25"/>
       <c r="D52" s="25"/>
@@ -5592,7 +6133,7 @@
       <c r="K52" s="25"/>
       <c r="L52" s="25"/>
       <c r="M52" s="25">
-        <v>4568.5140000000001</v>
+        <v>92.472999999999999</v>
       </c>
       <c r="N52" s="25"/>
       <c r="O52" s="25"/>
@@ -5600,16 +6141,21 @@
       <c r="Q52" s="25"/>
       <c r="R52" s="25"/>
       <c r="S52" s="25">
-        <v>5073.8159999999998</v>
+        <v>117.352</v>
       </c>
       <c r="T52" s="25"/>
       <c r="U52" s="25"/>
       <c r="V52" s="25"/>
-      <c r="W52" s="25"/>
-    </row>
-    <row r="53" spans="2:23" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="W52" s="25">
+        <v>129.685</v>
+      </c>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+    </row>
+    <row r="53" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C53" s="25"/>
       <c r="D53" s="25"/>
@@ -5622,48 +6168,707 @@
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
       <c r="M53" s="25">
-        <f>SUM(M48:M52)</f>
-        <v>6264.04</v>
-      </c>
-      <c r="N53" s="25">
-        <f t="shared" ref="N53:S53" si="71">SUM(N48:N52)</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="25">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="P53" s="25">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="25">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
-      <c r="R53" s="25">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
+        <v>4568.5140000000001</v>
+      </c>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
       <c r="S53" s="25">
-        <f t="shared" si="71"/>
-        <v>6872.6729999999998</v>
+        <v>5073.8159999999998</v>
       </c>
       <c r="T53" s="25"/>
       <c r="U53" s="25"/>
       <c r="V53" s="25"/>
-      <c r="W53" s="25"/>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B55" s="2" t="s">
+      <c r="W53" s="25">
+        <v>5793.4589999999998</v>
+      </c>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+    </row>
+    <row r="54" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="25"/>
+      <c r="D54" s="25"/>
+      <c r="E54" s="25"/>
+      <c r="F54" s="25"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="25"/>
+      <c r="I54" s="25"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25">
+        <f>SUM(M49:M53)</f>
+        <v>6264.04</v>
+      </c>
+      <c r="N54" s="25">
+        <f t="shared" ref="N54:W54" si="80">SUM(N49:N53)</f>
+        <v>0</v>
+      </c>
+      <c r="O54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="P54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="R54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="25">
+        <f t="shared" si="80"/>
+        <v>6872.6729999999998</v>
+      </c>
+      <c r="T54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="V54" s="25">
+        <f t="shared" si="80"/>
+        <v>0</v>
+      </c>
+      <c r="W54" s="25">
+        <f t="shared" si="80"/>
+        <v>7147.0069999999996</v>
+      </c>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+    </row>
+    <row r="56" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C56" s="25"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="25"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="25"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25">
+        <f>+W28</f>
+        <v>191.84300000000002</v>
+      </c>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+    </row>
+    <row r="57" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="O55" s="3">
+      <c r="C57" s="25"/>
+      <c r="D57" s="25"/>
+      <c r="E57" s="25"/>
+      <c r="F57" s="25"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="25"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="25"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25">
+        <v>185.68600000000001</v>
+      </c>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+    </row>
+    <row r="58" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25">
+        <v>22.068999999999999</v>
+      </c>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+    </row>
+    <row r="59" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25">
+        <v>0.66</v>
+      </c>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+    </row>
+    <row r="60" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25">
+        <v>-1.3620000000000001</v>
+      </c>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+    </row>
+    <row r="61" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" s="25"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+    </row>
+    <row r="62" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C62" s="25"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25">
+        <v>2.9670000000000001</v>
+      </c>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+    </row>
+    <row r="63" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25">
+        <v>28.428999999999998</v>
+      </c>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+    </row>
+    <row r="64" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="25"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25">
+        <v>-10.026</v>
+      </c>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+    </row>
+    <row r="65" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25">
+        <v>-1.2669999999999999</v>
+      </c>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+    </row>
+    <row r="66" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25">
+        <f>-57.59-24.335-6.327-1.624-2.655+2.069</f>
+        <v>-90.462000000000003</v>
+      </c>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+    </row>
+    <row r="67" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C67" s="25"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25">
         <v>-73.932000000000002</v>
       </c>
-      <c r="S55" s="3">
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25">
         <v>46.970999999999997</v>
       </c>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25">
+        <f>SUM(W57:W66)</f>
+        <v>174.39400000000001</v>
+      </c>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+    </row>
+    <row r="68" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="25"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+    </row>
+    <row r="69" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="25"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25">
+        <v>-16.768000000000001</v>
+      </c>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+    </row>
+    <row r="70" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C70" s="25"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25">
+        <f>77.804-89.274</f>
+        <v>-11.469999999999999</v>
+      </c>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+    </row>
+    <row r="71" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C71" s="25"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25">
+        <f>+W69+W70</f>
+        <v>-28.238</v>
+      </c>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+    </row>
+    <row r="72" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="25"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
+      <c r="K72" s="25"/>
+      <c r="L72" s="25"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="25"/>
+      <c r="S72" s="25"/>
+      <c r="T72" s="25"/>
+      <c r="U72" s="25"/>
+      <c r="V72" s="25"/>
+      <c r="W72" s="25"/>
+      <c r="X72" s="25"/>
+      <c r="Y72" s="25"/>
+      <c r="Z72" s="25"/>
+    </row>
+    <row r="73" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C73" s="25"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
+      <c r="K73" s="25"/>
+      <c r="L73" s="25"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="25"/>
+      <c r="S73" s="25"/>
+      <c r="T73" s="25"/>
+      <c r="U73" s="25"/>
+      <c r="V73" s="25"/>
+      <c r="W73" s="25">
+        <v>-38.779000000000003</v>
+      </c>
+      <c r="X73" s="25"/>
+      <c r="Y73" s="25"/>
+      <c r="Z73" s="25"/>
+    </row>
+    <row r="74" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="25"/>
+      <c r="S74" s="25"/>
+      <c r="T74" s="25"/>
+      <c r="U74" s="25"/>
+      <c r="V74" s="25"/>
+      <c r="W74" s="25">
+        <v>-1.4159999999999999</v>
+      </c>
+      <c r="X74" s="25"/>
+      <c r="Y74" s="25"/>
+      <c r="Z74" s="25"/>
+    </row>
+    <row r="75" spans="2:26" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="25"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
+      <c r="K75" s="25"/>
+      <c r="L75" s="25"/>
+      <c r="M75" s="25"/>
+      <c r="N75" s="25"/>
+      <c r="O75" s="25"/>
+      <c r="P75" s="25"/>
+      <c r="Q75" s="25"/>
+      <c r="R75" s="25"/>
+      <c r="S75" s="25"/>
+      <c r="T75" s="25"/>
+      <c r="U75" s="25"/>
+      <c r="V75" s="25"/>
+      <c r="W75" s="25">
+        <f>+W74+W73+W71+W67</f>
+        <v>105.96100000000001</v>
+      </c>
+      <c r="X75" s="25"/>
+      <c r="Y75" s="25"/>
+      <c r="Z75" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5675,6 +6880,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EFFA70B-CAA0-492C-8056-6074BCBE4B30}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13" x14ac:dyDescent="0.3">
+      <c r="C11" s="31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{981E8F23-54CA-428E-8791-8E1CA5FE187C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F572E64F-F7F4-44D8-89AE-BB5BF258514B}">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -5682,131 +6966,131 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="11" width="9.85546875" customWidth="1"/>
-    <col min="12" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" customWidth="1"/>
+    <col min="3" max="9" width="9.7265625" customWidth="1"/>
+    <col min="10" max="11" width="9.81640625" customWidth="1"/>
+    <col min="12" max="12" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="9.81640625" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.3">
+      <c r="C12" s="31" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="48" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>119</v>
-      </c>
-      <c r="C10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C12" s="31" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C14" s="48" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="D16" s="3" t="s">
-        <v>128</v>
-      </c>
       <c r="E16" s="3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D17" s="3">
         <v>52.6</v>
@@ -5817,9 +7101,9 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D18" s="3">
         <v>42.4</v>
@@ -5838,9 +7122,9 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D19" s="3">
         <v>26.1</v>
@@ -5855,9 +7139,9 @@
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D20" s="3">
         <v>22.7</v>
@@ -5876,9 +7160,9 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D21" s="3">
         <v>15.2</v>
@@ -5897,7 +7181,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="C24">
         <v>2023</v>
       </c>
@@ -5946,9 +7230,9 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C25" s="2">
         <f>330000000/10000</f>
@@ -5999,9 +7283,9 @@
         <v>24403.416982811541</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C26" s="2">
         <v>300</v>
@@ -6050,7 +7334,7 @@
         <v>732.10250948434623</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>0</v>
       </c>
@@ -6091,7 +7375,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="2:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:14" s="23" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B28" s="23" t="s">
         <v>50</v>
       </c>
@@ -6144,9 +7428,9 @@
         <v>1464205.0189686925</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D30" s="2">
         <f>D26+C26</f>
@@ -6193,27 +7477,25 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E460A15-29A8-4F13-9FCA-9B377E9F471D}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -6234,7 +7516,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>400</v>
       </c>
@@ -6262,7 +7544,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>600</v>
       </c>
@@ -6290,7 +7572,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>800</v>
       </c>
@@ -6313,12 +7595,12 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C8" s="36">
         <f>+C4/90-1</f>
@@ -6345,7 +7627,7 @@
         <v>1.1777777777777776</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <f t="shared" ref="C9:F9" si="8">+C5/90-1</f>
         <v>-0.16666666666666663</v>
@@ -6371,7 +7653,7 @@
         <v>1.2555555555555555</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <f t="shared" ref="C10:G10" si="10">+C6/90-1</f>
         <v>-9.9999999999999978E-2</v>
